--- a/data/performance_data.xlsx
+++ b/data/performance_data.xlsx
@@ -512,7 +512,7 @@
         <v>99.94</v>
       </c>
       <c r="E3" t="n">
-        <v>101.4</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,16 +520,16 @@
         <v>45294</v>
       </c>
       <c r="B4" t="n">
-        <v>102.8</v>
+        <v>102.14</v>
       </c>
       <c r="C4" t="n">
-        <v>100.68</v>
+        <v>99.75</v>
       </c>
       <c r="D4" t="n">
-        <v>99.73999999999999</v>
+        <v>100.34</v>
       </c>
       <c r="E4" t="n">
-        <v>102.11</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="5">
@@ -537,16 +537,16 @@
         <v>45295</v>
       </c>
       <c r="B5" t="n">
-        <v>103.4</v>
+        <v>101.92</v>
       </c>
       <c r="C5" t="n">
-        <v>100.47</v>
+        <v>100.07</v>
       </c>
       <c r="D5" t="n">
-        <v>99.54000000000001</v>
+        <v>99.27</v>
       </c>
       <c r="E5" t="n">
-        <v>102.92</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="6">
@@ -554,16 +554,16 @@
         <v>45296</v>
       </c>
       <c r="B6" t="n">
-        <v>103.76</v>
+        <v>101.61</v>
       </c>
       <c r="C6" t="n">
-        <v>99.17</v>
+        <v>99.45</v>
       </c>
       <c r="D6" t="n">
-        <v>98.59</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>104.63</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="7">
@@ -571,16 +571,16 @@
         <v>45297</v>
       </c>
       <c r="B7" t="n">
-        <v>103.45</v>
+        <v>100.61</v>
       </c>
       <c r="C7" t="n">
-        <v>98.56</v>
+        <v>100.69</v>
       </c>
       <c r="D7" t="n">
-        <v>98.84999999999999</v>
+        <v>99.48</v>
       </c>
       <c r="E7" t="n">
-        <v>104.96</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>45298</v>
       </c>
       <c r="B8" t="n">
-        <v>102.85</v>
+        <v>99.62</v>
       </c>
       <c r="C8" t="n">
-        <v>97.65000000000001</v>
+        <v>100.42</v>
       </c>
       <c r="D8" t="n">
-        <v>99.8</v>
+        <v>99.63</v>
       </c>
       <c r="E8" t="n">
-        <v>105.33</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="9">
@@ -605,16 +605,16 @@
         <v>45299</v>
       </c>
       <c r="B9" t="n">
-        <v>102.82</v>
+        <v>100.07</v>
       </c>
       <c r="C9" t="n">
-        <v>97.84</v>
+        <v>100.1</v>
       </c>
       <c r="D9" t="n">
-        <v>99.03</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>105.09</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="10">
@@ -622,16 +622,16 @@
         <v>45300</v>
       </c>
       <c r="B10" t="n">
-        <v>102.52</v>
+        <v>101.7</v>
       </c>
       <c r="C10" t="n">
-        <v>98.05</v>
+        <v>100.23</v>
       </c>
       <c r="D10" t="n">
-        <v>98.42</v>
+        <v>98.98</v>
       </c>
       <c r="E10" t="n">
-        <v>104.56</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="11">
@@ -639,16 +639,16 @@
         <v>45301</v>
       </c>
       <c r="B11" t="n">
-        <v>102.99</v>
+        <v>100.86</v>
       </c>
       <c r="C11" t="n">
-        <v>97.75</v>
+        <v>100.53</v>
       </c>
       <c r="D11" t="n">
-        <v>98.33</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>105.36</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="12">
@@ -656,16 +656,16 @@
         <v>45302</v>
       </c>
       <c r="B12" t="n">
-        <v>102.65</v>
+        <v>101.17</v>
       </c>
       <c r="C12" t="n">
-        <v>99.23999999999999</v>
+        <v>101.23</v>
       </c>
       <c r="D12" t="n">
-        <v>98.40000000000001</v>
+        <v>98.08</v>
       </c>
       <c r="E12" t="n">
-        <v>103.43</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -673,16 +673,16 @@
         <v>45303</v>
       </c>
       <c r="B13" t="n">
-        <v>101.93</v>
+        <v>101.08</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>100.25</v>
       </c>
       <c r="D13" t="n">
-        <v>97.76000000000001</v>
+        <v>97.73</v>
       </c>
       <c r="E13" t="n">
-        <v>101.94</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         <v>45304</v>
       </c>
       <c r="B14" t="n">
-        <v>102.25</v>
+        <v>102.08</v>
       </c>
       <c r="C14" t="n">
-        <v>98.67</v>
+        <v>100.65</v>
       </c>
       <c r="D14" t="n">
-        <v>97.06</v>
+        <v>96.78</v>
       </c>
       <c r="E14" t="n">
-        <v>103.64</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="15">
@@ -707,16 +707,16 @@
         <v>45305</v>
       </c>
       <c r="B15" t="n">
-        <v>102.57</v>
+        <v>101.92</v>
       </c>
       <c r="C15" t="n">
-        <v>99.34999999999999</v>
+        <v>100.28</v>
       </c>
       <c r="D15" t="n">
-        <v>97.23999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>103.24</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="16">
@@ -724,16 +724,16 @@
         <v>45306</v>
       </c>
       <c r="B16" t="n">
-        <v>102.63</v>
+        <v>102.83</v>
       </c>
       <c r="C16" t="n">
-        <v>99.26000000000001</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>96.45</v>
+        <v>97.11</v>
       </c>
       <c r="E16" t="n">
-        <v>103.39</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="17">
@@ -741,16 +741,16 @@
         <v>45307</v>
       </c>
       <c r="B17" t="n">
-        <v>102.19</v>
+        <v>103.79</v>
       </c>
       <c r="C17" t="n">
-        <v>99.06</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>97.14</v>
+        <v>97.08</v>
       </c>
       <c r="E17" t="n">
-        <v>103.16</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="18">
@@ -758,16 +758,16 @@
         <v>45308</v>
       </c>
       <c r="B18" t="n">
-        <v>102.62</v>
+        <v>102.95</v>
       </c>
       <c r="C18" t="n">
-        <v>97.89</v>
+        <v>100.31</v>
       </c>
       <c r="D18" t="n">
-        <v>97.41</v>
+        <v>97.94</v>
       </c>
       <c r="E18" t="n">
-        <v>104.84</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -775,16 +775,16 @@
         <v>45309</v>
       </c>
       <c r="B19" t="n">
-        <v>102.46</v>
+        <v>103.94</v>
       </c>
       <c r="C19" t="n">
-        <v>97.53</v>
+        <v>100.73</v>
       </c>
       <c r="D19" t="n">
-        <v>97.84</v>
+        <v>97.64</v>
       </c>
       <c r="E19" t="n">
-        <v>105.06</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="20">
@@ -792,16 +792,16 @@
         <v>45310</v>
       </c>
       <c r="B20" t="n">
-        <v>103.46</v>
+        <v>105.37</v>
       </c>
       <c r="C20" t="n">
-        <v>98.34999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="D20" t="n">
-        <v>97.43000000000001</v>
+        <v>98.64</v>
       </c>
       <c r="E20" t="n">
-        <v>105.2</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -809,16 +809,16 @@
         <v>45311</v>
       </c>
       <c r="B21" t="n">
-        <v>103.36</v>
+        <v>106.22</v>
       </c>
       <c r="C21" t="n">
-        <v>98.73</v>
+        <v>101.05</v>
       </c>
       <c r="D21" t="n">
-        <v>98.08</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>104.69</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="22">
@@ -826,16 +826,16 @@
         <v>45312</v>
       </c>
       <c r="B22" t="n">
-        <v>103.12</v>
+        <v>104.69</v>
       </c>
       <c r="C22" t="n">
-        <v>98.73</v>
+        <v>101.02</v>
       </c>
       <c r="D22" t="n">
-        <v>97.5</v>
+        <v>98.83</v>
       </c>
       <c r="E22" t="n">
-        <v>104.44</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="23">
@@ -843,16 +843,16 @@
         <v>45313</v>
       </c>
       <c r="B23" t="n">
-        <v>102.29</v>
+        <v>104.41</v>
       </c>
       <c r="C23" t="n">
-        <v>99.47</v>
+        <v>100.55</v>
       </c>
       <c r="D23" t="n">
-        <v>98.37</v>
+        <v>98.61</v>
       </c>
       <c r="E23" t="n">
-        <v>102.83</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="24">
@@ -860,16 +860,16 @@
         <v>45314</v>
       </c>
       <c r="B24" t="n">
-        <v>102.38</v>
+        <v>104.85</v>
       </c>
       <c r="C24" t="n">
-        <v>100.36</v>
+        <v>100.29</v>
       </c>
       <c r="D24" t="n">
-        <v>98.67</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>102.02</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="25">
@@ -877,16 +877,16 @@
         <v>45315</v>
       </c>
       <c r="B25" t="n">
-        <v>102.01</v>
+        <v>105.82</v>
       </c>
       <c r="C25" t="n">
-        <v>100.77</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>99.66</v>
+        <v>98.88</v>
       </c>
       <c r="E25" t="n">
-        <v>101.23</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -894,16 +894,16 @@
         <v>45316</v>
       </c>
       <c r="B26" t="n">
-        <v>102.13</v>
+        <v>104.73</v>
       </c>
       <c r="C26" t="n">
-        <v>102.09</v>
+        <v>100.27</v>
       </c>
       <c r="D26" t="n">
-        <v>98.17</v>
+        <v>99.11</v>
       </c>
       <c r="E26" t="n">
-        <v>100.04</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -911,16 +911,16 @@
         <v>45317</v>
       </c>
       <c r="B27" t="n">
-        <v>102.95</v>
+        <v>104.7</v>
       </c>
       <c r="C27" t="n">
-        <v>102.3</v>
+        <v>99.34</v>
       </c>
       <c r="D27" t="n">
-        <v>98.06999999999999</v>
+        <v>98.94</v>
       </c>
       <c r="E27" t="n">
-        <v>100.64</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="28">
@@ -928,16 +928,16 @@
         <v>45318</v>
       </c>
       <c r="B28" t="n">
-        <v>103.18</v>
+        <v>104.18</v>
       </c>
       <c r="C28" t="n">
-        <v>100.92</v>
+        <v>99.36</v>
       </c>
       <c r="D28" t="n">
-        <v>98.02</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>102.24</v>
+        <v>100.19</v>
       </c>
     </row>
     <row r="29">
@@ -945,16 +945,16 @@
         <v>45319</v>
       </c>
       <c r="B29" t="n">
-        <v>103.63</v>
+        <v>104.48</v>
       </c>
       <c r="C29" t="n">
-        <v>102.18</v>
+        <v>99.69</v>
       </c>
       <c r="D29" t="n">
-        <v>97.79000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E29" t="n">
-        <v>101.42</v>
+        <v>99.81</v>
       </c>
     </row>
     <row r="30">
@@ -962,16 +962,16 @@
         <v>45320</v>
       </c>
       <c r="B30" t="n">
-        <v>103.12</v>
+        <v>104.62</v>
       </c>
       <c r="C30" t="n">
-        <v>101.94</v>
+        <v>99.88</v>
       </c>
       <c r="D30" t="n">
-        <v>98.41</v>
+        <v>100.84</v>
       </c>
       <c r="E30" t="n">
-        <v>101.16</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="31">
@@ -979,16 +979,16 @@
         <v>45321</v>
       </c>
       <c r="B31" t="n">
-        <v>103.55</v>
+        <v>105.03</v>
       </c>
       <c r="C31" t="n">
-        <v>101.68</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>98.79000000000001</v>
+        <v>100.22</v>
       </c>
       <c r="E31" t="n">
-        <v>101.84</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="32">
@@ -996,16 +996,16 @@
         <v>45322</v>
       </c>
       <c r="B32" t="n">
-        <v>103.78</v>
+        <v>105.82</v>
       </c>
       <c r="C32" t="n">
-        <v>102.56</v>
+        <v>100.72</v>
       </c>
       <c r="D32" t="n">
-        <v>98.45</v>
+        <v>99.75</v>
       </c>
       <c r="E32" t="n">
-        <v>101.19</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="33">
@@ -1013,16 +1013,16 @@
         <v>45323</v>
       </c>
       <c r="B33" t="n">
-        <v>103.66</v>
+        <v>104.79</v>
       </c>
       <c r="C33" t="n">
-        <v>102.4</v>
+        <v>101.31</v>
       </c>
       <c r="D33" t="n">
-        <v>97.67</v>
+        <v>101.14</v>
       </c>
       <c r="E33" t="n">
-        <v>101.23</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1030,16 +1030,16 @@
         <v>45324</v>
       </c>
       <c r="B34" t="n">
-        <v>104.07</v>
+        <v>104.47</v>
       </c>
       <c r="C34" t="n">
-        <v>102.75</v>
+        <v>101.52</v>
       </c>
       <c r="D34" t="n">
-        <v>97.75</v>
+        <v>100.92</v>
       </c>
       <c r="E34" t="n">
-        <v>101.29</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="35">
@@ -1047,16 +1047,16 @@
         <v>45325</v>
       </c>
       <c r="B35" t="n">
-        <v>104.03</v>
+        <v>104.68</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8</v>
+        <v>100.86</v>
       </c>
       <c r="D35" t="n">
-        <v>97.58</v>
+        <v>101.28</v>
       </c>
       <c r="E35" t="n">
-        <v>102.19</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="36">
@@ -1064,16 +1064,16 @@
         <v>45326</v>
       </c>
       <c r="B36" t="n">
-        <v>103.9</v>
+        <v>106.14</v>
       </c>
       <c r="C36" t="n">
-        <v>101.33</v>
+        <v>100.41</v>
       </c>
       <c r="D36" t="n">
-        <v>97.56</v>
+        <v>101.17</v>
       </c>
       <c r="E36" t="n">
-        <v>102.54</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="37">
@@ -1081,16 +1081,16 @@
         <v>45327</v>
       </c>
       <c r="B37" t="n">
-        <v>104.39</v>
+        <v>105.25</v>
       </c>
       <c r="C37" t="n">
-        <v>102.9</v>
+        <v>100.72</v>
       </c>
       <c r="D37" t="n">
-        <v>97.75</v>
+        <v>102.04</v>
       </c>
       <c r="E37" t="n">
-        <v>101.44</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="38">
@@ -1098,16 +1098,16 @@
         <v>45328</v>
       </c>
       <c r="B38" t="n">
-        <v>104.76</v>
+        <v>105.57</v>
       </c>
       <c r="C38" t="n">
-        <v>102.99</v>
+        <v>101.06</v>
       </c>
       <c r="D38" t="n">
-        <v>96.7</v>
+        <v>102.6</v>
       </c>
       <c r="E38" t="n">
-        <v>101.72</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="39">
@@ -1115,16 +1115,16 @@
         <v>45329</v>
       </c>
       <c r="B39" t="n">
-        <v>104.9</v>
+        <v>104.61</v>
       </c>
       <c r="C39" t="n">
-        <v>103.18</v>
+        <v>101.59</v>
       </c>
       <c r="D39" t="n">
-        <v>98.2</v>
+        <v>102.87</v>
       </c>
       <c r="E39" t="n">
-        <v>101.66</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="40">
@@ -1132,16 +1132,16 @@
         <v>45330</v>
       </c>
       <c r="B40" t="n">
-        <v>104.89</v>
+        <v>105.06</v>
       </c>
       <c r="C40" t="n">
-        <v>103.56</v>
+        <v>101.22</v>
       </c>
       <c r="D40" t="n">
-        <v>98.26000000000001</v>
+        <v>103.09</v>
       </c>
       <c r="E40" t="n">
-        <v>101.29</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="41">
@@ -1149,16 +1149,16 @@
         <v>45331</v>
       </c>
       <c r="B41" t="n">
-        <v>104.07</v>
+        <v>104.61</v>
       </c>
       <c r="C41" t="n">
-        <v>104.59</v>
+        <v>102.78</v>
       </c>
       <c r="D41" t="n">
-        <v>98.78</v>
+        <v>103.47</v>
       </c>
       <c r="E41" t="n">
-        <v>99.5</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="42">
@@ -1166,16 +1166,16 @@
         <v>45332</v>
       </c>
       <c r="B42" t="n">
-        <v>104.88</v>
+        <v>105.32</v>
       </c>
       <c r="C42" t="n">
-        <v>104.02</v>
+        <v>102.17</v>
       </c>
       <c r="D42" t="n">
-        <v>99.69</v>
+        <v>104.04</v>
       </c>
       <c r="E42" t="n">
-        <v>100.83</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="43">
@@ -1183,16 +1183,16 @@
         <v>45333</v>
       </c>
       <c r="B43" t="n">
-        <v>103.86</v>
+        <v>104.79</v>
       </c>
       <c r="C43" t="n">
-        <v>104.63</v>
+        <v>103.05</v>
       </c>
       <c r="D43" t="n">
-        <v>101.09</v>
+        <v>104.38</v>
       </c>
       <c r="E43" t="n">
-        <v>99.27</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="44">
@@ -1200,16 +1200,16 @@
         <v>45334</v>
       </c>
       <c r="B44" t="n">
-        <v>103.2</v>
+        <v>106.53</v>
       </c>
       <c r="C44" t="n">
-        <v>104.33</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>101.23</v>
+        <v>103.99</v>
       </c>
       <c r="E44" t="n">
-        <v>98.91</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="45">
@@ -1217,16 +1217,16 @@
         <v>45335</v>
       </c>
       <c r="B45" t="n">
-        <v>102.94</v>
+        <v>106</v>
       </c>
       <c r="C45" t="n">
-        <v>103.26</v>
+        <v>103.09</v>
       </c>
       <c r="D45" t="n">
-        <v>101.35</v>
+        <v>104.29</v>
       </c>
       <c r="E45" t="n">
-        <v>99.68000000000001</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="46">
@@ -1234,16 +1234,16 @@
         <v>45336</v>
       </c>
       <c r="B46" t="n">
-        <v>102.22</v>
+        <v>106.86</v>
       </c>
       <c r="C46" t="n">
-        <v>103.77</v>
+        <v>103.24</v>
       </c>
       <c r="D46" t="n">
-        <v>100.87</v>
+        <v>105.28</v>
       </c>
       <c r="E46" t="n">
-        <v>98.5</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="47">
@@ -1251,16 +1251,16 @@
         <v>45337</v>
       </c>
       <c r="B47" t="n">
-        <v>103.64</v>
+        <v>109.34</v>
       </c>
       <c r="C47" t="n">
-        <v>103.31</v>
+        <v>103.87</v>
       </c>
       <c r="D47" t="n">
-        <v>100.76</v>
+        <v>104.83</v>
       </c>
       <c r="E47" t="n">
-        <v>100.32</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="48">
@@ -1268,16 +1268,16 @@
         <v>45338</v>
       </c>
       <c r="B48" t="n">
-        <v>104.47</v>
+        <v>109.93</v>
       </c>
       <c r="C48" t="n">
-        <v>102.5</v>
+        <v>103.84</v>
       </c>
       <c r="D48" t="n">
-        <v>100.97</v>
+        <v>105.36</v>
       </c>
       <c r="E48" t="n">
-        <v>101.92</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="49">
@@ -1285,16 +1285,16 @@
         <v>45339</v>
       </c>
       <c r="B49" t="n">
-        <v>105.72</v>
+        <v>110.03</v>
       </c>
       <c r="C49" t="n">
-        <v>101.41</v>
+        <v>103.33</v>
       </c>
       <c r="D49" t="n">
-        <v>101.17</v>
+        <v>104.48</v>
       </c>
       <c r="E49" t="n">
-        <v>104.25</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1302,16 +1302,16 @@
         <v>45340</v>
       </c>
       <c r="B50" t="n">
-        <v>106.09</v>
+        <v>110.95</v>
       </c>
       <c r="C50" t="n">
-        <v>102.14</v>
+        <v>103.64</v>
       </c>
       <c r="D50" t="n">
-        <v>100.5</v>
+        <v>103.79</v>
       </c>
       <c r="E50" t="n">
-        <v>103.87</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="51">
@@ -1319,16 +1319,16 @@
         <v>45341</v>
       </c>
       <c r="B51" t="n">
-        <v>105.13</v>
+        <v>111.46</v>
       </c>
       <c r="C51" t="n">
-        <v>102.69</v>
+        <v>103.1</v>
       </c>
       <c r="D51" t="n">
-        <v>100.76</v>
+        <v>103.97</v>
       </c>
       <c r="E51" t="n">
-        <v>102.38</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="52">
@@ -1336,16 +1336,16 @@
         <v>45342</v>
       </c>
       <c r="B52" t="n">
-        <v>105.5</v>
+        <v>110.61</v>
       </c>
       <c r="C52" t="n">
-        <v>103.1</v>
+        <v>103.52</v>
       </c>
       <c r="D52" t="n">
-        <v>100.43</v>
+        <v>104.4</v>
       </c>
       <c r="E52" t="n">
-        <v>102.33</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="53">
@@ -1353,16 +1353,16 @@
         <v>45343</v>
       </c>
       <c r="B53" t="n">
-        <v>105.85</v>
+        <v>111.71</v>
       </c>
       <c r="C53" t="n">
-        <v>103.47</v>
+        <v>102.59</v>
       </c>
       <c r="D53" t="n">
-        <v>100.08</v>
+        <v>103.9</v>
       </c>
       <c r="E53" t="n">
-        <v>102.31</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="54">
@@ -1370,16 +1370,16 @@
         <v>45344</v>
       </c>
       <c r="B54" t="n">
-        <v>107.59</v>
+        <v>112.33</v>
       </c>
       <c r="C54" t="n">
-        <v>103.98</v>
+        <v>103.13</v>
       </c>
       <c r="D54" t="n">
-        <v>99.44</v>
+        <v>106.38</v>
       </c>
       <c r="E54" t="n">
-        <v>103.47</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="55">
@@ -1387,16 +1387,16 @@
         <v>45345</v>
       </c>
       <c r="B55" t="n">
-        <v>108.32</v>
+        <v>113.52</v>
       </c>
       <c r="C55" t="n">
-        <v>103.37</v>
+        <v>104.02</v>
       </c>
       <c r="D55" t="n">
-        <v>99.98999999999999</v>
+        <v>106.88</v>
       </c>
       <c r="E55" t="n">
-        <v>104.79</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="56">
@@ -1404,16 +1404,16 @@
         <v>45346</v>
       </c>
       <c r="B56" t="n">
-        <v>109.49</v>
+        <v>114.38</v>
       </c>
       <c r="C56" t="n">
-        <v>102.88</v>
+        <v>103.56</v>
       </c>
       <c r="D56" t="n">
-        <v>100.65</v>
+        <v>106.81</v>
       </c>
       <c r="E56" t="n">
-        <v>106.43</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="57">
@@ -1421,16 +1421,16 @@
         <v>45347</v>
       </c>
       <c r="B57" t="n">
-        <v>110.01</v>
+        <v>114.63</v>
       </c>
       <c r="C57" t="n">
-        <v>103.65</v>
+        <v>105.5</v>
       </c>
       <c r="D57" t="n">
-        <v>101.87</v>
+        <v>105.7</v>
       </c>
       <c r="E57" t="n">
-        <v>106.13</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="58">
@@ -1438,16 +1438,16 @@
         <v>45348</v>
       </c>
       <c r="B58" t="n">
-        <v>109.96</v>
+        <v>113.32</v>
       </c>
       <c r="C58" t="n">
-        <v>103.21</v>
+        <v>105.28</v>
       </c>
       <c r="D58" t="n">
-        <v>101.41</v>
+        <v>106.48</v>
       </c>
       <c r="E58" t="n">
-        <v>106.54</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="59">
@@ -1455,16 +1455,16 @@
         <v>45349</v>
       </c>
       <c r="B59" t="n">
-        <v>109.41</v>
+        <v>112.51</v>
       </c>
       <c r="C59" t="n">
-        <v>103.3</v>
+        <v>104.86</v>
       </c>
       <c r="D59" t="n">
-        <v>101.7</v>
+        <v>107</v>
       </c>
       <c r="E59" t="n">
-        <v>105.92</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1472,16 +1472,16 @@
         <v>45350</v>
       </c>
       <c r="B60" t="n">
-        <v>109.82</v>
+        <v>112.88</v>
       </c>
       <c r="C60" t="n">
-        <v>104.08</v>
+        <v>105.04</v>
       </c>
       <c r="D60" t="n">
-        <v>101.79</v>
+        <v>106.67</v>
       </c>
       <c r="E60" t="n">
-        <v>105.51</v>
+        <v>100.21</v>
       </c>
     </row>
     <row r="61">
@@ -1489,16 +1489,16 @@
         <v>45351</v>
       </c>
       <c r="B61" t="n">
-        <v>111.26</v>
+        <v>113.62</v>
       </c>
       <c r="C61" t="n">
-        <v>104.02</v>
+        <v>103.59</v>
       </c>
       <c r="D61" t="n">
-        <v>103.53</v>
+        <v>106.87</v>
       </c>
       <c r="E61" t="n">
-        <v>106.95</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1506,16 +1506,16 @@
         <v>45352</v>
       </c>
       <c r="B62" t="n">
-        <v>111.98</v>
+        <v>114.56</v>
       </c>
       <c r="C62" t="n">
-        <v>103.5</v>
+        <v>103.12</v>
       </c>
       <c r="D62" t="n">
-        <v>102.95</v>
+        <v>106.88</v>
       </c>
       <c r="E62" t="n">
-        <v>108.19</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="63">
@@ -1523,16 +1523,16 @@
         <v>45353</v>
       </c>
       <c r="B63" t="n">
-        <v>112.58</v>
+        <v>115.53</v>
       </c>
       <c r="C63" t="n">
-        <v>103.47</v>
+        <v>102.34</v>
       </c>
       <c r="D63" t="n">
-        <v>103.47</v>
+        <v>106.75</v>
       </c>
       <c r="E63" t="n">
-        <v>108.8</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="64">
@@ -1540,16 +1540,16 @@
         <v>45354</v>
       </c>
       <c r="B64" t="n">
-        <v>113.18</v>
+        <v>115.1</v>
       </c>
       <c r="C64" t="n">
-        <v>103.56</v>
+        <v>103.84</v>
       </c>
       <c r="D64" t="n">
-        <v>103.03</v>
+        <v>107.1</v>
       </c>
       <c r="E64" t="n">
-        <v>109.29</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="65">
@@ -1557,16 +1557,16 @@
         <v>45355</v>
       </c>
       <c r="B65" t="n">
-        <v>111.97</v>
+        <v>116.12</v>
       </c>
       <c r="C65" t="n">
-        <v>103.36</v>
+        <v>105.63</v>
       </c>
       <c r="D65" t="n">
-        <v>103.64</v>
+        <v>107.85</v>
       </c>
       <c r="E65" t="n">
-        <v>108.34</v>
+        <v>99.84999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1574,16 +1574,16 @@
         <v>45356</v>
       </c>
       <c r="B66" t="n">
-        <v>112.33</v>
+        <v>115.84</v>
       </c>
       <c r="C66" t="n">
-        <v>102.54</v>
+        <v>106.79</v>
       </c>
       <c r="D66" t="n">
-        <v>103.83</v>
+        <v>107.48</v>
       </c>
       <c r="E66" t="n">
-        <v>109.55</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="67">
@@ -1591,16 +1591,16 @@
         <v>45357</v>
       </c>
       <c r="B67" t="n">
-        <v>112.85</v>
+        <v>116.73</v>
       </c>
       <c r="C67" t="n">
-        <v>102</v>
+        <v>106.19</v>
       </c>
       <c r="D67" t="n">
-        <v>104.01</v>
+        <v>107.52</v>
       </c>
       <c r="E67" t="n">
-        <v>110.64</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1608,16 +1608,16 @@
         <v>45358</v>
       </c>
       <c r="B68" t="n">
-        <v>113.07</v>
+        <v>115.95</v>
       </c>
       <c r="C68" t="n">
-        <v>101.27</v>
+        <v>106.14</v>
       </c>
       <c r="D68" t="n">
-        <v>104.32</v>
+        <v>106.8</v>
       </c>
       <c r="E68" t="n">
-        <v>111.65</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="69">
@@ -1625,16 +1625,16 @@
         <v>45359</v>
       </c>
       <c r="B69" t="n">
-        <v>113.75</v>
+        <v>114.8</v>
       </c>
       <c r="C69" t="n">
-        <v>102.23</v>
+        <v>105.94</v>
       </c>
       <c r="D69" t="n">
-        <v>105.06</v>
+        <v>106.97</v>
       </c>
       <c r="E69" t="n">
-        <v>111.26</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="70">
@@ -1642,16 +1642,16 @@
         <v>45360</v>
       </c>
       <c r="B70" t="n">
-        <v>112.66</v>
+        <v>113.65</v>
       </c>
       <c r="C70" t="n">
-        <v>101.66</v>
+        <v>107.01</v>
       </c>
       <c r="D70" t="n">
-        <v>105.47</v>
+        <v>107.07</v>
       </c>
       <c r="E70" t="n">
-        <v>110.83</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1659,16 +1659,16 @@
         <v>45361</v>
       </c>
       <c r="B71" t="n">
-        <v>113.3</v>
+        <v>114.24</v>
       </c>
       <c r="C71" t="n">
-        <v>102.19</v>
+        <v>107.32</v>
       </c>
       <c r="D71" t="n">
-        <v>107.99</v>
+        <v>106.77</v>
       </c>
       <c r="E71" t="n">
-        <v>110.87</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="72">
@@ -1676,16 +1676,16 @@
         <v>45362</v>
       </c>
       <c r="B72" t="n">
-        <v>113.98</v>
+        <v>114.06</v>
       </c>
       <c r="C72" t="n">
-        <v>103.21</v>
+        <v>107.56</v>
       </c>
       <c r="D72" t="n">
-        <v>108.7</v>
+        <v>107.27</v>
       </c>
       <c r="E72" t="n">
-        <v>110.44</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="73">
@@ -1693,16 +1693,16 @@
         <v>45363</v>
       </c>
       <c r="B73" t="n">
-        <v>114.75</v>
+        <v>113.1</v>
       </c>
       <c r="C73" t="n">
-        <v>103.11</v>
+        <v>109.43</v>
       </c>
       <c r="D73" t="n">
-        <v>109.28</v>
+        <v>106.1</v>
       </c>
       <c r="E73" t="n">
-        <v>111.29</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="74">
@@ -1710,16 +1710,16 @@
         <v>45364</v>
       </c>
       <c r="B74" t="n">
-        <v>114.21</v>
+        <v>113.8</v>
       </c>
       <c r="C74" t="n">
-        <v>103.07</v>
+        <v>109.82</v>
       </c>
       <c r="D74" t="n">
-        <v>109.05</v>
+        <v>105.79</v>
       </c>
       <c r="E74" t="n">
-        <v>110.81</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="75">
@@ -1727,16 +1727,16 @@
         <v>45365</v>
       </c>
       <c r="B75" t="n">
-        <v>114.46</v>
+        <v>113.53</v>
       </c>
       <c r="C75" t="n">
-        <v>105</v>
+        <v>109.49</v>
       </c>
       <c r="D75" t="n">
-        <v>107.91</v>
+        <v>106.42</v>
       </c>
       <c r="E75" t="n">
-        <v>109.01</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="76">
@@ -1744,16 +1744,16 @@
         <v>45366</v>
       </c>
       <c r="B76" t="n">
-        <v>115.26</v>
+        <v>113.07</v>
       </c>
       <c r="C76" t="n">
-        <v>103.88</v>
+        <v>110.38</v>
       </c>
       <c r="D76" t="n">
-        <v>107.69</v>
+        <v>106.7</v>
       </c>
       <c r="E76" t="n">
-        <v>110.95</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="77">
@@ -1761,16 +1761,16 @@
         <v>45367</v>
       </c>
       <c r="B77" t="n">
-        <v>116.43</v>
+        <v>113.81</v>
       </c>
       <c r="C77" t="n">
-        <v>104.07</v>
+        <v>109.85</v>
       </c>
       <c r="D77" t="n">
-        <v>107.08</v>
+        <v>106.42</v>
       </c>
       <c r="E77" t="n">
-        <v>111.88</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="78">
@@ -1778,16 +1778,16 @@
         <v>45368</v>
       </c>
       <c r="B78" t="n">
-        <v>115.94</v>
+        <v>114.53</v>
       </c>
       <c r="C78" t="n">
-        <v>104.75</v>
+        <v>109.98</v>
       </c>
       <c r="D78" t="n">
-        <v>106.7</v>
+        <v>106.58</v>
       </c>
       <c r="E78" t="n">
-        <v>110.69</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="79">
@@ -1795,16 +1795,16 @@
         <v>45369</v>
       </c>
       <c r="B79" t="n">
-        <v>116.32</v>
+        <v>114.16</v>
       </c>
       <c r="C79" t="n">
-        <v>104.93</v>
+        <v>110.59</v>
       </c>
       <c r="D79" t="n">
-        <v>106.37</v>
+        <v>106.54</v>
       </c>
       <c r="E79" t="n">
-        <v>110.85</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="80">
@@ -1812,16 +1812,16 @@
         <v>45370</v>
       </c>
       <c r="B80" t="n">
-        <v>118.49</v>
+        <v>115.34</v>
       </c>
       <c r="C80" t="n">
-        <v>105.58</v>
+        <v>111.43</v>
       </c>
       <c r="D80" t="n">
-        <v>105.16</v>
+        <v>107.15</v>
       </c>
       <c r="E80" t="n">
-        <v>112.23</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="81">
@@ -1829,16 +1829,16 @@
         <v>45371</v>
       </c>
       <c r="B81" t="n">
-        <v>118.84</v>
+        <v>115.53</v>
       </c>
       <c r="C81" t="n">
-        <v>105.2</v>
+        <v>112.15</v>
       </c>
       <c r="D81" t="n">
-        <v>105.78</v>
+        <v>107.03</v>
       </c>
       <c r="E81" t="n">
-        <v>112.97</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="82">
@@ -1846,16 +1846,16 @@
         <v>45372</v>
       </c>
       <c r="B82" t="n">
-        <v>118.27</v>
+        <v>115.58</v>
       </c>
       <c r="C82" t="n">
-        <v>105.26</v>
+        <v>112.39</v>
       </c>
       <c r="D82" t="n">
-        <v>106.19</v>
+        <v>107.5</v>
       </c>
       <c r="E82" t="n">
-        <v>112.36</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="83">
@@ -1863,16 +1863,16 @@
         <v>45373</v>
       </c>
       <c r="B83" t="n">
-        <v>119.26</v>
+        <v>117.69</v>
       </c>
       <c r="C83" t="n">
-        <v>104.46</v>
+        <v>111.7</v>
       </c>
       <c r="D83" t="n">
-        <v>106.06</v>
+        <v>106.8</v>
       </c>
       <c r="E83" t="n">
-        <v>114.17</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="84">
@@ -1880,16 +1880,16 @@
         <v>45374</v>
       </c>
       <c r="B84" t="n">
-        <v>118.99</v>
+        <v>118.61</v>
       </c>
       <c r="C84" t="n">
-        <v>104.09</v>
+        <v>112.38</v>
       </c>
       <c r="D84" t="n">
-        <v>107.27</v>
+        <v>107.29</v>
       </c>
       <c r="E84" t="n">
-        <v>114.31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
@@ -1897,16 +1897,16 @@
         <v>45375</v>
       </c>
       <c r="B85" t="n">
-        <v>119.55</v>
+        <v>117.94</v>
       </c>
       <c r="C85" t="n">
-        <v>103.25</v>
+        <v>112.6</v>
       </c>
       <c r="D85" t="n">
-        <v>107.95</v>
+        <v>106.94</v>
       </c>
       <c r="E85" t="n">
-        <v>115.79</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="86">
@@ -1914,16 +1914,16 @@
         <v>45376</v>
       </c>
       <c r="B86" t="n">
-        <v>121.76</v>
+        <v>117.98</v>
       </c>
       <c r="C86" t="n">
-        <v>104.2</v>
+        <v>112.06</v>
       </c>
       <c r="D86" t="n">
-        <v>107.05</v>
+        <v>106.82</v>
       </c>
       <c r="E86" t="n">
-        <v>116.86</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="87">
@@ -1931,16 +1931,16 @@
         <v>45377</v>
       </c>
       <c r="B87" t="n">
-        <v>121.47</v>
+        <v>117.62</v>
       </c>
       <c r="C87" t="n">
-        <v>105.33</v>
+        <v>111.53</v>
       </c>
       <c r="D87" t="n">
-        <v>106.68</v>
+        <v>107.06</v>
       </c>
       <c r="E87" t="n">
-        <v>115.32</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="88">
@@ -1948,16 +1948,16 @@
         <v>45378</v>
       </c>
       <c r="B88" t="n">
-        <v>122.09</v>
+        <v>117.32</v>
       </c>
       <c r="C88" t="n">
-        <v>106.09</v>
+        <v>111.29</v>
       </c>
       <c r="D88" t="n">
-        <v>106.17</v>
+        <v>107.3</v>
       </c>
       <c r="E88" t="n">
-        <v>115.07</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="89">
@@ -1965,16 +1965,16 @@
         <v>45379</v>
       </c>
       <c r="B89" t="n">
-        <v>122.21</v>
+        <v>116.18</v>
       </c>
       <c r="C89" t="n">
-        <v>103.66</v>
+        <v>110.85</v>
       </c>
       <c r="D89" t="n">
-        <v>105.6</v>
+        <v>107.24</v>
       </c>
       <c r="E89" t="n">
-        <v>117.89</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="90">
@@ -1982,16 +1982,16 @@
         <v>45380</v>
       </c>
       <c r="B90" t="n">
-        <v>122.15</v>
+        <v>117.72</v>
       </c>
       <c r="C90" t="n">
-        <v>102.84</v>
+        <v>111.71</v>
       </c>
       <c r="D90" t="n">
-        <v>106.72</v>
+        <v>107.23</v>
       </c>
       <c r="E90" t="n">
-        <v>118.78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -1999,16 +1999,16 @@
         <v>45381</v>
       </c>
       <c r="B91" t="n">
-        <v>120.93</v>
+        <v>116.95</v>
       </c>
       <c r="C91" t="n">
-        <v>102.64</v>
+        <v>111.86</v>
       </c>
       <c r="D91" t="n">
-        <v>106.89</v>
+        <v>107.13</v>
       </c>
       <c r="E91" t="n">
-        <v>117.82</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="92">
@@ -2016,16 +2016,16 @@
         <v>45382</v>
       </c>
       <c r="B92" t="n">
-        <v>122.51</v>
+        <v>116.36</v>
       </c>
       <c r="C92" t="n">
-        <v>101.68</v>
+        <v>112.45</v>
       </c>
       <c r="D92" t="n">
-        <v>107.72</v>
+        <v>108.2</v>
       </c>
       <c r="E92" t="n">
-        <v>120.48</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -2033,16 +2033,16 @@
         <v>45383</v>
       </c>
       <c r="B93" t="n">
-        <v>122.7</v>
+        <v>116.9</v>
       </c>
       <c r="C93" t="n">
-        <v>101.07</v>
+        <v>113.19</v>
       </c>
       <c r="D93" t="n">
-        <v>108.11</v>
+        <v>108.02</v>
       </c>
       <c r="E93" t="n">
-        <v>121.4</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="94">
@@ -2050,16 +2050,16 @@
         <v>45384</v>
       </c>
       <c r="B94" t="n">
-        <v>123.08</v>
+        <v>117.09</v>
       </c>
       <c r="C94" t="n">
-        <v>100.76</v>
+        <v>113.43</v>
       </c>
       <c r="D94" t="n">
-        <v>108.24</v>
+        <v>107.61</v>
       </c>
       <c r="E94" t="n">
-        <v>122.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -2067,16 +2067,16 @@
         <v>45385</v>
       </c>
       <c r="B95" t="n">
-        <v>122.89</v>
+        <v>117.73</v>
       </c>
       <c r="C95" t="n">
-        <v>100.99</v>
+        <v>114.82</v>
       </c>
       <c r="D95" t="n">
-        <v>108.76</v>
+        <v>108.32</v>
       </c>
       <c r="E95" t="n">
-        <v>121.69</v>
+        <v>100.22</v>
       </c>
     </row>
     <row r="96">
@@ -2084,16 +2084,16 @@
         <v>45386</v>
       </c>
       <c r="B96" t="n">
-        <v>124.63</v>
+        <v>117.19</v>
       </c>
       <c r="C96" t="n">
-        <v>100.19</v>
+        <v>115.73</v>
       </c>
       <c r="D96" t="n">
-        <v>110.23</v>
+        <v>108.52</v>
       </c>
       <c r="E96" t="n">
-        <v>124.39</v>
+        <v>100.22</v>
       </c>
     </row>
     <row r="97">
@@ -2101,16 +2101,16 @@
         <v>45387</v>
       </c>
       <c r="B97" t="n">
-        <v>122.87</v>
+        <v>116.61</v>
       </c>
       <c r="C97" t="n">
-        <v>100.22</v>
+        <v>115.17</v>
       </c>
       <c r="D97" t="n">
-        <v>110.71</v>
+        <v>108.22</v>
       </c>
       <c r="E97" t="n">
-        <v>122.6</v>
+        <v>99.79000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2118,16 +2118,16 @@
         <v>45388</v>
       </c>
       <c r="B98" t="n">
-        <v>123.33</v>
+        <v>116.29</v>
       </c>
       <c r="C98" t="n">
-        <v>99.89</v>
+        <v>114.67</v>
       </c>
       <c r="D98" t="n">
-        <v>110.66</v>
+        <v>108.4</v>
       </c>
       <c r="E98" t="n">
-        <v>123.47</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="99">
@@ -2135,16 +2135,16 @@
         <v>45389</v>
       </c>
       <c r="B99" t="n">
-        <v>123.03</v>
+        <v>118.21</v>
       </c>
       <c r="C99" t="n">
-        <v>99.59</v>
+        <v>115.65</v>
       </c>
       <c r="D99" t="n">
-        <v>111.32</v>
+        <v>108.11</v>
       </c>
       <c r="E99" t="n">
-        <v>123.54</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="100">
@@ -2152,16 +2152,16 @@
         <v>45390</v>
       </c>
       <c r="B100" t="n">
-        <v>123.57</v>
+        <v>118.85</v>
       </c>
       <c r="C100" t="n">
-        <v>99.20999999999999</v>
+        <v>114.67</v>
       </c>
       <c r="D100" t="n">
-        <v>112.01</v>
+        <v>109.39</v>
       </c>
       <c r="E100" t="n">
-        <v>124.55</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="101">
@@ -2169,16 +2169,16 @@
         <v>45391</v>
       </c>
       <c r="B101" t="n">
-        <v>124.06</v>
+        <v>118.58</v>
       </c>
       <c r="C101" t="n">
-        <v>99.95</v>
+        <v>113.35</v>
       </c>
       <c r="D101" t="n">
-        <v>112.52</v>
+        <v>110.36</v>
       </c>
       <c r="E101" t="n">
-        <v>124.11</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2186,16 +2186,16 @@
         <v>45392</v>
       </c>
       <c r="B102" t="n">
-        <v>123.42</v>
+        <v>119.94</v>
       </c>
       <c r="C102" t="n">
-        <v>99.67</v>
+        <v>112.16</v>
       </c>
       <c r="D102" t="n">
-        <v>113.11</v>
+        <v>110.06</v>
       </c>
       <c r="E102" t="n">
-        <v>123.82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2203,16 +2203,16 @@
         <v>45393</v>
       </c>
       <c r="B103" t="n">
-        <v>124.21</v>
+        <v>120.16</v>
       </c>
       <c r="C103" t="n">
-        <v>99.8</v>
+        <v>111.94</v>
       </c>
       <c r="D103" t="n">
-        <v>113.28</v>
+        <v>110.56</v>
       </c>
       <c r="E103" t="n">
-        <v>124.46</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="104">
@@ -2220,16 +2220,16 @@
         <v>45394</v>
       </c>
       <c r="B104" t="n">
-        <v>125.66</v>
+        <v>120.21</v>
       </c>
       <c r="C104" t="n">
-        <v>99.5</v>
+        <v>112.19</v>
       </c>
       <c r="D104" t="n">
-        <v>113.74</v>
+        <v>110.98</v>
       </c>
       <c r="E104" t="n">
-        <v>126.3</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="105">
@@ -2237,16 +2237,16 @@
         <v>45395</v>
       </c>
       <c r="B105" t="n">
-        <v>125.65</v>
+        <v>119.3</v>
       </c>
       <c r="C105" t="n">
-        <v>99.47</v>
+        <v>111.06</v>
       </c>
       <c r="D105" t="n">
-        <v>114.59</v>
+        <v>111.92</v>
       </c>
       <c r="E105" t="n">
-        <v>126.31</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="106">
@@ -2254,16 +2254,16 @@
         <v>45396</v>
       </c>
       <c r="B106" t="n">
-        <v>126.67</v>
+        <v>118.77</v>
       </c>
       <c r="C106" t="n">
-        <v>100.22</v>
+        <v>112.51</v>
       </c>
       <c r="D106" t="n">
-        <v>115.58</v>
+        <v>112.09</v>
       </c>
       <c r="E106" t="n">
-        <v>126.39</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="107">
@@ -2271,16 +2271,16 @@
         <v>45397</v>
       </c>
       <c r="B107" t="n">
-        <v>126.88</v>
+        <v>119.01</v>
       </c>
       <c r="C107" t="n">
-        <v>100.87</v>
+        <v>114.4</v>
       </c>
       <c r="D107" t="n">
-        <v>115.45</v>
+        <v>113.36</v>
       </c>
       <c r="E107" t="n">
-        <v>125.78</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="108">
@@ -2288,16 +2288,16 @@
         <v>45398</v>
       </c>
       <c r="B108" t="n">
-        <v>127.4</v>
+        <v>120.11</v>
       </c>
       <c r="C108" t="n">
-        <v>100.91</v>
+        <v>115.12</v>
       </c>
       <c r="D108" t="n">
-        <v>115.61</v>
+        <v>114.38</v>
       </c>
       <c r="E108" t="n">
-        <v>126.24</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2305,16 +2305,16 @@
         <v>45399</v>
       </c>
       <c r="B109" t="n">
-        <v>128.19</v>
+        <v>120.95</v>
       </c>
       <c r="C109" t="n">
-        <v>100.44</v>
+        <v>116.19</v>
       </c>
       <c r="D109" t="n">
-        <v>117.16</v>
+        <v>113.27</v>
       </c>
       <c r="E109" t="n">
-        <v>127.64</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="110">
@@ -2322,16 +2322,16 @@
         <v>45400</v>
       </c>
       <c r="B110" t="n">
-        <v>127.35</v>
+        <v>119.16</v>
       </c>
       <c r="C110" t="n">
-        <v>99.66</v>
+        <v>116.12</v>
       </c>
       <c r="D110" t="n">
-        <v>118.06</v>
+        <v>113.85</v>
       </c>
       <c r="E110" t="n">
-        <v>127.79</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="111">
@@ -2339,16 +2339,16 @@
         <v>45401</v>
       </c>
       <c r="B111" t="n">
-        <v>128.35</v>
+        <v>119.41</v>
       </c>
       <c r="C111" t="n">
-        <v>100.27</v>
+        <v>117.7</v>
       </c>
       <c r="D111" t="n">
-        <v>118.6</v>
+        <v>112.99</v>
       </c>
       <c r="E111" t="n">
-        <v>128.01</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="112">
@@ -2356,16 +2356,16 @@
         <v>45402</v>
       </c>
       <c r="B112" t="n">
-        <v>128.53</v>
+        <v>119.54</v>
       </c>
       <c r="C112" t="n">
-        <v>99.73</v>
+        <v>118.21</v>
       </c>
       <c r="D112" t="n">
-        <v>118.75</v>
+        <v>113.06</v>
       </c>
       <c r="E112" t="n">
-        <v>128.88</v>
+        <v>99.79000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2373,16 +2373,16 @@
         <v>45403</v>
       </c>
       <c r="B113" t="n">
-        <v>128.03</v>
+        <v>119.63</v>
       </c>
       <c r="C113" t="n">
-        <v>100.6</v>
+        <v>117.21</v>
       </c>
       <c r="D113" t="n">
-        <v>118.74</v>
+        <v>113.61</v>
       </c>
       <c r="E113" t="n">
-        <v>127.26</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="114">
@@ -2390,16 +2390,16 @@
         <v>45404</v>
       </c>
       <c r="B114" t="n">
-        <v>127.38</v>
+        <v>118.91</v>
       </c>
       <c r="C114" t="n">
-        <v>100.5</v>
+        <v>116.93</v>
       </c>
       <c r="D114" t="n">
-        <v>119.13</v>
+        <v>112.98</v>
       </c>
       <c r="E114" t="n">
-        <v>126.74</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -2407,16 +2407,16 @@
         <v>45405</v>
       </c>
       <c r="B115" t="n">
-        <v>126.99</v>
+        <v>120</v>
       </c>
       <c r="C115" t="n">
-        <v>100.02</v>
+        <v>116.23</v>
       </c>
       <c r="D115" t="n">
-        <v>119.4</v>
+        <v>113.41</v>
       </c>
       <c r="E115" t="n">
-        <v>126.96</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="116">
@@ -2424,16 +2424,16 @@
         <v>45406</v>
       </c>
       <c r="B116" t="n">
-        <v>127.43</v>
+        <v>119.42</v>
       </c>
       <c r="C116" t="n">
-        <v>99.78</v>
+        <v>116.3</v>
       </c>
       <c r="D116" t="n">
-        <v>119.16</v>
+        <v>112.79</v>
       </c>
       <c r="E116" t="n">
-        <v>127.71</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="117">
@@ -2441,16 +2441,16 @@
         <v>45407</v>
       </c>
       <c r="B117" t="n">
-        <v>127.86</v>
+        <v>118.45</v>
       </c>
       <c r="C117" t="n">
-        <v>98.84</v>
+        <v>118.17</v>
       </c>
       <c r="D117" t="n">
-        <v>118.25</v>
+        <v>112.91</v>
       </c>
       <c r="E117" t="n">
-        <v>129.36</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2458,16 +2458,16 @@
         <v>45408</v>
       </c>
       <c r="B118" t="n">
-        <v>127.32</v>
+        <v>118.83</v>
       </c>
       <c r="C118" t="n">
-        <v>98.81999999999999</v>
+        <v>118.24</v>
       </c>
       <c r="D118" t="n">
-        <v>118.56</v>
+        <v>112.85</v>
       </c>
       <c r="E118" t="n">
-        <v>128.84</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="119">
@@ -2475,16 +2475,16 @@
         <v>45409</v>
       </c>
       <c r="B119" t="n">
-        <v>129.01</v>
+        <v>119.73</v>
       </c>
       <c r="C119" t="n">
-        <v>99.59</v>
+        <v>117.93</v>
       </c>
       <c r="D119" t="n">
-        <v>118.54</v>
+        <v>112.55</v>
       </c>
       <c r="E119" t="n">
-        <v>129.54</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="120">
@@ -2492,16 +2492,16 @@
         <v>45410</v>
       </c>
       <c r="B120" t="n">
-        <v>129.18</v>
+        <v>117.71</v>
       </c>
       <c r="C120" t="n">
-        <v>98.98</v>
+        <v>116.76</v>
       </c>
       <c r="D120" t="n">
-        <v>118.63</v>
+        <v>113.56</v>
       </c>
       <c r="E120" t="n">
-        <v>130.51</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="121">
@@ -2509,16 +2509,16 @@
         <v>45411</v>
       </c>
       <c r="B121" t="n">
-        <v>129.08</v>
+        <v>117.65</v>
       </c>
       <c r="C121" t="n">
-        <v>99.36</v>
+        <v>117.43</v>
       </c>
       <c r="D121" t="n">
-        <v>118.13</v>
+        <v>113.87</v>
       </c>
       <c r="E121" t="n">
-        <v>129.91</v>
+        <v>100.31</v>
       </c>
     </row>
     <row r="122">
@@ -2526,16 +2526,16 @@
         <v>45412</v>
       </c>
       <c r="B122" t="n">
-        <v>129.81</v>
+        <v>118.88</v>
       </c>
       <c r="C122" t="n">
-        <v>100.64</v>
+        <v>117.48</v>
       </c>
       <c r="D122" t="n">
-        <v>118.15</v>
+        <v>113.3</v>
       </c>
       <c r="E122" t="n">
-        <v>128.98</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="123">
@@ -2543,16 +2543,16 @@
         <v>45413</v>
       </c>
       <c r="B123" t="n">
-        <v>130.42</v>
+        <v>119.25</v>
       </c>
       <c r="C123" t="n">
-        <v>101.3</v>
+        <v>116.98</v>
       </c>
       <c r="D123" t="n">
-        <v>117.96</v>
+        <v>112.43</v>
       </c>
       <c r="E123" t="n">
-        <v>128.74</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="124">
@@ -2560,16 +2560,16 @@
         <v>45414</v>
       </c>
       <c r="B124" t="n">
-        <v>130.85</v>
+        <v>118.4</v>
       </c>
       <c r="C124" t="n">
-        <v>101.45</v>
+        <v>118.62</v>
       </c>
       <c r="D124" t="n">
-        <v>118.12</v>
+        <v>113.11</v>
       </c>
       <c r="E124" t="n">
-        <v>128.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
@@ -2577,16 +2577,16 @@
         <v>45415</v>
       </c>
       <c r="B125" t="n">
-        <v>130.24</v>
+        <v>119.98</v>
       </c>
       <c r="C125" t="n">
-        <v>101.62</v>
+        <v>118.86</v>
       </c>
       <c r="D125" t="n">
-        <v>118.57</v>
+        <v>112.62</v>
       </c>
       <c r="E125" t="n">
-        <v>128.17</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="126">
@@ -2594,16 +2594,16 @@
         <v>45416</v>
       </c>
       <c r="B126" t="n">
-        <v>131.94</v>
+        <v>120.67</v>
       </c>
       <c r="C126" t="n">
-        <v>102.49</v>
+        <v>118.1</v>
       </c>
       <c r="D126" t="n">
-        <v>120.2</v>
+        <v>112.58</v>
       </c>
       <c r="E126" t="n">
-        <v>128.74</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="127">
@@ -2611,16 +2611,16 @@
         <v>45417</v>
       </c>
       <c r="B127" t="n">
-        <v>131.33</v>
+        <v>119.52</v>
       </c>
       <c r="C127" t="n">
-        <v>103.3</v>
+        <v>119.08</v>
       </c>
       <c r="D127" t="n">
-        <v>120.43</v>
+        <v>113.96</v>
       </c>
       <c r="E127" t="n">
-        <v>127.13</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="128">
@@ -2628,16 +2628,16 @@
         <v>45418</v>
       </c>
       <c r="B128" t="n">
-        <v>133.83</v>
+        <v>120.24</v>
       </c>
       <c r="C128" t="n">
-        <v>102.82</v>
+        <v>118.67</v>
       </c>
       <c r="D128" t="n">
-        <v>119.92</v>
+        <v>113.72</v>
       </c>
       <c r="E128" t="n">
-        <v>130.16</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="129">
@@ -2645,16 +2645,16 @@
         <v>45419</v>
       </c>
       <c r="B129" t="n">
-        <v>133.39</v>
+        <v>119.59</v>
       </c>
       <c r="C129" t="n">
-        <v>101.33</v>
+        <v>118.88</v>
       </c>
       <c r="D129" t="n">
-        <v>119.63</v>
+        <v>113.24</v>
       </c>
       <c r="E129" t="n">
-        <v>131.64</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="130">
@@ -2662,16 +2662,16 @@
         <v>45420</v>
       </c>
       <c r="B130" t="n">
-        <v>132.78</v>
+        <v>119.72</v>
       </c>
       <c r="C130" t="n">
-        <v>101.58</v>
+        <v>118.83</v>
       </c>
       <c r="D130" t="n">
-        <v>119.97</v>
+        <v>112.72</v>
       </c>
       <c r="E130" t="n">
-        <v>130.71</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="131">
@@ -2679,16 +2679,16 @@
         <v>45421</v>
       </c>
       <c r="B131" t="n">
-        <v>134.97</v>
+        <v>120.62</v>
       </c>
       <c r="C131" t="n">
-        <v>102.45</v>
+        <v>119.44</v>
       </c>
       <c r="D131" t="n">
-        <v>119.65</v>
+        <v>112.15</v>
       </c>
       <c r="E131" t="n">
-        <v>131.74</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="132">
@@ -2696,16 +2696,16 @@
         <v>45422</v>
       </c>
       <c r="B132" t="n">
-        <v>134.2</v>
+        <v>121.53</v>
       </c>
       <c r="C132" t="n">
-        <v>102.97</v>
+        <v>118.12</v>
       </c>
       <c r="D132" t="n">
-        <v>118.8</v>
+        <v>112.6</v>
       </c>
       <c r="E132" t="n">
-        <v>130.33</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -2713,16 +2713,16 @@
         <v>45423</v>
       </c>
       <c r="B133" t="n">
-        <v>136.37</v>
+        <v>122.26</v>
       </c>
       <c r="C133" t="n">
-        <v>104.03</v>
+        <v>117.6</v>
       </c>
       <c r="D133" t="n">
-        <v>118.56</v>
+        <v>111.47</v>
       </c>
       <c r="E133" t="n">
-        <v>131.09</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="134">
@@ -2730,16 +2730,16 @@
         <v>45424</v>
       </c>
       <c r="B134" t="n">
-        <v>134.71</v>
+        <v>122.49</v>
       </c>
       <c r="C134" t="n">
-        <v>105.23</v>
+        <v>118</v>
       </c>
       <c r="D134" t="n">
-        <v>118.58</v>
+        <v>110.96</v>
       </c>
       <c r="E134" t="n">
-        <v>128.01</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="135">
@@ -2747,16 +2747,16 @@
         <v>45425</v>
       </c>
       <c r="B135" t="n">
-        <v>136.24</v>
+        <v>121.05</v>
       </c>
       <c r="C135" t="n">
-        <v>104.12</v>
+        <v>118.11</v>
       </c>
       <c r="D135" t="n">
-        <v>118.24</v>
+        <v>110.24</v>
       </c>
       <c r="E135" t="n">
-        <v>130.86</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -2764,16 +2764,16 @@
         <v>45426</v>
       </c>
       <c r="B136" t="n">
-        <v>136.45</v>
+        <v>121.28</v>
       </c>
       <c r="C136" t="n">
-        <v>104.3</v>
+        <v>117.51</v>
       </c>
       <c r="D136" t="n">
-        <v>118.02</v>
+        <v>110.07</v>
       </c>
       <c r="E136" t="n">
-        <v>130.83</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="137">
@@ -2781,16 +2781,16 @@
         <v>45427</v>
       </c>
       <c r="B137" t="n">
-        <v>137.34</v>
+        <v>120.9</v>
       </c>
       <c r="C137" t="n">
-        <v>103.61</v>
+        <v>118.41</v>
       </c>
       <c r="D137" t="n">
-        <v>118.01</v>
+        <v>109.41</v>
       </c>
       <c r="E137" t="n">
-        <v>132.55</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="138">
@@ -2798,16 +2798,16 @@
         <v>45428</v>
       </c>
       <c r="B138" t="n">
-        <v>137.68</v>
+        <v>122.48</v>
       </c>
       <c r="C138" t="n">
-        <v>104.16</v>
+        <v>116.38</v>
       </c>
       <c r="D138" t="n">
-        <v>118.61</v>
+        <v>108.98</v>
       </c>
       <c r="E138" t="n">
-        <v>132.18</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="139">
@@ -2815,16 +2815,16 @@
         <v>45429</v>
       </c>
       <c r="B139" t="n">
-        <v>136.64</v>
+        <v>122.46</v>
       </c>
       <c r="C139" t="n">
-        <v>103.1</v>
+        <v>116.87</v>
       </c>
       <c r="D139" t="n">
-        <v>119.62</v>
+        <v>108.67</v>
       </c>
       <c r="E139" t="n">
-        <v>132.53</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="140">
@@ -2832,16 +2832,16 @@
         <v>45430</v>
       </c>
       <c r="B140" t="n">
-        <v>137.21</v>
+        <v>122.49</v>
       </c>
       <c r="C140" t="n">
-        <v>102.67</v>
+        <v>118.05</v>
       </c>
       <c r="D140" t="n">
-        <v>120.83</v>
+        <v>108.92</v>
       </c>
       <c r="E140" t="n">
-        <v>133.65</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="141">
@@ -2849,16 +2849,16 @@
         <v>45431</v>
       </c>
       <c r="B141" t="n">
-        <v>137.54</v>
+        <v>122.27</v>
       </c>
       <c r="C141" t="n">
-        <v>103.72</v>
+        <v>117.79</v>
       </c>
       <c r="D141" t="n">
-        <v>120.97</v>
+        <v>108.73</v>
       </c>
       <c r="E141" t="n">
-        <v>132.61</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="142">
@@ -2866,16 +2866,16 @@
         <v>45432</v>
       </c>
       <c r="B142" t="n">
-        <v>140.02</v>
+        <v>122.04</v>
       </c>
       <c r="C142" t="n">
-        <v>105.23</v>
+        <v>118.21</v>
       </c>
       <c r="D142" t="n">
-        <v>120.89</v>
+        <v>110.17</v>
       </c>
       <c r="E142" t="n">
-        <v>133.06</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="143">
@@ -2883,16 +2883,16 @@
         <v>45433</v>
       </c>
       <c r="B143" t="n">
-        <v>141.32</v>
+        <v>121.91</v>
       </c>
       <c r="C143" t="n">
-        <v>105.89</v>
+        <v>119.44</v>
       </c>
       <c r="D143" t="n">
-        <v>121.98</v>
+        <v>109.99</v>
       </c>
       <c r="E143" t="n">
-        <v>133.46</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="144">
@@ -2900,16 +2900,16 @@
         <v>45434</v>
       </c>
       <c r="B144" t="n">
-        <v>140.44</v>
+        <v>121.11</v>
       </c>
       <c r="C144" t="n">
-        <v>106.58</v>
+        <v>117.93</v>
       </c>
       <c r="D144" t="n">
-        <v>122.85</v>
+        <v>109.84</v>
       </c>
       <c r="E144" t="n">
-        <v>131.77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
@@ -2917,16 +2917,16 @@
         <v>45435</v>
       </c>
       <c r="B145" t="n">
-        <v>138.67</v>
+        <v>122.91</v>
       </c>
       <c r="C145" t="n">
-        <v>105.78</v>
+        <v>118.38</v>
       </c>
       <c r="D145" t="n">
-        <v>121.44</v>
+        <v>109.79</v>
       </c>
       <c r="E145" t="n">
-        <v>131.09</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="146">
@@ -2934,16 +2934,16 @@
         <v>45436</v>
       </c>
       <c r="B146" t="n">
-        <v>138.58</v>
+        <v>120.92</v>
       </c>
       <c r="C146" t="n">
-        <v>106.5</v>
+        <v>118.76</v>
       </c>
       <c r="D146" t="n">
-        <v>122.64</v>
+        <v>110.38</v>
       </c>
       <c r="E146" t="n">
-        <v>130.12</v>
+        <v>99.84999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -2951,16 +2951,16 @@
         <v>45437</v>
       </c>
       <c r="B147" t="n">
-        <v>138.87</v>
+        <v>122.21</v>
       </c>
       <c r="C147" t="n">
-        <v>107.95</v>
+        <v>119.23</v>
       </c>
       <c r="D147" t="n">
-        <v>121.72</v>
+        <v>110.2</v>
       </c>
       <c r="E147" t="n">
-        <v>128.64</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="148">
@@ -2968,16 +2968,16 @@
         <v>45438</v>
       </c>
       <c r="B148" t="n">
-        <v>137.19</v>
+        <v>124.61</v>
       </c>
       <c r="C148" t="n">
-        <v>108.06</v>
+        <v>119.56</v>
       </c>
       <c r="D148" t="n">
-        <v>122.1</v>
+        <v>110.45</v>
       </c>
       <c r="E148" t="n">
-        <v>126.96</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="149">
@@ -2985,16 +2985,16 @@
         <v>45439</v>
       </c>
       <c r="B149" t="n">
-        <v>137.36</v>
+        <v>123.95</v>
       </c>
       <c r="C149" t="n">
-        <v>106.53</v>
+        <v>120.47</v>
       </c>
       <c r="D149" t="n">
-        <v>122.13</v>
+        <v>109.97</v>
       </c>
       <c r="E149" t="n">
-        <v>128.93</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="150">
@@ -3002,16 +3002,16 @@
         <v>45440</v>
       </c>
       <c r="B150" t="n">
-        <v>136.13</v>
+        <v>123.67</v>
       </c>
       <c r="C150" t="n">
-        <v>107.22</v>
+        <v>121.07</v>
       </c>
       <c r="D150" t="n">
-        <v>122.49</v>
+        <v>110.28</v>
       </c>
       <c r="E150" t="n">
-        <v>126.97</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="151">
@@ -3019,16 +3019,16 @@
         <v>45441</v>
       </c>
       <c r="B151" t="n">
-        <v>135.31</v>
+        <v>123.35</v>
       </c>
       <c r="C151" t="n">
-        <v>106.95</v>
+        <v>120.99</v>
       </c>
       <c r="D151" t="n">
-        <v>121.81</v>
+        <v>109.72</v>
       </c>
       <c r="E151" t="n">
-        <v>126.51</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -3036,16 +3036,16 @@
         <v>45442</v>
       </c>
       <c r="B152" t="n">
-        <v>135.45</v>
+        <v>123.9</v>
       </c>
       <c r="C152" t="n">
-        <v>107.87</v>
+        <v>121.85</v>
       </c>
       <c r="D152" t="n">
-        <v>121.19</v>
+        <v>109.2</v>
       </c>
       <c r="E152" t="n">
-        <v>125.56</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="153">
@@ -3053,16 +3053,16 @@
         <v>45443</v>
       </c>
       <c r="B153" t="n">
-        <v>136.2</v>
+        <v>125.43</v>
       </c>
       <c r="C153" t="n">
-        <v>107.59</v>
+        <v>122.4</v>
       </c>
       <c r="D153" t="n">
-        <v>120.71</v>
+        <v>110.52</v>
       </c>
       <c r="E153" t="n">
-        <v>126.58</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="154">
@@ -3070,16 +3070,16 @@
         <v>45444</v>
       </c>
       <c r="B154" t="n">
-        <v>136.28</v>
+        <v>124.37</v>
       </c>
       <c r="C154" t="n">
-        <v>106.91</v>
+        <v>120.94</v>
       </c>
       <c r="D154" t="n">
-        <v>120.41</v>
+        <v>111.6</v>
       </c>
       <c r="E154" t="n">
-        <v>127.48</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="155">
@@ -3087,16 +3087,16 @@
         <v>45445</v>
       </c>
       <c r="B155" t="n">
-        <v>135.18</v>
+        <v>124.5</v>
       </c>
       <c r="C155" t="n">
-        <v>108.63</v>
+        <v>121.36</v>
       </c>
       <c r="D155" t="n">
-        <v>120.53</v>
+        <v>110.93</v>
       </c>
       <c r="E155" t="n">
-        <v>124.44</v>
+        <v>100.24</v>
       </c>
     </row>
     <row r="156">
@@ -3104,16 +3104,16 @@
         <v>45446</v>
       </c>
       <c r="B156" t="n">
-        <v>134.63</v>
+        <v>124.82</v>
       </c>
       <c r="C156" t="n">
-        <v>108.96</v>
+        <v>121.63</v>
       </c>
       <c r="D156" t="n">
-        <v>120.54</v>
+        <v>111.5</v>
       </c>
       <c r="E156" t="n">
-        <v>123.56</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="157">
@@ -3121,16 +3121,16 @@
         <v>45447</v>
       </c>
       <c r="B157" t="n">
-        <v>134.59</v>
+        <v>125.23</v>
       </c>
       <c r="C157" t="n">
-        <v>109.61</v>
+        <v>121.08</v>
       </c>
       <c r="D157" t="n">
-        <v>121.19</v>
+        <v>111.91</v>
       </c>
       <c r="E157" t="n">
-        <v>122.79</v>
+        <v>100.19</v>
       </c>
     </row>
     <row r="158">
@@ -3138,16 +3138,16 @@
         <v>45448</v>
       </c>
       <c r="B158" t="n">
-        <v>134.22</v>
+        <v>126.77</v>
       </c>
       <c r="C158" t="n">
-        <v>109.29</v>
+        <v>122.7</v>
       </c>
       <c r="D158" t="n">
-        <v>121.09</v>
+        <v>111.65</v>
       </c>
       <c r="E158" t="n">
-        <v>122.81</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3155,16 +3155,16 @@
         <v>45449</v>
       </c>
       <c r="B159" t="n">
-        <v>131.95</v>
+        <v>126.83</v>
       </c>
       <c r="C159" t="n">
-        <v>108.2</v>
+        <v>122.92</v>
       </c>
       <c r="D159" t="n">
-        <v>122.18</v>
+        <v>112.48</v>
       </c>
       <c r="E159" t="n">
-        <v>121.95</v>
+        <v>99.83</v>
       </c>
     </row>
     <row r="160">
@@ -3172,16 +3172,16 @@
         <v>45450</v>
       </c>
       <c r="B160" t="n">
-        <v>133.89</v>
+        <v>128.57</v>
       </c>
       <c r="C160" t="n">
-        <v>108.15</v>
+        <v>122.95</v>
       </c>
       <c r="D160" t="n">
-        <v>122.7</v>
+        <v>112.28</v>
       </c>
       <c r="E160" t="n">
-        <v>123.79</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3189,16 +3189,16 @@
         <v>45451</v>
       </c>
       <c r="B161" t="n">
-        <v>134.42</v>
+        <v>127.06</v>
       </c>
       <c r="C161" t="n">
-        <v>110.8</v>
+        <v>123.88</v>
       </c>
       <c r="D161" t="n">
-        <v>123.62</v>
+        <v>112.42</v>
       </c>
       <c r="E161" t="n">
-        <v>121.32</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="162">
@@ -3206,16 +3206,16 @@
         <v>45452</v>
       </c>
       <c r="B162" t="n">
-        <v>134.48</v>
+        <v>125.94</v>
       </c>
       <c r="C162" t="n">
-        <v>110.16</v>
+        <v>123.74</v>
       </c>
       <c r="D162" t="n">
-        <v>122.53</v>
+        <v>113.63</v>
       </c>
       <c r="E162" t="n">
-        <v>122.08</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="163">
@@ -3223,16 +3223,16 @@
         <v>45453</v>
       </c>
       <c r="B163" t="n">
-        <v>134.91</v>
+        <v>124.61</v>
       </c>
       <c r="C163" t="n">
-        <v>109.69</v>
+        <v>123.68</v>
       </c>
       <c r="D163" t="n">
-        <v>121.58</v>
+        <v>113.54</v>
       </c>
       <c r="E163" t="n">
-        <v>122.98</v>
+        <v>99.73</v>
       </c>
     </row>
     <row r="164">
@@ -3240,16 +3240,16 @@
         <v>45454</v>
       </c>
       <c r="B164" t="n">
-        <v>134.41</v>
+        <v>124.74</v>
       </c>
       <c r="C164" t="n">
-        <v>108.96</v>
+        <v>123.64</v>
       </c>
       <c r="D164" t="n">
-        <v>122.91</v>
+        <v>114.1</v>
       </c>
       <c r="E164" t="n">
-        <v>123.36</v>
+        <v>100.18</v>
       </c>
     </row>
     <row r="165">
@@ -3257,16 +3257,16 @@
         <v>45455</v>
       </c>
       <c r="B165" t="n">
-        <v>135.56</v>
+        <v>126.06</v>
       </c>
       <c r="C165" t="n">
-        <v>109.1</v>
+        <v>123.57</v>
       </c>
       <c r="D165" t="n">
-        <v>124.1</v>
+        <v>113.44</v>
       </c>
       <c r="E165" t="n">
-        <v>124.25</v>
+        <v>100.26</v>
       </c>
     </row>
     <row r="166">
@@ -3274,16 +3274,16 @@
         <v>45456</v>
       </c>
       <c r="B166" t="n">
-        <v>135.85</v>
+        <v>126.3</v>
       </c>
       <c r="C166" t="n">
-        <v>108.55</v>
+        <v>123.75</v>
       </c>
       <c r="D166" t="n">
-        <v>125.33</v>
+        <v>113.51</v>
       </c>
       <c r="E166" t="n">
-        <v>125.15</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="167">
@@ -3291,16 +3291,16 @@
         <v>45457</v>
       </c>
       <c r="B167" t="n">
-        <v>136.64</v>
+        <v>126.35</v>
       </c>
       <c r="C167" t="n">
-        <v>107.86</v>
+        <v>123.39</v>
       </c>
       <c r="D167" t="n">
-        <v>125.29</v>
+        <v>113.23</v>
       </c>
       <c r="E167" t="n">
-        <v>126.68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
@@ -3308,16 +3308,16 @@
         <v>45458</v>
       </c>
       <c r="B168" t="n">
-        <v>135.88</v>
+        <v>125.99</v>
       </c>
       <c r="C168" t="n">
-        <v>106.89</v>
+        <v>122.91</v>
       </c>
       <c r="D168" t="n">
-        <v>126.08</v>
+        <v>113.39</v>
       </c>
       <c r="E168" t="n">
-        <v>127.12</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="169">
@@ -3325,16 +3325,16 @@
         <v>45459</v>
       </c>
       <c r="B169" t="n">
-        <v>138.16</v>
+        <v>127.69</v>
       </c>
       <c r="C169" t="n">
-        <v>105.92</v>
+        <v>120.63</v>
       </c>
       <c r="D169" t="n">
-        <v>126.61</v>
+        <v>114.23</v>
       </c>
       <c r="E169" t="n">
-        <v>130.44</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="170">
@@ -3342,16 +3342,16 @@
         <v>45460</v>
       </c>
       <c r="B170" t="n">
-        <v>137.65</v>
+        <v>125.77</v>
       </c>
       <c r="C170" t="n">
-        <v>105.68</v>
+        <v>120.49</v>
       </c>
       <c r="D170" t="n">
-        <v>126.26</v>
+        <v>114.06</v>
       </c>
       <c r="E170" t="n">
-        <v>130.25</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="171">
@@ -3359,16 +3359,16 @@
         <v>45461</v>
       </c>
       <c r="B171" t="n">
-        <v>136.91</v>
+        <v>125.17</v>
       </c>
       <c r="C171" t="n">
-        <v>105.87</v>
+        <v>119.66</v>
       </c>
       <c r="D171" t="n">
-        <v>125.73</v>
+        <v>115.35</v>
       </c>
       <c r="E171" t="n">
-        <v>129.32</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="172">
@@ -3376,16 +3376,16 @@
         <v>45462</v>
       </c>
       <c r="B172" t="n">
-        <v>137.41</v>
+        <v>126.63</v>
       </c>
       <c r="C172" t="n">
-        <v>105.98</v>
+        <v>120.47</v>
       </c>
       <c r="D172" t="n">
-        <v>125.65</v>
+        <v>114.66</v>
       </c>
       <c r="E172" t="n">
-        <v>129.66</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="173">
@@ -3393,16 +3393,16 @@
         <v>45463</v>
       </c>
       <c r="B173" t="n">
-        <v>136.62</v>
+        <v>127.32</v>
       </c>
       <c r="C173" t="n">
-        <v>105.67</v>
+        <v>119.54</v>
       </c>
       <c r="D173" t="n">
-        <v>126.32</v>
+        <v>115.25</v>
       </c>
       <c r="E173" t="n">
-        <v>129.29</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="174">
@@ -3410,16 +3410,16 @@
         <v>45464</v>
       </c>
       <c r="B174" t="n">
-        <v>137.37</v>
+        <v>127.13</v>
       </c>
       <c r="C174" t="n">
-        <v>105.04</v>
+        <v>120.34</v>
       </c>
       <c r="D174" t="n">
-        <v>126.5</v>
+        <v>115.65</v>
       </c>
       <c r="E174" t="n">
-        <v>130.78</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -3427,16 +3427,16 @@
         <v>45465</v>
       </c>
       <c r="B175" t="n">
-        <v>138.4</v>
+        <v>128.5</v>
       </c>
       <c r="C175" t="n">
-        <v>103.87</v>
+        <v>119.54</v>
       </c>
       <c r="D175" t="n">
-        <v>127.01</v>
+        <v>116.17</v>
       </c>
       <c r="E175" t="n">
-        <v>133.24</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="176">
@@ -3444,16 +3444,16 @@
         <v>45466</v>
       </c>
       <c r="B176" t="n">
-        <v>137.87</v>
+        <v>128.37</v>
       </c>
       <c r="C176" t="n">
-        <v>104.46</v>
+        <v>120</v>
       </c>
       <c r="D176" t="n">
-        <v>126.53</v>
+        <v>115.39</v>
       </c>
       <c r="E176" t="n">
-        <v>131.99</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="177">
@@ -3461,16 +3461,16 @@
         <v>45467</v>
       </c>
       <c r="B177" t="n">
-        <v>136.09</v>
+        <v>128.38</v>
       </c>
       <c r="C177" t="n">
-        <v>103.33</v>
+        <v>119.69</v>
       </c>
       <c r="D177" t="n">
-        <v>126.67</v>
+        <v>116.2</v>
       </c>
       <c r="E177" t="n">
-        <v>131.7</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="178">
@@ -3478,16 +3478,16 @@
         <v>45468</v>
       </c>
       <c r="B178" t="n">
-        <v>136.58</v>
+        <v>127.12</v>
       </c>
       <c r="C178" t="n">
-        <v>102.78</v>
+        <v>118.46</v>
       </c>
       <c r="D178" t="n">
-        <v>127.26</v>
+        <v>116.72</v>
       </c>
       <c r="E178" t="n">
-        <v>132.89</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="179">
@@ -3495,16 +3495,16 @@
         <v>45469</v>
       </c>
       <c r="B179" t="n">
-        <v>134.97</v>
+        <v>129.1</v>
       </c>
       <c r="C179" t="n">
-        <v>102.87</v>
+        <v>116.78</v>
       </c>
       <c r="D179" t="n">
-        <v>126.43</v>
+        <v>118</v>
       </c>
       <c r="E179" t="n">
-        <v>131.2</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="180">
@@ -3512,16 +3512,16 @@
         <v>45470</v>
       </c>
       <c r="B180" t="n">
-        <v>134.47</v>
+        <v>129.19</v>
       </c>
       <c r="C180" t="n">
-        <v>103.05</v>
+        <v>116.47</v>
       </c>
       <c r="D180" t="n">
-        <v>125.88</v>
+        <v>118.38</v>
       </c>
       <c r="E180" t="n">
-        <v>130.49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181">
@@ -3529,16 +3529,16 @@
         <v>45471</v>
       </c>
       <c r="B181" t="n">
-        <v>134.25</v>
+        <v>130.52</v>
       </c>
       <c r="C181" t="n">
-        <v>103.97</v>
+        <v>116.73</v>
       </c>
       <c r="D181" t="n">
-        <v>125.55</v>
+        <v>118.58</v>
       </c>
       <c r="E181" t="n">
-        <v>129.13</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -3546,16 +3546,16 @@
         <v>45472</v>
       </c>
       <c r="B182" t="n">
-        <v>135.35</v>
+        <v>130.66</v>
       </c>
       <c r="C182" t="n">
-        <v>103.24</v>
+        <v>117.16</v>
       </c>
       <c r="D182" t="n">
-        <v>126.05</v>
+        <v>117.46</v>
       </c>
       <c r="E182" t="n">
-        <v>131.11</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="183">
@@ -3563,16 +3563,16 @@
         <v>45473</v>
       </c>
       <c r="B183" t="n">
-        <v>137.12</v>
+        <v>131.63</v>
       </c>
       <c r="C183" t="n">
-        <v>101.47</v>
+        <v>117.48</v>
       </c>
       <c r="D183" t="n">
-        <v>125.54</v>
+        <v>117.42</v>
       </c>
       <c r="E183" t="n">
-        <v>135.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184">
@@ -3580,16 +3580,16 @@
         <v>45474</v>
       </c>
       <c r="B184" t="n">
-        <v>137.96</v>
+        <v>132.2</v>
       </c>
       <c r="C184" t="n">
-        <v>101.45</v>
+        <v>117.16</v>
       </c>
       <c r="D184" t="n">
-        <v>125.93</v>
+        <v>116.97</v>
       </c>
       <c r="E184" t="n">
-        <v>135.98</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="185">
@@ -3597,16 +3597,16 @@
         <v>45475</v>
       </c>
       <c r="B185" t="n">
-        <v>137.5</v>
+        <v>131.36</v>
       </c>
       <c r="C185" t="n">
-        <v>101.66</v>
+        <v>117.69</v>
       </c>
       <c r="D185" t="n">
-        <v>125.91</v>
+        <v>115.87</v>
       </c>
       <c r="E185" t="n">
-        <v>135.25</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="186">
@@ -3614,16 +3614,16 @@
         <v>45476</v>
       </c>
       <c r="B186" t="n">
-        <v>138.99</v>
+        <v>132.05</v>
       </c>
       <c r="C186" t="n">
-        <v>102</v>
+        <v>118.08</v>
       </c>
       <c r="D186" t="n">
-        <v>126.26</v>
+        <v>116.64</v>
       </c>
       <c r="E186" t="n">
-        <v>136.26</v>
+        <v>100.17</v>
       </c>
     </row>
     <row r="187">
@@ -3631,16 +3631,16 @@
         <v>45477</v>
       </c>
       <c r="B187" t="n">
-        <v>138.74</v>
+        <v>133.32</v>
       </c>
       <c r="C187" t="n">
-        <v>101.77</v>
+        <v>116.61</v>
       </c>
       <c r="D187" t="n">
-        <v>126.04</v>
+        <v>115.84</v>
       </c>
       <c r="E187" t="n">
-        <v>136.33</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="188">
@@ -3648,16 +3648,16 @@
         <v>45478</v>
       </c>
       <c r="B188" t="n">
-        <v>139.38</v>
+        <v>133.55</v>
       </c>
       <c r="C188" t="n">
-        <v>101.59</v>
+        <v>117.23</v>
       </c>
       <c r="D188" t="n">
-        <v>126.36</v>
+        <v>115.43</v>
       </c>
       <c r="E188" t="n">
-        <v>137.2</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="189">
@@ -3665,16 +3665,16 @@
         <v>45479</v>
       </c>
       <c r="B189" t="n">
-        <v>141.91</v>
+        <v>132.95</v>
       </c>
       <c r="C189" t="n">
-        <v>102.39</v>
+        <v>116.85</v>
       </c>
       <c r="D189" t="n">
-        <v>126.21</v>
+        <v>114.55</v>
       </c>
       <c r="E189" t="n">
-        <v>138.59</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="190">
@@ -3682,16 +3682,16 @@
         <v>45480</v>
       </c>
       <c r="B190" t="n">
-        <v>143.48</v>
+        <v>131.71</v>
       </c>
       <c r="C190" t="n">
-        <v>102.22</v>
+        <v>116.16</v>
       </c>
       <c r="D190" t="n">
-        <v>124.77</v>
+        <v>115.36</v>
       </c>
       <c r="E190" t="n">
-        <v>140.36</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="191">
@@ -3699,16 +3699,16 @@
         <v>45481</v>
       </c>
       <c r="B191" t="n">
-        <v>142.54</v>
+        <v>134.68</v>
       </c>
       <c r="C191" t="n">
-        <v>100.93</v>
+        <v>116.76</v>
       </c>
       <c r="D191" t="n">
-        <v>124.61</v>
+        <v>115.58</v>
       </c>
       <c r="E191" t="n">
-        <v>141.22</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="192">
@@ -3716,16 +3716,16 @@
         <v>45482</v>
       </c>
       <c r="B192" t="n">
-        <v>142.78</v>
+        <v>135.63</v>
       </c>
       <c r="C192" t="n">
-        <v>102.34</v>
+        <v>116.42</v>
       </c>
       <c r="D192" t="n">
-        <v>124.95</v>
+        <v>115.76</v>
       </c>
       <c r="E192" t="n">
-        <v>139.51</v>
+        <v>100.26</v>
       </c>
     </row>
     <row r="193">
@@ -3733,16 +3733,16 @@
         <v>45483</v>
       </c>
       <c r="B193" t="n">
-        <v>142.74</v>
+        <v>135.73</v>
       </c>
       <c r="C193" t="n">
-        <v>103.12</v>
+        <v>117.58</v>
       </c>
       <c r="D193" t="n">
-        <v>123.39</v>
+        <v>115.36</v>
       </c>
       <c r="E193" t="n">
-        <v>138.42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194">
@@ -3750,16 +3750,16 @@
         <v>45484</v>
       </c>
       <c r="B194" t="n">
-        <v>143.22</v>
+        <v>137.86</v>
       </c>
       <c r="C194" t="n">
-        <v>103.86</v>
+        <v>117.19</v>
       </c>
       <c r="D194" t="n">
-        <v>122.4</v>
+        <v>116.71</v>
       </c>
       <c r="E194" t="n">
-        <v>137.89</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="195">
@@ -3767,16 +3767,16 @@
         <v>45485</v>
       </c>
       <c r="B195" t="n">
-        <v>144.75</v>
+        <v>137.45</v>
       </c>
       <c r="C195" t="n">
-        <v>104.27</v>
+        <v>117.91</v>
       </c>
       <c r="D195" t="n">
-        <v>122.19</v>
+        <v>117.49</v>
       </c>
       <c r="E195" t="n">
-        <v>138.82</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="196">
@@ -3784,16 +3784,16 @@
         <v>45486</v>
       </c>
       <c r="B196" t="n">
-        <v>145.7</v>
+        <v>135.93</v>
       </c>
       <c r="C196" t="n">
-        <v>106.2</v>
+        <v>117.44</v>
       </c>
       <c r="D196" t="n">
-        <v>122.42</v>
+        <v>117.41</v>
       </c>
       <c r="E196" t="n">
-        <v>137.2</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="197">
@@ -3801,16 +3801,16 @@
         <v>45487</v>
       </c>
       <c r="B197" t="n">
-        <v>146.21</v>
+        <v>136.81</v>
       </c>
       <c r="C197" t="n">
-        <v>105.98</v>
+        <v>117.76</v>
       </c>
       <c r="D197" t="n">
-        <v>121.89</v>
+        <v>116.56</v>
       </c>
       <c r="E197" t="n">
-        <v>137.96</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="198">
@@ -3818,16 +3818,16 @@
         <v>45488</v>
       </c>
       <c r="B198" t="n">
-        <v>147.4</v>
+        <v>137.68</v>
       </c>
       <c r="C198" t="n">
-        <v>105.45</v>
+        <v>118.42</v>
       </c>
       <c r="D198" t="n">
-        <v>122.04</v>
+        <v>117.41</v>
       </c>
       <c r="E198" t="n">
-        <v>139.78</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="199">
@@ -3835,16 +3835,16 @@
         <v>45489</v>
       </c>
       <c r="B199" t="n">
-        <v>147.05</v>
+        <v>138.39</v>
       </c>
       <c r="C199" t="n">
-        <v>105.97</v>
+        <v>118.52</v>
       </c>
       <c r="D199" t="n">
-        <v>122.39</v>
+        <v>116.33</v>
       </c>
       <c r="E199" t="n">
-        <v>138.77</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="200">
@@ -3852,16 +3852,16 @@
         <v>45490</v>
       </c>
       <c r="B200" t="n">
-        <v>148.5</v>
+        <v>138.83</v>
       </c>
       <c r="C200" t="n">
-        <v>105.72</v>
+        <v>118.93</v>
       </c>
       <c r="D200" t="n">
-        <v>122.29</v>
+        <v>115.53</v>
       </c>
       <c r="E200" t="n">
-        <v>140.47</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="201">
@@ -3869,16 +3869,16 @@
         <v>45491</v>
       </c>
       <c r="B201" t="n">
-        <v>147.56</v>
+        <v>140.21</v>
       </c>
       <c r="C201" t="n">
-        <v>105.51</v>
+        <v>119.06</v>
       </c>
       <c r="D201" t="n">
-        <v>122.66</v>
+        <v>116.1</v>
       </c>
       <c r="E201" t="n">
-        <v>139.85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202">
@@ -3886,16 +3886,16 @@
         <v>45492</v>
       </c>
       <c r="B202" t="n">
-        <v>148.67</v>
+        <v>140.45</v>
       </c>
       <c r="C202" t="n">
-        <v>104.93</v>
+        <v>120.06</v>
       </c>
       <c r="D202" t="n">
-        <v>123.4</v>
+        <v>115.83</v>
       </c>
       <c r="E202" t="n">
-        <v>141.69</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="203">
@@ -3903,16 +3903,16 @@
         <v>45493</v>
       </c>
       <c r="B203" t="n">
-        <v>150.51</v>
+        <v>140.14</v>
       </c>
       <c r="C203" t="n">
-        <v>105.4</v>
+        <v>119.84</v>
       </c>
       <c r="D203" t="n">
-        <v>124.89</v>
+        <v>115.71</v>
       </c>
       <c r="E203" t="n">
-        <v>142.79</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="204">
@@ -3920,16 +3920,16 @@
         <v>45494</v>
       </c>
       <c r="B204" t="n">
-        <v>149.8</v>
+        <v>139.81</v>
       </c>
       <c r="C204" t="n">
-        <v>104.57</v>
+        <v>121.14</v>
       </c>
       <c r="D204" t="n">
-        <v>123.65</v>
+        <v>115.18</v>
       </c>
       <c r="E204" t="n">
-        <v>143.26</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="205">
@@ -3937,16 +3937,16 @@
         <v>45495</v>
       </c>
       <c r="B205" t="n">
-        <v>151.82</v>
+        <v>139.53</v>
       </c>
       <c r="C205" t="n">
-        <v>105.22</v>
+        <v>122.62</v>
       </c>
       <c r="D205" t="n">
-        <v>123.71</v>
+        <v>115.41</v>
       </c>
       <c r="E205" t="n">
-        <v>144.28</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="206">
@@ -3954,16 +3954,16 @@
         <v>45496</v>
       </c>
       <c r="B206" t="n">
-        <v>152.38</v>
+        <v>138.08</v>
       </c>
       <c r="C206" t="n">
-        <v>104.48</v>
+        <v>123.04</v>
       </c>
       <c r="D206" t="n">
-        <v>125.63</v>
+        <v>116.12</v>
       </c>
       <c r="E206" t="n">
-        <v>145.85</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="207">
@@ -3971,16 +3971,16 @@
         <v>45497</v>
       </c>
       <c r="B207" t="n">
-        <v>152.77</v>
+        <v>139.47</v>
       </c>
       <c r="C207" t="n">
-        <v>104.72</v>
+        <v>122.73</v>
       </c>
       <c r="D207" t="n">
-        <v>126.27</v>
+        <v>117.19</v>
       </c>
       <c r="E207" t="n">
-        <v>145.89</v>
+        <v>100.23</v>
       </c>
     </row>
     <row r="208">
@@ -3988,16 +3988,16 @@
         <v>45498</v>
       </c>
       <c r="B208" t="n">
-        <v>153.59</v>
+        <v>139.27</v>
       </c>
       <c r="C208" t="n">
-        <v>105.04</v>
+        <v>122.49</v>
       </c>
       <c r="D208" t="n">
-        <v>125.77</v>
+        <v>118.31</v>
       </c>
       <c r="E208" t="n">
-        <v>146.22</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="209">
@@ -4005,16 +4005,16 @@
         <v>45499</v>
       </c>
       <c r="B209" t="n">
-        <v>154.4</v>
+        <v>138.9</v>
       </c>
       <c r="C209" t="n">
-        <v>106.67</v>
+        <v>122.28</v>
       </c>
       <c r="D209" t="n">
-        <v>126.89</v>
+        <v>118.2</v>
       </c>
       <c r="E209" t="n">
-        <v>144.75</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="210">
@@ -4022,16 +4022,16 @@
         <v>45500</v>
       </c>
       <c r="B210" t="n">
-        <v>156.6</v>
+        <v>138.09</v>
       </c>
       <c r="C210" t="n">
-        <v>106.41</v>
+        <v>121.53</v>
       </c>
       <c r="D210" t="n">
-        <v>126.24</v>
+        <v>117.75</v>
       </c>
       <c r="E210" t="n">
-        <v>147.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211">
@@ -4039,16 +4039,16 @@
         <v>45501</v>
       </c>
       <c r="B211" t="n">
-        <v>156.67</v>
+        <v>138.55</v>
       </c>
       <c r="C211" t="n">
-        <v>106.6</v>
+        <v>123.11</v>
       </c>
       <c r="D211" t="n">
-        <v>127.17</v>
+        <v>117.14</v>
       </c>
       <c r="E211" t="n">
-        <v>146.97</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="212">
@@ -4056,16 +4056,16 @@
         <v>45502</v>
       </c>
       <c r="B212" t="n">
-        <v>154.79</v>
+        <v>138.52</v>
       </c>
       <c r="C212" t="n">
-        <v>107.97</v>
+        <v>123.24</v>
       </c>
       <c r="D212" t="n">
-        <v>127.15</v>
+        <v>117.71</v>
       </c>
       <c r="E212" t="n">
-        <v>143.36</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="213">
@@ -4073,16 +4073,16 @@
         <v>45503</v>
       </c>
       <c r="B213" t="n">
-        <v>154.49</v>
+        <v>139.15</v>
       </c>
       <c r="C213" t="n">
-        <v>107.31</v>
+        <v>123.57</v>
       </c>
       <c r="D213" t="n">
-        <v>125.99</v>
+        <v>118.15</v>
       </c>
       <c r="E213" t="n">
-        <v>143.97</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="214">
@@ -4090,16 +4090,16 @@
         <v>45504</v>
       </c>
       <c r="B214" t="n">
-        <v>155.74</v>
+        <v>142.1</v>
       </c>
       <c r="C214" t="n">
-        <v>107.51</v>
+        <v>123.15</v>
       </c>
       <c r="D214" t="n">
-        <v>125.11</v>
+        <v>117.87</v>
       </c>
       <c r="E214" t="n">
-        <v>144.86</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="215">
@@ -4107,16 +4107,16 @@
         <v>45505</v>
       </c>
       <c r="B215" t="n">
-        <v>154.36</v>
+        <v>141.68</v>
       </c>
       <c r="C215" t="n">
-        <v>107.39</v>
+        <v>122.73</v>
       </c>
       <c r="D215" t="n">
-        <v>126.47</v>
+        <v>118.8</v>
       </c>
       <c r="E215" t="n">
-        <v>143.73</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="216">
@@ -4124,16 +4124,16 @@
         <v>45506</v>
       </c>
       <c r="B216" t="n">
-        <v>154.27</v>
+        <v>141.24</v>
       </c>
       <c r="C216" t="n">
-        <v>106.33</v>
+        <v>122.14</v>
       </c>
       <c r="D216" t="n">
-        <v>126.38</v>
+        <v>119.24</v>
       </c>
       <c r="E216" t="n">
-        <v>145.08</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="217">
@@ -4141,16 +4141,16 @@
         <v>45507</v>
       </c>
       <c r="B217" t="n">
-        <v>154.17</v>
+        <v>142.17</v>
       </c>
       <c r="C217" t="n">
-        <v>104.33</v>
+        <v>122.49</v>
       </c>
       <c r="D217" t="n">
-        <v>126.44</v>
+        <v>118.25</v>
       </c>
       <c r="E217" t="n">
-        <v>147.77</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="218">
@@ -4158,16 +4158,16 @@
         <v>45508</v>
       </c>
       <c r="B218" t="n">
-        <v>154.11</v>
+        <v>144.43</v>
       </c>
       <c r="C218" t="n">
-        <v>105.02</v>
+        <v>122.1</v>
       </c>
       <c r="D218" t="n">
-        <v>127.95</v>
+        <v>118.07</v>
       </c>
       <c r="E218" t="n">
-        <v>146.74</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="219">
@@ -4175,16 +4175,16 @@
         <v>45509</v>
       </c>
       <c r="B219" t="n">
-        <v>155.73</v>
+        <v>145.03</v>
       </c>
       <c r="C219" t="n">
-        <v>104.96</v>
+        <v>122.88</v>
       </c>
       <c r="D219" t="n">
-        <v>127.2</v>
+        <v>119.58</v>
       </c>
       <c r="E219" t="n">
-        <v>148.38</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="220">
@@ -4192,16 +4192,16 @@
         <v>45510</v>
       </c>
       <c r="B220" t="n">
-        <v>159.17</v>
+        <v>144.32</v>
       </c>
       <c r="C220" t="n">
-        <v>105.15</v>
+        <v>121.78</v>
       </c>
       <c r="D220" t="n">
-        <v>127.31</v>
+        <v>119.16</v>
       </c>
       <c r="E220" t="n">
-        <v>151.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221">
@@ -4209,16 +4209,16 @@
         <v>45511</v>
       </c>
       <c r="B221" t="n">
-        <v>159.38</v>
+        <v>146.61</v>
       </c>
       <c r="C221" t="n">
-        <v>105.46</v>
+        <v>121.47</v>
       </c>
       <c r="D221" t="n">
-        <v>127.3</v>
+        <v>119.41</v>
       </c>
       <c r="E221" t="n">
-        <v>151.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222">
@@ -4226,16 +4226,16 @@
         <v>45512</v>
       </c>
       <c r="B222" t="n">
-        <v>158.89</v>
+        <v>148.22</v>
       </c>
       <c r="C222" t="n">
-        <v>105.17</v>
+        <v>123.95</v>
       </c>
       <c r="D222" t="n">
-        <v>127.38</v>
+        <v>119.13</v>
       </c>
       <c r="E222" t="n">
-        <v>151.08</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="223">
@@ -4243,16 +4243,16 @@
         <v>45513</v>
       </c>
       <c r="B223" t="n">
-        <v>158.44</v>
+        <v>149.68</v>
       </c>
       <c r="C223" t="n">
-        <v>104.76</v>
+        <v>124.75</v>
       </c>
       <c r="D223" t="n">
-        <v>127.56</v>
+        <v>120.54</v>
       </c>
       <c r="E223" t="n">
-        <v>151.24</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="224">
@@ -4260,16 +4260,16 @@
         <v>45514</v>
       </c>
       <c r="B224" t="n">
-        <v>158.35</v>
+        <v>149.48</v>
       </c>
       <c r="C224" t="n">
-        <v>106.08</v>
+        <v>125.48</v>
       </c>
       <c r="D224" t="n">
-        <v>125.64</v>
+        <v>121.44</v>
       </c>
       <c r="E224" t="n">
-        <v>149.27</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="225">
@@ -4277,16 +4277,16 @@
         <v>45515</v>
       </c>
       <c r="B225" t="n">
-        <v>159.97</v>
+        <v>150.31</v>
       </c>
       <c r="C225" t="n">
-        <v>107.22</v>
+        <v>126.66</v>
       </c>
       <c r="D225" t="n">
-        <v>124.17</v>
+        <v>122.39</v>
       </c>
       <c r="E225" t="n">
-        <v>149.19</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="226">
@@ -4294,16 +4294,16 @@
         <v>45516</v>
       </c>
       <c r="B226" t="n">
-        <v>159.77</v>
+        <v>151.31</v>
       </c>
       <c r="C226" t="n">
-        <v>107.07</v>
+        <v>126.68</v>
       </c>
       <c r="D226" t="n">
-        <v>123.22</v>
+        <v>122.59</v>
       </c>
       <c r="E226" t="n">
-        <v>149.22</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="227">
@@ -4311,16 +4311,16 @@
         <v>45517</v>
       </c>
       <c r="B227" t="n">
-        <v>159.02</v>
+        <v>150.55</v>
       </c>
       <c r="C227" t="n">
-        <v>106.33</v>
+        <v>127.21</v>
       </c>
       <c r="D227" t="n">
-        <v>124.62</v>
+        <v>122.4</v>
       </c>
       <c r="E227" t="n">
-        <v>149.55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228">
@@ -4328,16 +4328,16 @@
         <v>45518</v>
       </c>
       <c r="B228" t="n">
-        <v>160.45</v>
+        <v>152.32</v>
       </c>
       <c r="C228" t="n">
-        <v>107.5</v>
+        <v>127.57</v>
       </c>
       <c r="D228" t="n">
-        <v>125.26</v>
+        <v>122.54</v>
       </c>
       <c r="E228" t="n">
-        <v>149.26</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="229">
@@ -4345,16 +4345,16 @@
         <v>45519</v>
       </c>
       <c r="B229" t="n">
-        <v>159.24</v>
+        <v>153.46</v>
       </c>
       <c r="C229" t="n">
-        <v>107.22</v>
+        <v>128.36</v>
       </c>
       <c r="D229" t="n">
-        <v>125.73</v>
+        <v>124.22</v>
       </c>
       <c r="E229" t="n">
-        <v>148.51</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="230">
@@ -4362,16 +4362,16 @@
         <v>45520</v>
       </c>
       <c r="B230" t="n">
-        <v>157.92</v>
+        <v>153.95</v>
       </c>
       <c r="C230" t="n">
-        <v>107.95</v>
+        <v>128.78</v>
       </c>
       <c r="D230" t="n">
-        <v>125.65</v>
+        <v>125.5</v>
       </c>
       <c r="E230" t="n">
-        <v>146.29</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -4379,16 +4379,16 @@
         <v>45521</v>
       </c>
       <c r="B231" t="n">
-        <v>157.68</v>
+        <v>154.53</v>
       </c>
       <c r="C231" t="n">
-        <v>108.67</v>
+        <v>129.55</v>
       </c>
       <c r="D231" t="n">
-        <v>126.08</v>
+        <v>125.74</v>
       </c>
       <c r="E231" t="n">
-        <v>145.1</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -4396,16 +4396,16 @@
         <v>45522</v>
       </c>
       <c r="B232" t="n">
-        <v>157.46</v>
+        <v>155</v>
       </c>
       <c r="C232" t="n">
-        <v>109.77</v>
+        <v>130.78</v>
       </c>
       <c r="D232" t="n">
-        <v>125.36</v>
+        <v>125.07</v>
       </c>
       <c r="E232" t="n">
-        <v>143.45</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="233">
@@ -4413,16 +4413,16 @@
         <v>45523</v>
       </c>
       <c r="B233" t="n">
-        <v>158.48</v>
+        <v>154.37</v>
       </c>
       <c r="C233" t="n">
-        <v>110.41</v>
+        <v>132.13</v>
       </c>
       <c r="D233" t="n">
-        <v>125.23</v>
+        <v>124.02</v>
       </c>
       <c r="E233" t="n">
-        <v>143.53</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="234">
@@ -4430,16 +4430,16 @@
         <v>45524</v>
       </c>
       <c r="B234" t="n">
-        <v>159.13</v>
+        <v>155.06</v>
       </c>
       <c r="C234" t="n">
-        <v>109.53</v>
+        <v>133.87</v>
       </c>
       <c r="D234" t="n">
-        <v>126.03</v>
+        <v>124.07</v>
       </c>
       <c r="E234" t="n">
-        <v>145.28</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="235">
@@ -4447,16 +4447,16 @@
         <v>45525</v>
       </c>
       <c r="B235" t="n">
-        <v>159.13</v>
+        <v>157.63</v>
       </c>
       <c r="C235" t="n">
-        <v>109.26</v>
+        <v>132.6</v>
       </c>
       <c r="D235" t="n">
-        <v>126.92</v>
+        <v>122.54</v>
       </c>
       <c r="E235" t="n">
-        <v>145.65</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="236">
@@ -4464,16 +4464,16 @@
         <v>45526</v>
       </c>
       <c r="B236" t="n">
-        <v>158.47</v>
+        <v>157.23</v>
       </c>
       <c r="C236" t="n">
-        <v>108.25</v>
+        <v>131.77</v>
       </c>
       <c r="D236" t="n">
-        <v>125.84</v>
+        <v>123.15</v>
       </c>
       <c r="E236" t="n">
-        <v>146.39</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="237">
@@ -4481,16 +4481,16 @@
         <v>45527</v>
       </c>
       <c r="B237" t="n">
-        <v>159.48</v>
+        <v>156.76</v>
       </c>
       <c r="C237" t="n">
-        <v>107.37</v>
+        <v>130.69</v>
       </c>
       <c r="D237" t="n">
-        <v>127.26</v>
+        <v>123.9</v>
       </c>
       <c r="E237" t="n">
-        <v>148.54</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="238">
@@ -4498,16 +4498,16 @@
         <v>45528</v>
       </c>
       <c r="B238" t="n">
-        <v>157.06</v>
+        <v>156.87</v>
       </c>
       <c r="C238" t="n">
-        <v>108.88</v>
+        <v>132.68</v>
       </c>
       <c r="D238" t="n">
-        <v>127.52</v>
+        <v>123.2</v>
       </c>
       <c r="E238" t="n">
-        <v>144.25</v>
+        <v>99.84999999999999</v>
       </c>
     </row>
     <row r="239">
@@ -4515,16 +4515,16 @@
         <v>45529</v>
       </c>
       <c r="B239" t="n">
-        <v>157.18</v>
+        <v>156.24</v>
       </c>
       <c r="C239" t="n">
-        <v>108.59</v>
+        <v>132.82</v>
       </c>
       <c r="D239" t="n">
-        <v>127.93</v>
+        <v>123.48</v>
       </c>
       <c r="E239" t="n">
-        <v>144.74</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="240">
@@ -4532,16 +4532,16 @@
         <v>45530</v>
       </c>
       <c r="B240" t="n">
-        <v>157.36</v>
+        <v>156.91</v>
       </c>
       <c r="C240" t="n">
-        <v>109.64</v>
+        <v>131.76</v>
       </c>
       <c r="D240" t="n">
-        <v>128.12</v>
+        <v>124.65</v>
       </c>
       <c r="E240" t="n">
-        <v>143.53</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="241">
@@ -4549,16 +4549,16 @@
         <v>45531</v>
       </c>
       <c r="B241" t="n">
-        <v>157.79</v>
+        <v>158.55</v>
       </c>
       <c r="C241" t="n">
-        <v>109.49</v>
+        <v>132.29</v>
       </c>
       <c r="D241" t="n">
-        <v>128.18</v>
+        <v>125.09</v>
       </c>
       <c r="E241" t="n">
-        <v>144.11</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="242">
@@ -4566,16 +4566,16 @@
         <v>45532</v>
       </c>
       <c r="B242" t="n">
-        <v>158.42</v>
+        <v>159.35</v>
       </c>
       <c r="C242" t="n">
-        <v>108.24</v>
+        <v>133.11</v>
       </c>
       <c r="D242" t="n">
-        <v>127.25</v>
+        <v>126.19</v>
       </c>
       <c r="E242" t="n">
-        <v>146.35</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="243">
@@ -4583,16 +4583,16 @@
         <v>45533</v>
       </c>
       <c r="B243" t="n">
-        <v>159.59</v>
+        <v>160.5</v>
       </c>
       <c r="C243" t="n">
-        <v>108.53</v>
+        <v>133.21</v>
       </c>
       <c r="D243" t="n">
-        <v>127.21</v>
+        <v>127.38</v>
       </c>
       <c r="E243" t="n">
-        <v>147.05</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="244">
@@ -4600,16 +4600,16 @@
         <v>45534</v>
       </c>
       <c r="B244" t="n">
-        <v>159.86</v>
+        <v>163.05</v>
       </c>
       <c r="C244" t="n">
-        <v>108.97</v>
+        <v>133.35</v>
       </c>
       <c r="D244" t="n">
-        <v>126.9</v>
+        <v>126.39</v>
       </c>
       <c r="E244" t="n">
-        <v>146.7</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="245">
@@ -4617,16 +4617,16 @@
         <v>45535</v>
       </c>
       <c r="B245" t="n">
-        <v>159.1</v>
+        <v>162.41</v>
       </c>
       <c r="C245" t="n">
-        <v>109.28</v>
+        <v>134.38</v>
       </c>
       <c r="D245" t="n">
-        <v>126.25</v>
+        <v>125.99</v>
       </c>
       <c r="E245" t="n">
-        <v>145.59</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="246">
@@ -4634,16 +4634,16 @@
         <v>45536</v>
       </c>
       <c r="B246" t="n">
-        <v>159.86</v>
+        <v>160.2</v>
       </c>
       <c r="C246" t="n">
-        <v>108.04</v>
+        <v>134.11</v>
       </c>
       <c r="D246" t="n">
-        <v>127.13</v>
+        <v>124.26</v>
       </c>
       <c r="E246" t="n">
-        <v>147.97</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="247">
@@ -4651,16 +4651,16 @@
         <v>45537</v>
       </c>
       <c r="B247" t="n">
-        <v>160.7</v>
+        <v>161.41</v>
       </c>
       <c r="C247" t="n">
-        <v>108.4</v>
+        <v>135.09</v>
       </c>
       <c r="D247" t="n">
-        <v>127.99</v>
+        <v>124.68</v>
       </c>
       <c r="E247" t="n">
-        <v>148.25</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="248">
@@ -4668,16 +4668,16 @@
         <v>45538</v>
       </c>
       <c r="B248" t="n">
-        <v>163.09</v>
+        <v>161.59</v>
       </c>
       <c r="C248" t="n">
-        <v>109.37</v>
+        <v>135.28</v>
       </c>
       <c r="D248" t="n">
-        <v>126.67</v>
+        <v>123.91</v>
       </c>
       <c r="E248" t="n">
-        <v>149.11</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="249">
@@ -4685,16 +4685,16 @@
         <v>45539</v>
       </c>
       <c r="B249" t="n">
-        <v>161.66</v>
+        <v>162.97</v>
       </c>
       <c r="C249" t="n">
-        <v>109.01</v>
+        <v>135.24</v>
       </c>
       <c r="D249" t="n">
-        <v>126.8</v>
+        <v>124.03</v>
       </c>
       <c r="E249" t="n">
-        <v>148.29</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="250">
@@ -4702,16 +4702,16 @@
         <v>45540</v>
       </c>
       <c r="B250" t="n">
-        <v>162.57</v>
+        <v>160.55</v>
       </c>
       <c r="C250" t="n">
-        <v>108.57</v>
+        <v>135.18</v>
       </c>
       <c r="D250" t="n">
-        <v>127.04</v>
+        <v>123.62</v>
       </c>
       <c r="E250" t="n">
-        <v>149.74</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -4719,16 +4719,16 @@
         <v>45541</v>
       </c>
       <c r="B251" t="n">
-        <v>161.84</v>
+        <v>160.43</v>
       </c>
       <c r="C251" t="n">
-        <v>108.23</v>
+        <v>137.19</v>
       </c>
       <c r="D251" t="n">
-        <v>126.07</v>
+        <v>124.2</v>
       </c>
       <c r="E251" t="n">
-        <v>149.53</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="252">
@@ -4736,16 +4736,16 @@
         <v>45542</v>
       </c>
       <c r="B252" t="n">
-        <v>160.88</v>
+        <v>161.4</v>
       </c>
       <c r="C252" t="n">
-        <v>107.28</v>
+        <v>138.82</v>
       </c>
       <c r="D252" t="n">
-        <v>125.43</v>
+        <v>124.98</v>
       </c>
       <c r="E252" t="n">
-        <v>149.96</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="253">
@@ -4753,16 +4753,16 @@
         <v>45543</v>
       </c>
       <c r="B253" t="n">
-        <v>162.48</v>
+        <v>160.81</v>
       </c>
       <c r="C253" t="n">
-        <v>106.67</v>
+        <v>139.74</v>
       </c>
       <c r="D253" t="n">
-        <v>127.51</v>
+        <v>125.38</v>
       </c>
       <c r="E253" t="n">
-        <v>152.32</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="254">
@@ -4770,16 +4770,16 @@
         <v>45544</v>
       </c>
       <c r="B254" t="n">
-        <v>163.37</v>
+        <v>161.87</v>
       </c>
       <c r="C254" t="n">
-        <v>106.97</v>
+        <v>141.04</v>
       </c>
       <c r="D254" t="n">
-        <v>126.96</v>
+        <v>125.08</v>
       </c>
       <c r="E254" t="n">
-        <v>152.73</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="255">
@@ -4787,16 +4787,16 @@
         <v>45545</v>
       </c>
       <c r="B255" t="n">
-        <v>164.53</v>
+        <v>162.37</v>
       </c>
       <c r="C255" t="n">
-        <v>106.65</v>
+        <v>143.43</v>
       </c>
       <c r="D255" t="n">
-        <v>127.15</v>
+        <v>124.66</v>
       </c>
       <c r="E255" t="n">
-        <v>154.26</v>
+        <v>100.17</v>
       </c>
     </row>
     <row r="256">
@@ -4804,16 +4804,16 @@
         <v>45546</v>
       </c>
       <c r="B256" t="n">
-        <v>168.14</v>
+        <v>162.87</v>
       </c>
       <c r="C256" t="n">
-        <v>106.73</v>
+        <v>142.93</v>
       </c>
       <c r="D256" t="n">
-        <v>128.13</v>
+        <v>124.4</v>
       </c>
       <c r="E256" t="n">
-        <v>157.54</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="257">
@@ -4821,16 +4821,16 @@
         <v>45547</v>
       </c>
       <c r="B257" t="n">
-        <v>167.45</v>
+        <v>163.67</v>
       </c>
       <c r="C257" t="n">
-        <v>106.85</v>
+        <v>143.69</v>
       </c>
       <c r="D257" t="n">
-        <v>129.59</v>
+        <v>124.07</v>
       </c>
       <c r="E257" t="n">
-        <v>156.72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="258">
@@ -4838,16 +4838,16 @@
         <v>45548</v>
       </c>
       <c r="B258" t="n">
-        <v>166.86</v>
+        <v>166.72</v>
       </c>
       <c r="C258" t="n">
-        <v>108.45</v>
+        <v>145.76</v>
       </c>
       <c r="D258" t="n">
-        <v>130.25</v>
+        <v>124.49</v>
       </c>
       <c r="E258" t="n">
-        <v>153.86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259">
@@ -4855,16 +4855,16 @@
         <v>45549</v>
       </c>
       <c r="B259" t="n">
-        <v>166.36</v>
+        <v>167.13</v>
       </c>
       <c r="C259" t="n">
-        <v>109.12</v>
+        <v>146.63</v>
       </c>
       <c r="D259" t="n">
-        <v>131.11</v>
+        <v>123.83</v>
       </c>
       <c r="E259" t="n">
-        <v>152.46</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="260">
@@ -4872,16 +4872,16 @@
         <v>45550</v>
       </c>
       <c r="B260" t="n">
-        <v>167.44</v>
+        <v>165.15</v>
       </c>
       <c r="C260" t="n">
-        <v>107.98</v>
+        <v>147.28</v>
       </c>
       <c r="D260" t="n">
-        <v>130.65</v>
+        <v>124.41</v>
       </c>
       <c r="E260" t="n">
-        <v>155.06</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="261">
@@ -4889,16 +4889,16 @@
         <v>45551</v>
       </c>
       <c r="B261" t="n">
-        <v>167.36</v>
+        <v>167.47</v>
       </c>
       <c r="C261" t="n">
-        <v>108.07</v>
+        <v>146.13</v>
       </c>
       <c r="D261" t="n">
-        <v>131.24</v>
+        <v>123.42</v>
       </c>
       <c r="E261" t="n">
-        <v>154.85</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="262">
@@ -4906,16 +4906,16 @@
         <v>45552</v>
       </c>
       <c r="B262" t="n">
-        <v>167.84</v>
+        <v>169.13</v>
       </c>
       <c r="C262" t="n">
-        <v>107.14</v>
+        <v>148.18</v>
       </c>
       <c r="D262" t="n">
-        <v>131.64</v>
+        <v>123.17</v>
       </c>
       <c r="E262" t="n">
-        <v>156.65</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="263">
@@ -4923,16 +4923,16 @@
         <v>45553</v>
       </c>
       <c r="B263" t="n">
-        <v>168.92</v>
+        <v>169.33</v>
       </c>
       <c r="C263" t="n">
-        <v>107.74</v>
+        <v>148.19</v>
       </c>
       <c r="D263" t="n">
-        <v>132.6</v>
+        <v>123.93</v>
       </c>
       <c r="E263" t="n">
-        <v>156.78</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="264">
@@ -4940,16 +4940,16 @@
         <v>45554</v>
       </c>
       <c r="B264" t="n">
-        <v>170.3</v>
+        <v>167.45</v>
       </c>
       <c r="C264" t="n">
-        <v>108.27</v>
+        <v>150.04</v>
       </c>
       <c r="D264" t="n">
-        <v>132.65</v>
+        <v>125.05</v>
       </c>
       <c r="E264" t="n">
-        <v>157.3</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="265">
@@ -4957,16 +4957,16 @@
         <v>45555</v>
       </c>
       <c r="B265" t="n">
-        <v>168.29</v>
+        <v>168.23</v>
       </c>
       <c r="C265" t="n">
-        <v>108.77</v>
+        <v>150.81</v>
       </c>
       <c r="D265" t="n">
-        <v>132.92</v>
+        <v>125.35</v>
       </c>
       <c r="E265" t="n">
-        <v>154.73</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="266">
@@ -4974,16 +4974,16 @@
         <v>45556</v>
       </c>
       <c r="B266" t="n">
-        <v>168.91</v>
+        <v>167.58</v>
       </c>
       <c r="C266" t="n">
-        <v>107.88</v>
+        <v>150.99</v>
       </c>
       <c r="D266" t="n">
-        <v>132.17</v>
+        <v>126.33</v>
       </c>
       <c r="E266" t="n">
-        <v>156.57</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="267">
@@ -4991,16 +4991,16 @@
         <v>45557</v>
       </c>
       <c r="B267" t="n">
-        <v>170.58</v>
+        <v>167.33</v>
       </c>
       <c r="C267" t="n">
-        <v>108</v>
+        <v>152.08</v>
       </c>
       <c r="D267" t="n">
-        <v>132.81</v>
+        <v>124.27</v>
       </c>
       <c r="E267" t="n">
-        <v>157.95</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="268">
@@ -5008,16 +5008,16 @@
         <v>45558</v>
       </c>
       <c r="B268" t="n">
-        <v>170.88</v>
+        <v>165.25</v>
       </c>
       <c r="C268" t="n">
-        <v>108.17</v>
+        <v>151.87</v>
       </c>
       <c r="D268" t="n">
-        <v>133.67</v>
+        <v>123.54</v>
       </c>
       <c r="E268" t="n">
-        <v>157.97</v>
+        <v>99.87</v>
       </c>
     </row>
     <row r="269">
@@ -5025,16 +5025,16 @@
         <v>45559</v>
       </c>
       <c r="B269" t="n">
-        <v>170.43</v>
+        <v>167.04</v>
       </c>
       <c r="C269" t="n">
-        <v>108.4</v>
+        <v>151.55</v>
       </c>
       <c r="D269" t="n">
-        <v>133.4</v>
+        <v>123.89</v>
       </c>
       <c r="E269" t="n">
-        <v>157.22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270">
@@ -5042,16 +5042,16 @@
         <v>45560</v>
       </c>
       <c r="B270" t="n">
-        <v>170.09</v>
+        <v>167.93</v>
       </c>
       <c r="C270" t="n">
-        <v>108.3</v>
+        <v>151.85</v>
       </c>
       <c r="D270" t="n">
-        <v>133.69</v>
+        <v>123.04</v>
       </c>
       <c r="E270" t="n">
-        <v>157.06</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="271">
@@ -5059,16 +5059,16 @@
         <v>45561</v>
       </c>
       <c r="B271" t="n">
-        <v>169.7</v>
+        <v>167.51</v>
       </c>
       <c r="C271" t="n">
-        <v>109.47</v>
+        <v>150.29</v>
       </c>
       <c r="D271" t="n">
-        <v>133.08</v>
+        <v>122.82</v>
       </c>
       <c r="E271" t="n">
-        <v>155.01</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="272">
@@ -5076,16 +5076,16 @@
         <v>45562</v>
       </c>
       <c r="B272" t="n">
-        <v>169.7</v>
+        <v>168.9</v>
       </c>
       <c r="C272" t="n">
-        <v>109.26</v>
+        <v>150.11</v>
       </c>
       <c r="D272" t="n">
-        <v>134.34</v>
+        <v>122.66</v>
       </c>
       <c r="E272" t="n">
-        <v>155.31</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="273">
@@ -5093,16 +5093,16 @@
         <v>45563</v>
       </c>
       <c r="B273" t="n">
-        <v>170.22</v>
+        <v>171.96</v>
       </c>
       <c r="C273" t="n">
-        <v>110.26</v>
+        <v>150.75</v>
       </c>
       <c r="D273" t="n">
-        <v>133.25</v>
+        <v>123.07</v>
       </c>
       <c r="E273" t="n">
-        <v>154.37</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="274">
@@ -5110,16 +5110,16 @@
         <v>45564</v>
       </c>
       <c r="B274" t="n">
-        <v>170.84</v>
+        <v>172.55</v>
       </c>
       <c r="C274" t="n">
-        <v>111.15</v>
+        <v>150.67</v>
       </c>
       <c r="D274" t="n">
-        <v>133.42</v>
+        <v>123.03</v>
       </c>
       <c r="E274" t="n">
-        <v>153.7</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="275">
@@ -5127,16 +5127,16 @@
         <v>45565</v>
       </c>
       <c r="B275" t="n">
-        <v>172.55</v>
+        <v>172.76</v>
       </c>
       <c r="C275" t="n">
-        <v>110.88</v>
+        <v>151.7</v>
       </c>
       <c r="D275" t="n">
-        <v>134.66</v>
+        <v>123.16</v>
       </c>
       <c r="E275" t="n">
-        <v>155.62</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="276">
@@ -5144,16 +5144,16 @@
         <v>45566</v>
       </c>
       <c r="B276" t="n">
-        <v>175.98</v>
+        <v>172.91</v>
       </c>
       <c r="C276" t="n">
-        <v>110.73</v>
+        <v>152</v>
       </c>
       <c r="D276" t="n">
-        <v>134.4</v>
+        <v>121.79</v>
       </c>
       <c r="E276" t="n">
-        <v>158.93</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="277">
@@ -5161,16 +5161,16 @@
         <v>45567</v>
       </c>
       <c r="B277" t="n">
-        <v>178.29</v>
+        <v>173.64</v>
       </c>
       <c r="C277" t="n">
-        <v>112.2</v>
+        <v>153.36</v>
       </c>
       <c r="D277" t="n">
-        <v>134.09</v>
+        <v>119.77</v>
       </c>
       <c r="E277" t="n">
-        <v>158.91</v>
+        <v>100.21</v>
       </c>
     </row>
     <row r="278">
@@ -5178,16 +5178,16 @@
         <v>45568</v>
       </c>
       <c r="B278" t="n">
-        <v>177.96</v>
+        <v>173.71</v>
       </c>
       <c r="C278" t="n">
-        <v>112.12</v>
+        <v>154.84</v>
       </c>
       <c r="D278" t="n">
-        <v>133.11</v>
+        <v>119.12</v>
       </c>
       <c r="E278" t="n">
-        <v>158.73</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="279">
@@ -5195,16 +5195,16 @@
         <v>45569</v>
       </c>
       <c r="B279" t="n">
-        <v>176.92</v>
+        <v>172.51</v>
       </c>
       <c r="C279" t="n">
-        <v>111.43</v>
+        <v>154.34</v>
       </c>
       <c r="D279" t="n">
-        <v>132.61</v>
+        <v>120.58</v>
       </c>
       <c r="E279" t="n">
-        <v>158.77</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="280">
@@ -5212,16 +5212,16 @@
         <v>45570</v>
       </c>
       <c r="B280" t="n">
-        <v>177.14</v>
+        <v>173.07</v>
       </c>
       <c r="C280" t="n">
-        <v>111.78</v>
+        <v>155.56</v>
       </c>
       <c r="D280" t="n">
-        <v>133.95</v>
+        <v>121.03</v>
       </c>
       <c r="E280" t="n">
-        <v>158.46</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="281">
@@ -5229,16 +5229,16 @@
         <v>45571</v>
       </c>
       <c r="B281" t="n">
-        <v>175.99</v>
+        <v>173.83</v>
       </c>
       <c r="C281" t="n">
-        <v>112.76</v>
+        <v>158.58</v>
       </c>
       <c r="D281" t="n">
-        <v>133.88</v>
+        <v>121.09</v>
       </c>
       <c r="E281" t="n">
-        <v>156.07</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="282">
@@ -5246,16 +5246,16 @@
         <v>45572</v>
       </c>
       <c r="B282" t="n">
-        <v>176.18</v>
+        <v>175.55</v>
       </c>
       <c r="C282" t="n">
-        <v>113.49</v>
+        <v>160.12</v>
       </c>
       <c r="D282" t="n">
-        <v>133.09</v>
+        <v>122.05</v>
       </c>
       <c r="E282" t="n">
-        <v>155.24</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="283">
@@ -5263,16 +5263,16 @@
         <v>45573</v>
       </c>
       <c r="B283" t="n">
-        <v>176.98</v>
+        <v>174.21</v>
       </c>
       <c r="C283" t="n">
-        <v>113.79</v>
+        <v>162.3</v>
       </c>
       <c r="D283" t="n">
-        <v>133.59</v>
+        <v>121.31</v>
       </c>
       <c r="E283" t="n">
-        <v>155.53</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="284">
@@ -5280,16 +5280,16 @@
         <v>45574</v>
       </c>
       <c r="B284" t="n">
-        <v>177.66</v>
+        <v>173.42</v>
       </c>
       <c r="C284" t="n">
-        <v>116.05</v>
+        <v>162.45</v>
       </c>
       <c r="D284" t="n">
-        <v>133.18</v>
+        <v>121.64</v>
       </c>
       <c r="E284" t="n">
-        <v>153.09</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="285">
@@ -5297,16 +5297,16 @@
         <v>45575</v>
       </c>
       <c r="B285" t="n">
-        <v>177.17</v>
+        <v>174.27</v>
       </c>
       <c r="C285" t="n">
-        <v>115.67</v>
+        <v>164.65</v>
       </c>
       <c r="D285" t="n">
-        <v>132.85</v>
+        <v>122.07</v>
       </c>
       <c r="E285" t="n">
-        <v>153.17</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="286">
@@ -5314,16 +5314,16 @@
         <v>45576</v>
       </c>
       <c r="B286" t="n">
-        <v>176.53</v>
+        <v>175.87</v>
       </c>
       <c r="C286" t="n">
-        <v>116.86</v>
+        <v>166.35</v>
       </c>
       <c r="D286" t="n">
-        <v>134.09</v>
+        <v>121.27</v>
       </c>
       <c r="E286" t="n">
-        <v>151.06</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="287">
@@ -5331,16 +5331,16 @@
         <v>45577</v>
       </c>
       <c r="B287" t="n">
-        <v>175.99</v>
+        <v>177.12</v>
       </c>
       <c r="C287" t="n">
-        <v>116.3</v>
+        <v>166.21</v>
       </c>
       <c r="D287" t="n">
-        <v>134.57</v>
+        <v>122.37</v>
       </c>
       <c r="E287" t="n">
-        <v>151.33</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="288">
@@ -5348,16 +5348,16 @@
         <v>45578</v>
       </c>
       <c r="B288" t="n">
-        <v>175.48</v>
+        <v>177.57</v>
       </c>
       <c r="C288" t="n">
-        <v>117.01</v>
+        <v>166.23</v>
       </c>
       <c r="D288" t="n">
-        <v>134.84</v>
+        <v>122.48</v>
       </c>
       <c r="E288" t="n">
-        <v>149.97</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="289">
@@ -5365,16 +5365,16 @@
         <v>45579</v>
       </c>
       <c r="B289" t="n">
-        <v>173.61</v>
+        <v>175.79</v>
       </c>
       <c r="C289" t="n">
-        <v>118.53</v>
+        <v>168.45</v>
       </c>
       <c r="D289" t="n">
-        <v>136.4</v>
+        <v>121.95</v>
       </c>
       <c r="E289" t="n">
-        <v>146.47</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="290">
@@ -5385,13 +5385,13 @@
         <v>173.02</v>
       </c>
       <c r="C290" t="n">
-        <v>118.35</v>
+        <v>167.87</v>
       </c>
       <c r="D290" t="n">
-        <v>136.75</v>
+        <v>121.08</v>
       </c>
       <c r="E290" t="n">
-        <v>146.19</v>
+        <v>100.16</v>
       </c>
     </row>
     <row r="291">
@@ -5399,16 +5399,16 @@
         <v>45581</v>
       </c>
       <c r="B291" t="n">
-        <v>173.75</v>
+        <v>174.68</v>
       </c>
       <c r="C291" t="n">
-        <v>119.1</v>
+        <v>167.24</v>
       </c>
       <c r="D291" t="n">
-        <v>138.51</v>
+        <v>122.82</v>
       </c>
       <c r="E291" t="n">
-        <v>145.88</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="292">
@@ -5416,16 +5416,16 @@
         <v>45582</v>
       </c>
       <c r="B292" t="n">
-        <v>173.76</v>
+        <v>174.49</v>
       </c>
       <c r="C292" t="n">
-        <v>118.56</v>
+        <v>164.34</v>
       </c>
       <c r="D292" t="n">
-        <v>137.47</v>
+        <v>124.6</v>
       </c>
       <c r="E292" t="n">
-        <v>146.56</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="293">
@@ -5433,16 +5433,16 @@
         <v>45583</v>
       </c>
       <c r="B293" t="n">
-        <v>173</v>
+        <v>172.45</v>
       </c>
       <c r="C293" t="n">
-        <v>118.69</v>
+        <v>165.83</v>
       </c>
       <c r="D293" t="n">
-        <v>139.06</v>
+        <v>126.53</v>
       </c>
       <c r="E293" t="n">
-        <v>145.76</v>
+        <v>100.14</v>
       </c>
     </row>
     <row r="294">
@@ -5450,16 +5450,16 @@
         <v>45584</v>
       </c>
       <c r="B294" t="n">
-        <v>172.55</v>
+        <v>173.49</v>
       </c>
       <c r="C294" t="n">
-        <v>119.06</v>
+        <v>166.8</v>
       </c>
       <c r="D294" t="n">
-        <v>139.16</v>
+        <v>127.28</v>
       </c>
       <c r="E294" t="n">
-        <v>144.93</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="295">
@@ -5467,16 +5467,16 @@
         <v>45585</v>
       </c>
       <c r="B295" t="n">
-        <v>174.45</v>
+        <v>174.14</v>
       </c>
       <c r="C295" t="n">
-        <v>121.48</v>
+        <v>167.17</v>
       </c>
       <c r="D295" t="n">
-        <v>138.83</v>
+        <v>127.33</v>
       </c>
       <c r="E295" t="n">
-        <v>143.6</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="296">
@@ -5484,16 +5484,16 @@
         <v>45586</v>
       </c>
       <c r="B296" t="n">
-        <v>174.03</v>
+        <v>174.01</v>
       </c>
       <c r="C296" t="n">
-        <v>122.6</v>
+        <v>165.28</v>
       </c>
       <c r="D296" t="n">
-        <v>139.51</v>
+        <v>127.36</v>
       </c>
       <c r="E296" t="n">
-        <v>141.94</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="297">
@@ -5501,16 +5501,16 @@
         <v>45587</v>
       </c>
       <c r="B297" t="n">
-        <v>176.86</v>
+        <v>172.73</v>
       </c>
       <c r="C297" t="n">
-        <v>123.31</v>
+        <v>165.73</v>
       </c>
       <c r="D297" t="n">
-        <v>139.32</v>
+        <v>128.52</v>
       </c>
       <c r="E297" t="n">
-        <v>143.42</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="298">
@@ -5518,16 +5518,16 @@
         <v>45588</v>
       </c>
       <c r="B298" t="n">
-        <v>177.96</v>
+        <v>170.82</v>
       </c>
       <c r="C298" t="n">
-        <v>124.51</v>
+        <v>164.74</v>
       </c>
       <c r="D298" t="n">
-        <v>140.11</v>
+        <v>129.35</v>
       </c>
       <c r="E298" t="n">
-        <v>142.93</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="299">
@@ -5535,16 +5535,16 @@
         <v>45589</v>
       </c>
       <c r="B299" t="n">
-        <v>178.95</v>
+        <v>170.77</v>
       </c>
       <c r="C299" t="n">
-        <v>125.68</v>
+        <v>165.65</v>
       </c>
       <c r="D299" t="n">
-        <v>141.21</v>
+        <v>128.7</v>
       </c>
       <c r="E299" t="n">
-        <v>142.38</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="300">
@@ -5552,16 +5552,16 @@
         <v>45590</v>
       </c>
       <c r="B300" t="n">
-        <v>181.19</v>
+        <v>169.21</v>
       </c>
       <c r="C300" t="n">
-        <v>126.47</v>
+        <v>165.13</v>
       </c>
       <c r="D300" t="n">
-        <v>141.18</v>
+        <v>129.05</v>
       </c>
       <c r="E300" t="n">
-        <v>143.27</v>
+        <v>99.84</v>
       </c>
     </row>
     <row r="301">
@@ -5569,16 +5569,16 @@
         <v>45591</v>
       </c>
       <c r="B301" t="n">
-        <v>181.68</v>
+        <v>170.06</v>
       </c>
       <c r="C301" t="n">
-        <v>127.79</v>
+        <v>165.34</v>
       </c>
       <c r="D301" t="n">
-        <v>140.6</v>
+        <v>129.58</v>
       </c>
       <c r="E301" t="n">
-        <v>142.17</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="302">
@@ -5586,16 +5586,16 @@
         <v>45592</v>
       </c>
       <c r="B302" t="n">
-        <v>182.49</v>
+        <v>172.17</v>
       </c>
       <c r="C302" t="n">
-        <v>127.59</v>
+        <v>165.72</v>
       </c>
       <c r="D302" t="n">
-        <v>140.74</v>
+        <v>129.35</v>
       </c>
       <c r="E302" t="n">
-        <v>143.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="303">
@@ -5603,16 +5603,16 @@
         <v>45593</v>
       </c>
       <c r="B303" t="n">
-        <v>184.63</v>
+        <v>173.17</v>
       </c>
       <c r="C303" t="n">
-        <v>127.95</v>
+        <v>166.02</v>
       </c>
       <c r="D303" t="n">
-        <v>140.89</v>
+        <v>129.49</v>
       </c>
       <c r="E303" t="n">
-        <v>144.29</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="304">
@@ -5620,16 +5620,16 @@
         <v>45594</v>
       </c>
       <c r="B304" t="n">
-        <v>182.9</v>
+        <v>172.52</v>
       </c>
       <c r="C304" t="n">
-        <v>128.85</v>
+        <v>164.5</v>
       </c>
       <c r="D304" t="n">
-        <v>141.55</v>
+        <v>130.95</v>
       </c>
       <c r="E304" t="n">
-        <v>141.95</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="305">
@@ -5637,16 +5637,16 @@
         <v>45595</v>
       </c>
       <c r="B305" t="n">
-        <v>186.34</v>
+        <v>171.82</v>
       </c>
       <c r="C305" t="n">
-        <v>128.73</v>
+        <v>163.85</v>
       </c>
       <c r="D305" t="n">
-        <v>141.85</v>
+        <v>131.76</v>
       </c>
       <c r="E305" t="n">
-        <v>144.75</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="306">
@@ -5654,16 +5654,16 @@
         <v>45596</v>
       </c>
       <c r="B306" t="n">
-        <v>186.99</v>
+        <v>173.79</v>
       </c>
       <c r="C306" t="n">
-        <v>130.43</v>
+        <v>163.25</v>
       </c>
       <c r="D306" t="n">
-        <v>141.88</v>
+        <v>132.08</v>
       </c>
       <c r="E306" t="n">
-        <v>143.36</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="307">
@@ -5671,16 +5671,16 @@
         <v>45597</v>
       </c>
       <c r="B307" t="n">
-        <v>187.69</v>
+        <v>177.03</v>
       </c>
       <c r="C307" t="n">
-        <v>131.21</v>
+        <v>162.02</v>
       </c>
       <c r="D307" t="n">
-        <v>142.15</v>
+        <v>132.44</v>
       </c>
       <c r="E307" t="n">
-        <v>143.04</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="308">
@@ -5688,16 +5688,16 @@
         <v>45598</v>
       </c>
       <c r="B308" t="n">
-        <v>187.3</v>
+        <v>177.89</v>
       </c>
       <c r="C308" t="n">
-        <v>131.59</v>
+        <v>162.03</v>
       </c>
       <c r="D308" t="n">
-        <v>143.18</v>
+        <v>132.44</v>
       </c>
       <c r="E308" t="n">
-        <v>142.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309">
@@ -5705,16 +5705,16 @@
         <v>45599</v>
       </c>
       <c r="B309" t="n">
-        <v>186.04</v>
+        <v>177.94</v>
       </c>
       <c r="C309" t="n">
-        <v>131.9</v>
+        <v>163.42</v>
       </c>
       <c r="D309" t="n">
-        <v>142.69</v>
+        <v>134.3</v>
       </c>
       <c r="E309" t="n">
-        <v>141.04</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="310">
@@ -5722,16 +5722,16 @@
         <v>45600</v>
       </c>
       <c r="B310" t="n">
-        <v>188.1</v>
+        <v>176.26</v>
       </c>
       <c r="C310" t="n">
-        <v>130.58</v>
+        <v>163.54</v>
       </c>
       <c r="D310" t="n">
-        <v>142.33</v>
+        <v>136.49</v>
       </c>
       <c r="E310" t="n">
-        <v>144.05</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="311">
@@ -5739,16 +5739,16 @@
         <v>45601</v>
       </c>
       <c r="B311" t="n">
-        <v>188.95</v>
+        <v>178.84</v>
       </c>
       <c r="C311" t="n">
-        <v>132.3</v>
+        <v>165.83</v>
       </c>
       <c r="D311" t="n">
-        <v>142.39</v>
+        <v>136.14</v>
       </c>
       <c r="E311" t="n">
-        <v>142.82</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="312">
@@ -5756,16 +5756,16 @@
         <v>45602</v>
       </c>
       <c r="B312" t="n">
-        <v>188.39</v>
+        <v>181.43</v>
       </c>
       <c r="C312" t="n">
-        <v>134.35</v>
+        <v>165.59</v>
       </c>
       <c r="D312" t="n">
-        <v>141.26</v>
+        <v>136.09</v>
       </c>
       <c r="E312" t="n">
-        <v>140.23</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="313">
@@ -5773,16 +5773,16 @@
         <v>45603</v>
       </c>
       <c r="B313" t="n">
-        <v>185.36</v>
+        <v>180.23</v>
       </c>
       <c r="C313" t="n">
-        <v>134.98</v>
+        <v>165.02</v>
       </c>
       <c r="D313" t="n">
-        <v>140.95</v>
+        <v>135.19</v>
       </c>
       <c r="E313" t="n">
-        <v>137.32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314">
@@ -5790,16 +5790,16 @@
         <v>45604</v>
       </c>
       <c r="B314" t="n">
-        <v>184.12</v>
+        <v>179.39</v>
       </c>
       <c r="C314" t="n">
-        <v>135.89</v>
+        <v>165.54</v>
       </c>
       <c r="D314" t="n">
-        <v>141.27</v>
+        <v>134.04</v>
       </c>
       <c r="E314" t="n">
-        <v>135.5</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="315">
@@ -5807,16 +5807,16 @@
         <v>45605</v>
       </c>
       <c r="B315" t="n">
-        <v>183.57</v>
+        <v>180.86</v>
       </c>
       <c r="C315" t="n">
-        <v>134.77</v>
+        <v>163.29</v>
       </c>
       <c r="D315" t="n">
-        <v>142.12</v>
+        <v>134.45</v>
       </c>
       <c r="E315" t="n">
-        <v>136.21</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="316">
@@ -5824,16 +5824,16 @@
         <v>45606</v>
       </c>
       <c r="B316" t="n">
-        <v>184.8</v>
+        <v>179.38</v>
       </c>
       <c r="C316" t="n">
-        <v>134.86</v>
+        <v>165.57</v>
       </c>
       <c r="D316" t="n">
-        <v>143.81</v>
+        <v>134.89</v>
       </c>
       <c r="E316" t="n">
-        <v>137.03</v>
+        <v>99.93000000000001</v>
       </c>
     </row>
     <row r="317">
@@ -5841,16 +5841,16 @@
         <v>45607</v>
       </c>
       <c r="B317" t="n">
-        <v>183.49</v>
+        <v>179.57</v>
       </c>
       <c r="C317" t="n">
-        <v>133.5</v>
+        <v>166.5</v>
       </c>
       <c r="D317" t="n">
-        <v>143.33</v>
+        <v>135.06</v>
       </c>
       <c r="E317" t="n">
-        <v>137.44</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="318">
@@ -5858,16 +5858,16 @@
         <v>45608</v>
       </c>
       <c r="B318" t="n">
-        <v>183.7</v>
+        <v>178.52</v>
       </c>
       <c r="C318" t="n">
-        <v>133.94</v>
+        <v>166.94</v>
       </c>
       <c r="D318" t="n">
-        <v>143.24</v>
+        <v>134.03</v>
       </c>
       <c r="E318" t="n">
-        <v>137.16</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="319">
@@ -5875,16 +5875,16 @@
         <v>45609</v>
       </c>
       <c r="B319" t="n">
-        <v>184.5</v>
+        <v>177.49</v>
       </c>
       <c r="C319" t="n">
-        <v>132.87</v>
+        <v>166.25</v>
       </c>
       <c r="D319" t="n">
-        <v>144.59</v>
+        <v>135.13</v>
       </c>
       <c r="E319" t="n">
-        <v>138.86</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="320">
@@ -5892,16 +5892,16 @@
         <v>45610</v>
       </c>
       <c r="B320" t="n">
-        <v>184.65</v>
+        <v>178.62</v>
       </c>
       <c r="C320" t="n">
-        <v>134.16</v>
+        <v>165.12</v>
       </c>
       <c r="D320" t="n">
-        <v>145.01</v>
+        <v>134.98</v>
       </c>
       <c r="E320" t="n">
-        <v>137.63</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="321">
@@ -5909,16 +5909,16 @@
         <v>45611</v>
       </c>
       <c r="B321" t="n">
-        <v>185.6</v>
+        <v>179.09</v>
       </c>
       <c r="C321" t="n">
-        <v>134.93</v>
+        <v>168.23</v>
       </c>
       <c r="D321" t="n">
-        <v>145.51</v>
+        <v>135.41</v>
       </c>
       <c r="E321" t="n">
-        <v>137.56</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="322">
@@ -5926,16 +5926,16 @@
         <v>45612</v>
       </c>
       <c r="B322" t="n">
-        <v>186.83</v>
+        <v>178.92</v>
       </c>
       <c r="C322" t="n">
-        <v>136.46</v>
+        <v>168.63</v>
       </c>
       <c r="D322" t="n">
-        <v>145.8</v>
+        <v>135.39</v>
       </c>
       <c r="E322" t="n">
-        <v>136.92</v>
+        <v>100.07</v>
       </c>
     </row>
     <row r="323">
@@ -5943,16 +5943,16 @@
         <v>45613</v>
       </c>
       <c r="B323" t="n">
-        <v>188.17</v>
+        <v>180.56</v>
       </c>
       <c r="C323" t="n">
-        <v>136.56</v>
+        <v>167.87</v>
       </c>
       <c r="D323" t="n">
-        <v>147.18</v>
+        <v>134.42</v>
       </c>
       <c r="E323" t="n">
-        <v>137.8</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="324">
@@ -5960,16 +5960,16 @@
         <v>45614</v>
       </c>
       <c r="B324" t="n">
-        <v>187.44</v>
+        <v>181.56</v>
       </c>
       <c r="C324" t="n">
-        <v>138.59</v>
+        <v>166.72</v>
       </c>
       <c r="D324" t="n">
-        <v>147.26</v>
+        <v>132.79</v>
       </c>
       <c r="E324" t="n">
-        <v>135.24</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="325">
@@ -5977,16 +5977,16 @@
         <v>45615</v>
       </c>
       <c r="B325" t="n">
-        <v>185.57</v>
+        <v>185.46</v>
       </c>
       <c r="C325" t="n">
-        <v>138.92</v>
+        <v>166.95</v>
       </c>
       <c r="D325" t="n">
-        <v>146.77</v>
+        <v>133.56</v>
       </c>
       <c r="E325" t="n">
-        <v>133.58</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="326">
@@ -5994,16 +5994,16 @@
         <v>45616</v>
       </c>
       <c r="B326" t="n">
-        <v>187.1</v>
+        <v>185.59</v>
       </c>
       <c r="C326" t="n">
-        <v>138.44</v>
+        <v>168.33</v>
       </c>
       <c r="D326" t="n">
-        <v>146.5</v>
+        <v>133.44</v>
       </c>
       <c r="E326" t="n">
-        <v>135.15</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="327">
@@ -6011,16 +6011,16 @@
         <v>45617</v>
       </c>
       <c r="B327" t="n">
-        <v>184.55</v>
+        <v>186.34</v>
       </c>
       <c r="C327" t="n">
-        <v>138.16</v>
+        <v>167.72</v>
       </c>
       <c r="D327" t="n">
-        <v>144.48</v>
+        <v>134.34</v>
       </c>
       <c r="E327" t="n">
-        <v>133.58</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="328">
@@ -6028,16 +6028,16 @@
         <v>45618</v>
       </c>
       <c r="B328" t="n">
-        <v>182.49</v>
+        <v>185.5</v>
       </c>
       <c r="C328" t="n">
-        <v>139.14</v>
+        <v>168.63</v>
       </c>
       <c r="D328" t="n">
-        <v>145.28</v>
+        <v>133.72</v>
       </c>
       <c r="E328" t="n">
-        <v>131.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329">
@@ -6045,16 +6045,16 @@
         <v>45619</v>
       </c>
       <c r="B329" t="n">
-        <v>183.39</v>
+        <v>185.76</v>
       </c>
       <c r="C329" t="n">
-        <v>138.33</v>
+        <v>170.24</v>
       </c>
       <c r="D329" t="n">
-        <v>145.36</v>
+        <v>134.21</v>
       </c>
       <c r="E329" t="n">
-        <v>132.57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330">
@@ -6062,16 +6062,16 @@
         <v>45620</v>
       </c>
       <c r="B330" t="n">
-        <v>183.66</v>
+        <v>187.25</v>
       </c>
       <c r="C330" t="n">
-        <v>137.32</v>
+        <v>172.25</v>
       </c>
       <c r="D330" t="n">
-        <v>146.78</v>
+        <v>134.77</v>
       </c>
       <c r="E330" t="n">
-        <v>133.74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331">
@@ -6079,16 +6079,16 @@
         <v>45621</v>
       </c>
       <c r="B331" t="n">
-        <v>185.22</v>
+        <v>185.57</v>
       </c>
       <c r="C331" t="n">
-        <v>137.28</v>
+        <v>171.12</v>
       </c>
       <c r="D331" t="n">
-        <v>146.92</v>
+        <v>134.63</v>
       </c>
       <c r="E331" t="n">
-        <v>134.92</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="332">
@@ -6096,16 +6096,16 @@
         <v>45622</v>
       </c>
       <c r="B332" t="n">
-        <v>185.81</v>
+        <v>185.57</v>
       </c>
       <c r="C332" t="n">
-        <v>135.37</v>
+        <v>171.43</v>
       </c>
       <c r="D332" t="n">
-        <v>146.82</v>
+        <v>135.16</v>
       </c>
       <c r="E332" t="n">
-        <v>137.25</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="333">
@@ -6113,16 +6113,16 @@
         <v>45623</v>
       </c>
       <c r="B333" t="n">
-        <v>185.07</v>
+        <v>186.57</v>
       </c>
       <c r="C333" t="n">
-        <v>134.55</v>
+        <v>171.75</v>
       </c>
       <c r="D333" t="n">
-        <v>146.69</v>
+        <v>133.67</v>
       </c>
       <c r="E333" t="n">
-        <v>137.55</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="334">
@@ -6130,16 +6130,16 @@
         <v>45624</v>
       </c>
       <c r="B334" t="n">
-        <v>188.01</v>
+        <v>186.64</v>
       </c>
       <c r="C334" t="n">
-        <v>135.38</v>
+        <v>170.44</v>
       </c>
       <c r="D334" t="n">
-        <v>146.31</v>
+        <v>134.26</v>
       </c>
       <c r="E334" t="n">
-        <v>138.87</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="335">
@@ -6147,16 +6147,16 @@
         <v>45625</v>
       </c>
       <c r="B335" t="n">
-        <v>189.16</v>
+        <v>188.74</v>
       </c>
       <c r="C335" t="n">
-        <v>136.99</v>
+        <v>170.4</v>
       </c>
       <c r="D335" t="n">
-        <v>147.24</v>
+        <v>135.56</v>
       </c>
       <c r="E335" t="n">
-        <v>138.08</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="336">
@@ -6164,16 +6164,16 @@
         <v>45626</v>
       </c>
       <c r="B336" t="n">
-        <v>189.53</v>
+        <v>188.51</v>
       </c>
       <c r="C336" t="n">
-        <v>136.52</v>
+        <v>169.86</v>
       </c>
       <c r="D336" t="n">
-        <v>147.97</v>
+        <v>135.43</v>
       </c>
       <c r="E336" t="n">
-        <v>138.83</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="337">
@@ -6181,16 +6181,16 @@
         <v>45627</v>
       </c>
       <c r="B337" t="n">
-        <v>190.41</v>
+        <v>189.05</v>
       </c>
       <c r="C337" t="n">
-        <v>137.63</v>
+        <v>170.3</v>
       </c>
       <c r="D337" t="n">
-        <v>148.65</v>
+        <v>135.54</v>
       </c>
       <c r="E337" t="n">
-        <v>138.35</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="338">
@@ -6198,16 +6198,16 @@
         <v>45628</v>
       </c>
       <c r="B338" t="n">
-        <v>192.29</v>
+        <v>191.13</v>
       </c>
       <c r="C338" t="n">
-        <v>137.27</v>
+        <v>171.75</v>
       </c>
       <c r="D338" t="n">
-        <v>149.95</v>
+        <v>134.44</v>
       </c>
       <c r="E338" t="n">
-        <v>140.09</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="339">
@@ -6215,16 +6215,16 @@
         <v>45629</v>
       </c>
       <c r="B339" t="n">
-        <v>192.89</v>
+        <v>192.85</v>
       </c>
       <c r="C339" t="n">
-        <v>139.6</v>
+        <v>170.23</v>
       </c>
       <c r="D339" t="n">
-        <v>149.45</v>
+        <v>134.36</v>
       </c>
       <c r="E339" t="n">
-        <v>138.17</v>
+        <v>99.88</v>
       </c>
     </row>
     <row r="340">
@@ -6232,16 +6232,16 @@
         <v>45630</v>
       </c>
       <c r="B340" t="n">
-        <v>195.85</v>
+        <v>190.36</v>
       </c>
       <c r="C340" t="n">
-        <v>140</v>
+        <v>171.16</v>
       </c>
       <c r="D340" t="n">
-        <v>148.98</v>
+        <v>135.08</v>
       </c>
       <c r="E340" t="n">
-        <v>139.9</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="341">
@@ -6249,16 +6249,16 @@
         <v>45631</v>
       </c>
       <c r="B341" t="n">
-        <v>195.39</v>
+        <v>186.7</v>
       </c>
       <c r="C341" t="n">
-        <v>139.86</v>
+        <v>170.7</v>
       </c>
       <c r="D341" t="n">
-        <v>149.48</v>
+        <v>135.51</v>
       </c>
       <c r="E341" t="n">
-        <v>139.71</v>
+        <v>99.84999999999999</v>
       </c>
     </row>
     <row r="342">
@@ -6266,16 +6266,16 @@
         <v>45632</v>
       </c>
       <c r="B342" t="n">
-        <v>196.5</v>
+        <v>187.25</v>
       </c>
       <c r="C342" t="n">
-        <v>139.45</v>
+        <v>170.92</v>
       </c>
       <c r="D342" t="n">
-        <v>149.58</v>
+        <v>136.09</v>
       </c>
       <c r="E342" t="n">
-        <v>140.91</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="343">
@@ -6283,16 +6283,16 @@
         <v>45633</v>
       </c>
       <c r="B343" t="n">
-        <v>200.16</v>
+        <v>186.08</v>
       </c>
       <c r="C343" t="n">
-        <v>141.45</v>
+        <v>172.69</v>
       </c>
       <c r="D343" t="n">
-        <v>150.09</v>
+        <v>136.07</v>
       </c>
       <c r="E343" t="n">
-        <v>141.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344">
@@ -6300,16 +6300,16 @@
         <v>45634</v>
       </c>
       <c r="B344" t="n">
-        <v>200.52</v>
+        <v>184.97</v>
       </c>
       <c r="C344" t="n">
-        <v>141.78</v>
+        <v>172.36</v>
       </c>
       <c r="D344" t="n">
-        <v>150.76</v>
+        <v>135.46</v>
       </c>
       <c r="E344" t="n">
-        <v>141.43</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="345">
@@ -6317,16 +6317,16 @@
         <v>45635</v>
       </c>
       <c r="B345" t="n">
-        <v>199.18</v>
+        <v>187.78</v>
       </c>
       <c r="C345" t="n">
-        <v>141.7</v>
+        <v>170.83</v>
       </c>
       <c r="D345" t="n">
-        <v>149.37</v>
+        <v>134.25</v>
       </c>
       <c r="E345" t="n">
-        <v>140.56</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="346">
@@ -6334,16 +6334,16 @@
         <v>45636</v>
       </c>
       <c r="B346" t="n">
-        <v>200.12</v>
+        <v>187.74</v>
       </c>
       <c r="C346" t="n">
-        <v>142.59</v>
+        <v>170.21</v>
       </c>
       <c r="D346" t="n">
-        <v>149.06</v>
+        <v>135.2</v>
       </c>
       <c r="E346" t="n">
-        <v>140.34</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="347">
@@ -6351,16 +6351,16 @@
         <v>45637</v>
       </c>
       <c r="B347" t="n">
-        <v>202.94</v>
+        <v>190.77</v>
       </c>
       <c r="C347" t="n">
-        <v>141.48</v>
+        <v>171.31</v>
       </c>
       <c r="D347" t="n">
-        <v>147.87</v>
+        <v>134.91</v>
       </c>
       <c r="E347" t="n">
-        <v>143.44</v>
+        <v>100.22</v>
       </c>
     </row>
     <row r="348">
@@ -6368,16 +6368,16 @@
         <v>45638</v>
       </c>
       <c r="B348" t="n">
-        <v>203.61</v>
+        <v>190.13</v>
       </c>
       <c r="C348" t="n">
-        <v>142.79</v>
+        <v>172.51</v>
       </c>
       <c r="D348" t="n">
-        <v>149.48</v>
+        <v>135.26</v>
       </c>
       <c r="E348" t="n">
-        <v>142.59</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="349">
@@ -6385,16 +6385,16 @@
         <v>45639</v>
       </c>
       <c r="B349" t="n">
-        <v>203.17</v>
+        <v>192.79</v>
       </c>
       <c r="C349" t="n">
-        <v>144.14</v>
+        <v>172.79</v>
       </c>
       <c r="D349" t="n">
-        <v>149.57</v>
+        <v>134.76</v>
       </c>
       <c r="E349" t="n">
-        <v>140.95</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="350">
@@ -6402,16 +6402,16 @@
         <v>45640</v>
       </c>
       <c r="B350" t="n">
-        <v>203.19</v>
+        <v>192.03</v>
       </c>
       <c r="C350" t="n">
-        <v>145.3</v>
+        <v>175.64</v>
       </c>
       <c r="D350" t="n">
-        <v>150.27</v>
+        <v>134.97</v>
       </c>
       <c r="E350" t="n">
-        <v>139.84</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="351">
@@ -6419,16 +6419,16 @@
         <v>45641</v>
       </c>
       <c r="B351" t="n">
-        <v>200.93</v>
+        <v>192.6</v>
       </c>
       <c r="C351" t="n">
-        <v>147.11</v>
+        <v>174.11</v>
       </c>
       <c r="D351" t="n">
-        <v>151.64</v>
+        <v>134.3</v>
       </c>
       <c r="E351" t="n">
-        <v>136.58</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="352">
@@ -6436,16 +6436,16 @@
         <v>45642</v>
       </c>
       <c r="B352" t="n">
-        <v>200.23</v>
+        <v>191.88</v>
       </c>
       <c r="C352" t="n">
-        <v>147.76</v>
+        <v>172.99</v>
       </c>
       <c r="D352" t="n">
-        <v>152.21</v>
+        <v>134.84</v>
       </c>
       <c r="E352" t="n">
-        <v>135.51</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="353">
@@ -6453,16 +6453,16 @@
         <v>45643</v>
       </c>
       <c r="B353" t="n">
-        <v>200.95</v>
+        <v>193.27</v>
       </c>
       <c r="C353" t="n">
-        <v>147.35</v>
+        <v>174.52</v>
       </c>
       <c r="D353" t="n">
-        <v>151.72</v>
+        <v>134.33</v>
       </c>
       <c r="E353" t="n">
-        <v>136.37</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="354">
@@ -6470,16 +6470,16 @@
         <v>45644</v>
       </c>
       <c r="B354" t="n">
-        <v>201.21</v>
+        <v>195.88</v>
       </c>
       <c r="C354" t="n">
-        <v>148.86</v>
+        <v>174.34</v>
       </c>
       <c r="D354" t="n">
-        <v>152.33</v>
+        <v>134.24</v>
       </c>
       <c r="E354" t="n">
-        <v>135.17</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="355">
@@ -6487,16 +6487,16 @@
         <v>45645</v>
       </c>
       <c r="B355" t="n">
-        <v>200.91</v>
+        <v>197.05</v>
       </c>
       <c r="C355" t="n">
-        <v>149.93</v>
+        <v>175.18</v>
       </c>
       <c r="D355" t="n">
-        <v>149.85</v>
+        <v>136.09</v>
       </c>
       <c r="E355" t="n">
-        <v>134.01</v>
+        <v>99.94</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_data.xlsx
+++ b/data/performance_data.xlsx
@@ -503,16 +503,16 @@
         <v>45293</v>
       </c>
       <c r="B3" t="n">
-        <v>101.37</v>
+        <v>100.67</v>
       </c>
       <c r="C3" t="n">
-        <v>99.95999999999999</v>
+        <v>100.66</v>
       </c>
       <c r="D3" t="n">
-        <v>99.94</v>
+        <v>100.99</v>
       </c>
       <c r="E3" t="n">
-        <v>100.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -520,16 +520,16 @@
         <v>45294</v>
       </c>
       <c r="B4" t="n">
-        <v>102.14</v>
+        <v>100.63</v>
       </c>
       <c r="C4" t="n">
-        <v>99.75</v>
+        <v>100.65</v>
       </c>
       <c r="D4" t="n">
-        <v>100.34</v>
+        <v>102.03</v>
       </c>
       <c r="E4" t="n">
-        <v>99.95</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,16 +537,16 @@
         <v>45295</v>
       </c>
       <c r="B5" t="n">
-        <v>101.92</v>
+        <v>100.4</v>
       </c>
       <c r="C5" t="n">
-        <v>100.07</v>
+        <v>100.39</v>
       </c>
       <c r="D5" t="n">
-        <v>99.27</v>
+        <v>102.45</v>
       </c>
       <c r="E5" t="n">
-        <v>99.83</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="6">
@@ -554,16 +554,16 @@
         <v>45296</v>
       </c>
       <c r="B6" t="n">
-        <v>101.61</v>
+        <v>100.18</v>
       </c>
       <c r="C6" t="n">
-        <v>99.45</v>
+        <v>100.14</v>
       </c>
       <c r="D6" t="n">
-        <v>99.54000000000001</v>
+        <v>102.68</v>
       </c>
       <c r="E6" t="n">
-        <v>99.91</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="7">
@@ -571,16 +571,16 @@
         <v>45297</v>
       </c>
       <c r="B7" t="n">
-        <v>100.61</v>
+        <v>98.95</v>
       </c>
       <c r="C7" t="n">
-        <v>100.69</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>99.48</v>
+        <v>102.41</v>
       </c>
       <c r="E7" t="n">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>45298</v>
       </c>
       <c r="B8" t="n">
-        <v>99.62</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>100.42</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>99.63</v>
+        <v>101.94</v>
       </c>
       <c r="E8" t="n">
-        <v>99.88</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="9">
@@ -605,16 +605,16 @@
         <v>45299</v>
       </c>
       <c r="B9" t="n">
-        <v>100.07</v>
+        <v>100.66</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1</v>
+        <v>100.66</v>
       </c>
       <c r="D9" t="n">
-        <v>99.54000000000001</v>
+        <v>101.88</v>
       </c>
       <c r="E9" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -622,16 +622,16 @@
         <v>45300</v>
       </c>
       <c r="B10" t="n">
-        <v>101.7</v>
+        <v>99.66</v>
       </c>
       <c r="C10" t="n">
-        <v>100.23</v>
+        <v>99.66</v>
       </c>
       <c r="D10" t="n">
-        <v>98.98</v>
+        <v>101.63</v>
       </c>
       <c r="E10" t="n">
-        <v>100.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -639,16 +639,16 @@
         <v>45301</v>
       </c>
       <c r="B11" t="n">
-        <v>100.86</v>
+        <v>98.89</v>
       </c>
       <c r="C11" t="n">
-        <v>100.53</v>
+        <v>98.88</v>
       </c>
       <c r="D11" t="n">
-        <v>97.90000000000001</v>
+        <v>101.94</v>
       </c>
       <c r="E11" t="n">
-        <v>99.87</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="12">
@@ -656,16 +656,16 @@
         <v>45302</v>
       </c>
       <c r="B12" t="n">
-        <v>101.17</v>
+        <v>98.81</v>
       </c>
       <c r="C12" t="n">
-        <v>101.23</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.08</v>
+        <v>101.65</v>
       </c>
       <c r="E12" t="n">
-        <v>99.98999999999999</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -673,16 +673,16 @@
         <v>45303</v>
       </c>
       <c r="B13" t="n">
-        <v>101.08</v>
+        <v>98.95</v>
       </c>
       <c r="C13" t="n">
-        <v>100.25</v>
+        <v>98.97</v>
       </c>
       <c r="D13" t="n">
-        <v>97.73</v>
+        <v>101.09</v>
       </c>
       <c r="E13" t="n">
-        <v>99.95</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         <v>45304</v>
       </c>
       <c r="B14" t="n">
-        <v>102.08</v>
+        <v>98.13</v>
       </c>
       <c r="C14" t="n">
-        <v>100.65</v>
+        <v>98.09</v>
       </c>
       <c r="D14" t="n">
-        <v>96.78</v>
+        <v>101.3</v>
       </c>
       <c r="E14" t="n">
-        <v>100.03</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="15">
@@ -707,16 +707,16 @@
         <v>45305</v>
       </c>
       <c r="B15" t="n">
-        <v>101.92</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>100.28</v>
+        <v>97.25</v>
       </c>
       <c r="D15" t="n">
-        <v>97.20999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="E15" t="n">
-        <v>100.1</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -724,16 +724,16 @@
         <v>45306</v>
       </c>
       <c r="B16" t="n">
-        <v>102.83</v>
+        <v>97.52</v>
       </c>
       <c r="C16" t="n">
-        <v>99.79000000000001</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>97.11</v>
+        <v>101.51</v>
       </c>
       <c r="E16" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="17">
@@ -741,16 +741,16 @@
         <v>45307</v>
       </c>
       <c r="B17" t="n">
-        <v>103.79</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>99.56999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D17" t="n">
-        <v>97.08</v>
+        <v>101.15</v>
       </c>
       <c r="E17" t="n">
-        <v>99.89</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="18">
@@ -758,16 +758,16 @@
         <v>45308</v>
       </c>
       <c r="B18" t="n">
-        <v>102.95</v>
+        <v>97.47</v>
       </c>
       <c r="C18" t="n">
-        <v>100.31</v>
+        <v>97.43000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>97.94</v>
+        <v>101.44</v>
       </c>
       <c r="E18" t="n">
-        <v>99.98999999999999</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="19">
@@ -775,16 +775,16 @@
         <v>45309</v>
       </c>
       <c r="B19" t="n">
-        <v>103.94</v>
+        <v>97.87</v>
       </c>
       <c r="C19" t="n">
-        <v>100.73</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>97.64</v>
+        <v>101.29</v>
       </c>
       <c r="E19" t="n">
-        <v>100.04</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="20">
@@ -792,16 +792,16 @@
         <v>45310</v>
       </c>
       <c r="B20" t="n">
-        <v>105.37</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>100.84</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>98.64</v>
+        <v>101.99</v>
       </c>
       <c r="E20" t="n">
-        <v>99.73999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="21">
@@ -809,16 +809,16 @@
         <v>45311</v>
       </c>
       <c r="B21" t="n">
-        <v>106.22</v>
+        <v>97.98</v>
       </c>
       <c r="C21" t="n">
-        <v>101.05</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>98.54000000000001</v>
+        <v>101.89</v>
       </c>
       <c r="E21" t="n">
-        <v>100.01</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -826,16 +826,16 @@
         <v>45312</v>
       </c>
       <c r="B22" t="n">
-        <v>104.69</v>
+        <v>98.89</v>
       </c>
       <c r="C22" t="n">
-        <v>101.02</v>
+        <v>98.89</v>
       </c>
       <c r="D22" t="n">
-        <v>98.83</v>
+        <v>101.67</v>
       </c>
       <c r="E22" t="n">
-        <v>100.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -843,16 +843,16 @@
         <v>45313</v>
       </c>
       <c r="B23" t="n">
-        <v>104.41</v>
+        <v>98.16</v>
       </c>
       <c r="C23" t="n">
-        <v>100.55</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>98.61</v>
+        <v>101.03</v>
       </c>
       <c r="E23" t="n">
-        <v>100.09</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="24">
@@ -860,16 +860,16 @@
         <v>45314</v>
       </c>
       <c r="B24" t="n">
-        <v>104.85</v>
+        <v>99.38</v>
       </c>
       <c r="C24" t="n">
-        <v>100.29</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>98.98999999999999</v>
+        <v>101.06</v>
       </c>
       <c r="E24" t="n">
-        <v>100.01</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="25">
@@ -877,16 +877,16 @@
         <v>45315</v>
       </c>
       <c r="B25" t="n">
-        <v>105.82</v>
+        <v>99.81</v>
       </c>
       <c r="C25" t="n">
-        <v>99.90000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>98.88</v>
+        <v>100.75</v>
       </c>
       <c r="E25" t="n">
-        <v>99.95999999999999</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -894,16 +894,16 @@
         <v>45316</v>
       </c>
       <c r="B26" t="n">
-        <v>104.73</v>
+        <v>101.19</v>
       </c>
       <c r="C26" t="n">
-        <v>100.27</v>
+        <v>101.22</v>
       </c>
       <c r="D26" t="n">
-        <v>99.11</v>
+        <v>100.81</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="27">
@@ -911,16 +911,16 @@
         <v>45317</v>
       </c>
       <c r="B27" t="n">
-        <v>104.7</v>
+        <v>99.22</v>
       </c>
       <c r="C27" t="n">
-        <v>99.34</v>
+        <v>99.22</v>
       </c>
       <c r="D27" t="n">
-        <v>98.94</v>
+        <v>101.39</v>
       </c>
       <c r="E27" t="n">
-        <v>99.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -928,16 +928,16 @@
         <v>45318</v>
       </c>
       <c r="B28" t="n">
-        <v>104.18</v>
+        <v>99.13</v>
       </c>
       <c r="C28" t="n">
-        <v>99.36</v>
+        <v>99.09</v>
       </c>
       <c r="D28" t="n">
-        <v>99.26000000000001</v>
+        <v>101.53</v>
       </c>
       <c r="E28" t="n">
-        <v>100.19</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="29">
@@ -945,16 +945,16 @@
         <v>45319</v>
       </c>
       <c r="B29" t="n">
-        <v>104.48</v>
+        <v>99.11</v>
       </c>
       <c r="C29" t="n">
-        <v>99.69</v>
+        <v>99.14</v>
       </c>
       <c r="D29" t="n">
-        <v>99.3</v>
+        <v>101.83</v>
       </c>
       <c r="E29" t="n">
-        <v>99.81</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="30">
@@ -962,16 +962,16 @@
         <v>45320</v>
       </c>
       <c r="B30" t="n">
-        <v>104.62</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>99.88</v>
+        <v>98.84</v>
       </c>
       <c r="D30" t="n">
-        <v>100.84</v>
+        <v>101.41</v>
       </c>
       <c r="E30" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="31">
@@ -979,16 +979,16 @@
         <v>45321</v>
       </c>
       <c r="B31" t="n">
-        <v>105.03</v>
+        <v>99.72</v>
       </c>
       <c r="C31" t="n">
-        <v>99.98999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>100.22</v>
+        <v>101.69</v>
       </c>
       <c r="E31" t="n">
-        <v>100.11</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="32">
@@ -996,16 +996,16 @@
         <v>45322</v>
       </c>
       <c r="B32" t="n">
-        <v>105.82</v>
+        <v>100.28</v>
       </c>
       <c r="C32" t="n">
-        <v>100.72</v>
+        <v>100.3</v>
       </c>
       <c r="D32" t="n">
-        <v>99.75</v>
+        <v>101.83</v>
       </c>
       <c r="E32" t="n">
-        <v>100.14</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="33">
@@ -1013,16 +1013,16 @@
         <v>45323</v>
       </c>
       <c r="B33" t="n">
-        <v>104.79</v>
+        <v>99.86</v>
       </c>
       <c r="C33" t="n">
-        <v>101.31</v>
+        <v>99.86</v>
       </c>
       <c r="D33" t="n">
-        <v>101.14</v>
+        <v>101.72</v>
       </c>
       <c r="E33" t="n">
-        <v>99.90000000000001</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="34">
@@ -1030,16 +1030,16 @@
         <v>45324</v>
       </c>
       <c r="B34" t="n">
-        <v>104.47</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>101.52</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100.92</v>
+        <v>101.98</v>
       </c>
       <c r="E34" t="n">
-        <v>99.84</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1047,16 +1047,16 @@
         <v>45325</v>
       </c>
       <c r="B35" t="n">
-        <v>104.68</v>
+        <v>99</v>
       </c>
       <c r="C35" t="n">
-        <v>100.86</v>
+        <v>98.97</v>
       </c>
       <c r="D35" t="n">
-        <v>101.28</v>
+        <v>101.92</v>
       </c>
       <c r="E35" t="n">
-        <v>99.91</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="36">
@@ -1064,16 +1064,16 @@
         <v>45326</v>
       </c>
       <c r="B36" t="n">
-        <v>106.14</v>
+        <v>98.81</v>
       </c>
       <c r="C36" t="n">
-        <v>100.41</v>
+        <v>98.8</v>
       </c>
       <c r="D36" t="n">
-        <v>101.17</v>
+        <v>101.79</v>
       </c>
       <c r="E36" t="n">
-        <v>100.08</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="37">
@@ -1081,16 +1081,16 @@
         <v>45327</v>
       </c>
       <c r="B37" t="n">
-        <v>105.25</v>
+        <v>98.83</v>
       </c>
       <c r="C37" t="n">
-        <v>100.72</v>
+        <v>98.87</v>
       </c>
       <c r="D37" t="n">
-        <v>102.04</v>
+        <v>102.12</v>
       </c>
       <c r="E37" t="n">
-        <v>99.84</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1098,16 +1098,16 @@
         <v>45328</v>
       </c>
       <c r="B38" t="n">
-        <v>105.57</v>
+        <v>99.12</v>
       </c>
       <c r="C38" t="n">
-        <v>101.06</v>
+        <v>99.12</v>
       </c>
       <c r="D38" t="n">
-        <v>102.6</v>
+        <v>102.36</v>
       </c>
       <c r="E38" t="n">
-        <v>99.88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1115,16 +1115,16 @@
         <v>45329</v>
       </c>
       <c r="B39" t="n">
-        <v>104.61</v>
+        <v>97.75</v>
       </c>
       <c r="C39" t="n">
-        <v>101.59</v>
+        <v>97.75</v>
       </c>
       <c r="D39" t="n">
-        <v>102.87</v>
+        <v>102.42</v>
       </c>
       <c r="E39" t="n">
-        <v>100.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -1132,16 +1132,16 @@
         <v>45330</v>
       </c>
       <c r="B40" t="n">
-        <v>105.06</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>101.22</v>
+        <v>99.83</v>
       </c>
       <c r="D40" t="n">
-        <v>103.09</v>
+        <v>102.39</v>
       </c>
       <c r="E40" t="n">
-        <v>100.03</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1149,16 +1149,16 @@
         <v>45331</v>
       </c>
       <c r="B41" t="n">
-        <v>104.61</v>
+        <v>99.94</v>
       </c>
       <c r="C41" t="n">
-        <v>102.78</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>103.47</v>
+        <v>101.75</v>
       </c>
       <c r="E41" t="n">
-        <v>99.88</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="42">
@@ -1166,16 +1166,16 @@
         <v>45332</v>
       </c>
       <c r="B42" t="n">
-        <v>105.32</v>
+        <v>100.69</v>
       </c>
       <c r="C42" t="n">
-        <v>102.17</v>
+        <v>100.67</v>
       </c>
       <c r="D42" t="n">
-        <v>104.04</v>
+        <v>102.31</v>
       </c>
       <c r="E42" t="n">
-        <v>100.12</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="43">
@@ -1183,16 +1183,16 @@
         <v>45333</v>
       </c>
       <c r="B43" t="n">
-        <v>104.79</v>
+        <v>101.97</v>
       </c>
       <c r="C43" t="n">
-        <v>103.05</v>
+        <v>101.99</v>
       </c>
       <c r="D43" t="n">
-        <v>104.38</v>
+        <v>101.53</v>
       </c>
       <c r="E43" t="n">
-        <v>100.08</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1200,16 +1200,16 @@
         <v>45334</v>
       </c>
       <c r="B44" t="n">
-        <v>106.53</v>
+        <v>103.91</v>
       </c>
       <c r="C44" t="n">
-        <v>103</v>
+        <v>103.9</v>
       </c>
       <c r="D44" t="n">
-        <v>103.99</v>
+        <v>101.01</v>
       </c>
       <c r="E44" t="n">
-        <v>99.91</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="45">
@@ -1217,13 +1217,13 @@
         <v>45335</v>
       </c>
       <c r="B45" t="n">
-        <v>106</v>
+        <v>104.15</v>
       </c>
       <c r="C45" t="n">
-        <v>103.09</v>
+        <v>104.12</v>
       </c>
       <c r="D45" t="n">
-        <v>104.29</v>
+        <v>100.79</v>
       </c>
       <c r="E45" t="n">
         <v>100.03</v>
@@ -1234,16 +1234,16 @@
         <v>45336</v>
       </c>
       <c r="B46" t="n">
-        <v>106.86</v>
+        <v>104.37</v>
       </c>
       <c r="C46" t="n">
-        <v>103.24</v>
+        <v>104.38</v>
       </c>
       <c r="D46" t="n">
-        <v>105.28</v>
+        <v>100.23</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1251,16 +1251,16 @@
         <v>45337</v>
       </c>
       <c r="B47" t="n">
-        <v>109.34</v>
+        <v>103.76</v>
       </c>
       <c r="C47" t="n">
-        <v>103.87</v>
+        <v>103.74</v>
       </c>
       <c r="D47" t="n">
-        <v>104.83</v>
+        <v>101.24</v>
       </c>
       <c r="E47" t="n">
-        <v>99.89</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="48">
@@ -1268,16 +1268,16 @@
         <v>45338</v>
       </c>
       <c r="B48" t="n">
-        <v>109.93</v>
+        <v>103.64</v>
       </c>
       <c r="C48" t="n">
-        <v>103.84</v>
+        <v>103.62</v>
       </c>
       <c r="D48" t="n">
-        <v>105.36</v>
+        <v>101.81</v>
       </c>
       <c r="E48" t="n">
-        <v>100.05</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="49">
@@ -1285,16 +1285,16 @@
         <v>45339</v>
       </c>
       <c r="B49" t="n">
-        <v>110.03</v>
+        <v>103.99</v>
       </c>
       <c r="C49" t="n">
-        <v>103.33</v>
+        <v>103.95</v>
       </c>
       <c r="D49" t="n">
-        <v>104.48</v>
+        <v>102.69</v>
       </c>
       <c r="E49" t="n">
-        <v>99.95999999999999</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="50">
@@ -1302,16 +1302,16 @@
         <v>45340</v>
       </c>
       <c r="B50" t="n">
-        <v>110.95</v>
+        <v>104.3</v>
       </c>
       <c r="C50" t="n">
-        <v>103.64</v>
+        <v>104.31</v>
       </c>
       <c r="D50" t="n">
-        <v>103.79</v>
+        <v>102.94</v>
       </c>
       <c r="E50" t="n">
-        <v>100.02</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="51">
@@ -1319,16 +1319,16 @@
         <v>45341</v>
       </c>
       <c r="B51" t="n">
-        <v>111.46</v>
+        <v>103.42</v>
       </c>
       <c r="C51" t="n">
-        <v>103.1</v>
+        <v>103.43</v>
       </c>
       <c r="D51" t="n">
-        <v>103.97</v>
+        <v>102.2</v>
       </c>
       <c r="E51" t="n">
-        <v>100.01</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1336,16 +1336,16 @@
         <v>45342</v>
       </c>
       <c r="B52" t="n">
-        <v>110.61</v>
+        <v>103.82</v>
       </c>
       <c r="C52" t="n">
-        <v>103.52</v>
+        <v>103.83</v>
       </c>
       <c r="D52" t="n">
-        <v>104.4</v>
+        <v>102.44</v>
       </c>
       <c r="E52" t="n">
-        <v>100.11</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1353,16 +1353,16 @@
         <v>45343</v>
       </c>
       <c r="B53" t="n">
-        <v>111.71</v>
+        <v>103.41</v>
       </c>
       <c r="C53" t="n">
-        <v>102.59</v>
+        <v>103.42</v>
       </c>
       <c r="D53" t="n">
-        <v>103.9</v>
+        <v>102.66</v>
       </c>
       <c r="E53" t="n">
-        <v>100.05</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1370,16 +1370,16 @@
         <v>45344</v>
       </c>
       <c r="B54" t="n">
-        <v>112.33</v>
+        <v>102.98</v>
       </c>
       <c r="C54" t="n">
-        <v>103.13</v>
+        <v>102.99</v>
       </c>
       <c r="D54" t="n">
-        <v>106.38</v>
+        <v>103.89</v>
       </c>
       <c r="E54" t="n">
-        <v>100.06</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1387,16 +1387,16 @@
         <v>45345</v>
       </c>
       <c r="B55" t="n">
-        <v>113.52</v>
+        <v>102.15</v>
       </c>
       <c r="C55" t="n">
-        <v>104.02</v>
+        <v>102.13</v>
       </c>
       <c r="D55" t="n">
-        <v>106.88</v>
+        <v>104.39</v>
       </c>
       <c r="E55" t="n">
-        <v>99.97</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="56">
@@ -1404,16 +1404,16 @@
         <v>45346</v>
       </c>
       <c r="B56" t="n">
-        <v>114.38</v>
+        <v>102.95</v>
       </c>
       <c r="C56" t="n">
-        <v>103.56</v>
+        <v>102.93</v>
       </c>
       <c r="D56" t="n">
-        <v>106.81</v>
+        <v>105.2</v>
       </c>
       <c r="E56" t="n">
-        <v>99.95</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="57">
@@ -1421,16 +1421,16 @@
         <v>45347</v>
       </c>
       <c r="B57" t="n">
-        <v>114.63</v>
+        <v>103.89</v>
       </c>
       <c r="C57" t="n">
-        <v>105.5</v>
+        <v>103.91</v>
       </c>
       <c r="D57" t="n">
-        <v>105.7</v>
+        <v>105.54</v>
       </c>
       <c r="E57" t="n">
-        <v>100.07</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="58">
@@ -1438,16 +1438,16 @@
         <v>45348</v>
       </c>
       <c r="B58" t="n">
-        <v>113.32</v>
+        <v>105.63</v>
       </c>
       <c r="C58" t="n">
-        <v>105.28</v>
+        <v>105.61</v>
       </c>
       <c r="D58" t="n">
-        <v>106.48</v>
+        <v>105.47</v>
       </c>
       <c r="E58" t="n">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="59">
@@ -1455,16 +1455,16 @@
         <v>45349</v>
       </c>
       <c r="B59" t="n">
-        <v>112.51</v>
+        <v>105.03</v>
       </c>
       <c r="C59" t="n">
-        <v>104.86</v>
+        <v>105.03</v>
       </c>
       <c r="D59" t="n">
-        <v>107</v>
+        <v>105.04</v>
       </c>
       <c r="E59" t="n">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -1472,16 +1472,16 @@
         <v>45350</v>
       </c>
       <c r="B60" t="n">
-        <v>112.88</v>
+        <v>105.48</v>
       </c>
       <c r="C60" t="n">
-        <v>105.04</v>
+        <v>105.5</v>
       </c>
       <c r="D60" t="n">
-        <v>106.67</v>
+        <v>105.3</v>
       </c>
       <c r="E60" t="n">
-        <v>100.21</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="61">
@@ -1489,16 +1489,16 @@
         <v>45351</v>
       </c>
       <c r="B61" t="n">
-        <v>113.62</v>
+        <v>105.65</v>
       </c>
       <c r="C61" t="n">
-        <v>103.59</v>
+        <v>105.64</v>
       </c>
       <c r="D61" t="n">
-        <v>106.87</v>
+        <v>106.3</v>
       </c>
       <c r="E61" t="n">
-        <v>99.93000000000001</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="62">
@@ -1506,16 +1506,16 @@
         <v>45352</v>
       </c>
       <c r="B62" t="n">
-        <v>114.56</v>
+        <v>108.1</v>
       </c>
       <c r="C62" t="n">
-        <v>103.12</v>
+        <v>108.09</v>
       </c>
       <c r="D62" t="n">
-        <v>106.88</v>
+        <v>106.78</v>
       </c>
       <c r="E62" t="n">
-        <v>100.05</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="63">
@@ -1523,16 +1523,16 @@
         <v>45353</v>
       </c>
       <c r="B63" t="n">
-        <v>115.53</v>
+        <v>107.34</v>
       </c>
       <c r="C63" t="n">
-        <v>102.34</v>
+        <v>107.34</v>
       </c>
       <c r="D63" t="n">
-        <v>106.75</v>
+        <v>107.18</v>
       </c>
       <c r="E63" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -1540,16 +1540,16 @@
         <v>45354</v>
       </c>
       <c r="B64" t="n">
-        <v>115.1</v>
+        <v>108.11</v>
       </c>
       <c r="C64" t="n">
-        <v>103.84</v>
+        <v>108.11</v>
       </c>
       <c r="D64" t="n">
-        <v>107.1</v>
+        <v>107.57</v>
       </c>
       <c r="E64" t="n">
-        <v>99.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -1557,16 +1557,16 @@
         <v>45355</v>
       </c>
       <c r="B65" t="n">
-        <v>116.12</v>
+        <v>107.54</v>
       </c>
       <c r="C65" t="n">
-        <v>105.63</v>
+        <v>107.53</v>
       </c>
       <c r="D65" t="n">
-        <v>107.85</v>
+        <v>106.68</v>
       </c>
       <c r="E65" t="n">
-        <v>99.84999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="66">
@@ -1574,16 +1574,16 @@
         <v>45356</v>
       </c>
       <c r="B66" t="n">
-        <v>115.84</v>
+        <v>108.44</v>
       </c>
       <c r="C66" t="n">
-        <v>106.79</v>
+        <v>108.42</v>
       </c>
       <c r="D66" t="n">
-        <v>107.48</v>
+        <v>106.9</v>
       </c>
       <c r="E66" t="n">
-        <v>100.04</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="67">
@@ -1591,16 +1591,16 @@
         <v>45357</v>
       </c>
       <c r="B67" t="n">
-        <v>116.73</v>
+        <v>108.76</v>
       </c>
       <c r="C67" t="n">
-        <v>106.19</v>
+        <v>108.74</v>
       </c>
       <c r="D67" t="n">
-        <v>107.52</v>
+        <v>107.23</v>
       </c>
       <c r="E67" t="n">
-        <v>99.68000000000001</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="68">
@@ -1608,16 +1608,16 @@
         <v>45358</v>
       </c>
       <c r="B68" t="n">
-        <v>115.95</v>
+        <v>109.05</v>
       </c>
       <c r="C68" t="n">
-        <v>106.14</v>
+        <v>109.03</v>
       </c>
       <c r="D68" t="n">
-        <v>106.8</v>
+        <v>107.35</v>
       </c>
       <c r="E68" t="n">
-        <v>100.16</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="69">
@@ -1625,16 +1625,16 @@
         <v>45359</v>
       </c>
       <c r="B69" t="n">
-        <v>114.8</v>
+        <v>109.53</v>
       </c>
       <c r="C69" t="n">
-        <v>105.94</v>
+        <v>109.55</v>
       </c>
       <c r="D69" t="n">
-        <v>106.97</v>
+        <v>107.8</v>
       </c>
       <c r="E69" t="n">
-        <v>100.14</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="70">
@@ -1642,16 +1642,16 @@
         <v>45360</v>
       </c>
       <c r="B70" t="n">
-        <v>113.65</v>
+        <v>110.62</v>
       </c>
       <c r="C70" t="n">
-        <v>107.01</v>
+        <v>110.6</v>
       </c>
       <c r="D70" t="n">
-        <v>107.07</v>
+        <v>107</v>
       </c>
       <c r="E70" t="n">
-        <v>99.90000000000001</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="71">
@@ -1659,16 +1659,16 @@
         <v>45361</v>
       </c>
       <c r="B71" t="n">
-        <v>114.24</v>
+        <v>111.24</v>
       </c>
       <c r="C71" t="n">
-        <v>107.32</v>
+        <v>111.25</v>
       </c>
       <c r="D71" t="n">
-        <v>106.77</v>
+        <v>107.41</v>
       </c>
       <c r="E71" t="n">
-        <v>100.01</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1676,16 +1676,16 @@
         <v>45362</v>
       </c>
       <c r="B72" t="n">
-        <v>114.06</v>
+        <v>114.83</v>
       </c>
       <c r="C72" t="n">
-        <v>107.56</v>
+        <v>114.86</v>
       </c>
       <c r="D72" t="n">
-        <v>107.27</v>
+        <v>107.87</v>
       </c>
       <c r="E72" t="n">
-        <v>100.16</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="73">
@@ -1693,16 +1693,16 @@
         <v>45363</v>
       </c>
       <c r="B73" t="n">
-        <v>113.1</v>
+        <v>115.88</v>
       </c>
       <c r="C73" t="n">
-        <v>109.43</v>
+        <v>115.87</v>
       </c>
       <c r="D73" t="n">
-        <v>106.1</v>
+        <v>108.37</v>
       </c>
       <c r="E73" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="74">
@@ -1710,16 +1710,16 @@
         <v>45364</v>
       </c>
       <c r="B74" t="n">
-        <v>113.8</v>
+        <v>116.76</v>
       </c>
       <c r="C74" t="n">
-        <v>109.82</v>
+        <v>116.75</v>
       </c>
       <c r="D74" t="n">
-        <v>105.79</v>
+        <v>107.96</v>
       </c>
       <c r="E74" t="n">
-        <v>99.98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
@@ -1727,16 +1727,16 @@
         <v>45365</v>
       </c>
       <c r="B75" t="n">
-        <v>113.53</v>
+        <v>116.48</v>
       </c>
       <c r="C75" t="n">
-        <v>109.49</v>
+        <v>116.53</v>
       </c>
       <c r="D75" t="n">
-        <v>106.42</v>
+        <v>108.1</v>
       </c>
       <c r="E75" t="n">
-        <v>100.04</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="76">
@@ -1744,16 +1744,16 @@
         <v>45366</v>
       </c>
       <c r="B76" t="n">
-        <v>113.07</v>
+        <v>114.92</v>
       </c>
       <c r="C76" t="n">
-        <v>110.38</v>
+        <v>114.88</v>
       </c>
       <c r="D76" t="n">
-        <v>106.7</v>
+        <v>108.63</v>
       </c>
       <c r="E76" t="n">
-        <v>100.08</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="77">
@@ -1761,16 +1761,16 @@
         <v>45367</v>
       </c>
       <c r="B77" t="n">
-        <v>113.81</v>
+        <v>114.65</v>
       </c>
       <c r="C77" t="n">
-        <v>109.85</v>
+        <v>114.66</v>
       </c>
       <c r="D77" t="n">
-        <v>106.42</v>
+        <v>109.43</v>
       </c>
       <c r="E77" t="n">
-        <v>100.07</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -1778,16 +1778,16 @@
         <v>45368</v>
       </c>
       <c r="B78" t="n">
-        <v>114.53</v>
+        <v>113.84</v>
       </c>
       <c r="C78" t="n">
-        <v>109.98</v>
+        <v>113.85</v>
       </c>
       <c r="D78" t="n">
-        <v>106.58</v>
+        <v>109.04</v>
       </c>
       <c r="E78" t="n">
-        <v>100.13</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1795,16 +1795,16 @@
         <v>45369</v>
       </c>
       <c r="B79" t="n">
-        <v>114.16</v>
+        <v>113.34</v>
       </c>
       <c r="C79" t="n">
-        <v>110.59</v>
+        <v>113.34</v>
       </c>
       <c r="D79" t="n">
-        <v>106.54</v>
+        <v>109.27</v>
       </c>
       <c r="E79" t="n">
-        <v>99.98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -1812,16 +1812,16 @@
         <v>45370</v>
       </c>
       <c r="B80" t="n">
-        <v>115.34</v>
+        <v>112.92</v>
       </c>
       <c r="C80" t="n">
-        <v>111.43</v>
+        <v>112.94</v>
       </c>
       <c r="D80" t="n">
-        <v>107.15</v>
+        <v>110.77</v>
       </c>
       <c r="E80" t="n">
-        <v>100.13</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1829,16 +1829,16 @@
         <v>45371</v>
       </c>
       <c r="B81" t="n">
-        <v>115.53</v>
+        <v>111.26</v>
       </c>
       <c r="C81" t="n">
-        <v>112.15</v>
+        <v>111.25</v>
       </c>
       <c r="D81" t="n">
-        <v>107.03</v>
+        <v>110.98</v>
       </c>
       <c r="E81" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="82">
@@ -1846,16 +1846,16 @@
         <v>45372</v>
       </c>
       <c r="B82" t="n">
-        <v>115.58</v>
+        <v>112.19</v>
       </c>
       <c r="C82" t="n">
-        <v>112.39</v>
+        <v>112.19</v>
       </c>
       <c r="D82" t="n">
-        <v>107.5</v>
+        <v>110.54</v>
       </c>
       <c r="E82" t="n">
-        <v>99.92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -1863,16 +1863,16 @@
         <v>45373</v>
       </c>
       <c r="B83" t="n">
-        <v>117.69</v>
+        <v>112.81</v>
       </c>
       <c r="C83" t="n">
-        <v>111.7</v>
+        <v>112.78</v>
       </c>
       <c r="D83" t="n">
-        <v>106.8</v>
+        <v>111.2</v>
       </c>
       <c r="E83" t="n">
-        <v>100.12</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="84">
@@ -1880,16 +1880,16 @@
         <v>45374</v>
       </c>
       <c r="B84" t="n">
-        <v>118.61</v>
+        <v>112.68</v>
       </c>
       <c r="C84" t="n">
-        <v>112.38</v>
+        <v>112.66</v>
       </c>
       <c r="D84" t="n">
-        <v>107.29</v>
+        <v>110.97</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="85">
@@ -1897,16 +1897,16 @@
         <v>45375</v>
       </c>
       <c r="B85" t="n">
-        <v>117.94</v>
+        <v>114.44</v>
       </c>
       <c r="C85" t="n">
-        <v>112.6</v>
+        <v>114.41</v>
       </c>
       <c r="D85" t="n">
-        <v>106.94</v>
+        <v>111.33</v>
       </c>
       <c r="E85" t="n">
-        <v>100.1</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="86">
@@ -1914,16 +1914,16 @@
         <v>45376</v>
       </c>
       <c r="B86" t="n">
-        <v>117.98</v>
+        <v>115.45</v>
       </c>
       <c r="C86" t="n">
-        <v>112.06</v>
+        <v>115.47</v>
       </c>
       <c r="D86" t="n">
-        <v>106.82</v>
+        <v>112.84</v>
       </c>
       <c r="E86" t="n">
-        <v>100.04</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="87">
@@ -1931,16 +1931,16 @@
         <v>45377</v>
       </c>
       <c r="B87" t="n">
-        <v>117.62</v>
+        <v>114.22</v>
       </c>
       <c r="C87" t="n">
-        <v>111.53</v>
+        <v>114.25</v>
       </c>
       <c r="D87" t="n">
-        <v>107.06</v>
+        <v>112.6</v>
       </c>
       <c r="E87" t="n">
-        <v>100.02</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="88">
@@ -1948,16 +1948,16 @@
         <v>45378</v>
       </c>
       <c r="B88" t="n">
-        <v>117.32</v>
+        <v>113.74</v>
       </c>
       <c r="C88" t="n">
-        <v>111.29</v>
+        <v>113.76</v>
       </c>
       <c r="D88" t="n">
-        <v>107.3</v>
+        <v>112.99</v>
       </c>
       <c r="E88" t="n">
-        <v>99.86</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="89">
@@ -1965,16 +1965,16 @@
         <v>45379</v>
       </c>
       <c r="B89" t="n">
-        <v>116.18</v>
+        <v>113.07</v>
       </c>
       <c r="C89" t="n">
-        <v>110.85</v>
+        <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>107.24</v>
+        <v>113.04</v>
       </c>
       <c r="E89" t="n">
-        <v>100.03</v>
+        <v>100.06</v>
       </c>
     </row>
     <row r="90">
@@ -1982,16 +1982,16 @@
         <v>45380</v>
       </c>
       <c r="B90" t="n">
-        <v>117.72</v>
+        <v>112.31</v>
       </c>
       <c r="C90" t="n">
-        <v>111.71</v>
+        <v>112.29</v>
       </c>
       <c r="D90" t="n">
-        <v>107.23</v>
+        <v>112.96</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="91">
@@ -1999,16 +1999,16 @@
         <v>45381</v>
       </c>
       <c r="B91" t="n">
-        <v>116.95</v>
+        <v>113.95</v>
       </c>
       <c r="C91" t="n">
-        <v>111.86</v>
+        <v>113.94</v>
       </c>
       <c r="D91" t="n">
-        <v>107.13</v>
+        <v>112.08</v>
       </c>
       <c r="E91" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="92">
@@ -2016,16 +2016,16 @@
         <v>45382</v>
       </c>
       <c r="B92" t="n">
-        <v>116.36</v>
+        <v>114.24</v>
       </c>
       <c r="C92" t="n">
-        <v>112.45</v>
+        <v>114.21</v>
       </c>
       <c r="D92" t="n">
-        <v>108.2</v>
+        <v>113.14</v>
       </c>
       <c r="E92" t="n">
-        <v>99.98999999999999</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="93">
@@ -2033,13 +2033,13 @@
         <v>45383</v>
       </c>
       <c r="B93" t="n">
-        <v>116.9</v>
+        <v>115.47</v>
       </c>
       <c r="C93" t="n">
-        <v>113.19</v>
+        <v>115.45</v>
       </c>
       <c r="D93" t="n">
-        <v>108.02</v>
+        <v>113.24</v>
       </c>
       <c r="E93" t="n">
         <v>100.02</v>
@@ -2050,16 +2050,16 @@
         <v>45384</v>
       </c>
       <c r="B94" t="n">
-        <v>117.09</v>
+        <v>116.07</v>
       </c>
       <c r="C94" t="n">
-        <v>113.43</v>
+        <v>116.06</v>
       </c>
       <c r="D94" t="n">
-        <v>107.61</v>
+        <v>113.46</v>
       </c>
       <c r="E94" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="95">
@@ -2067,16 +2067,16 @@
         <v>45385</v>
       </c>
       <c r="B95" t="n">
-        <v>117.73</v>
+        <v>116.31</v>
       </c>
       <c r="C95" t="n">
-        <v>114.82</v>
+        <v>116.32</v>
       </c>
       <c r="D95" t="n">
-        <v>108.32</v>
+        <v>113.29</v>
       </c>
       <c r="E95" t="n">
-        <v>100.22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2084,16 +2084,16 @@
         <v>45386</v>
       </c>
       <c r="B96" t="n">
-        <v>117.19</v>
+        <v>117.1</v>
       </c>
       <c r="C96" t="n">
-        <v>115.73</v>
+        <v>117.07</v>
       </c>
       <c r="D96" t="n">
-        <v>108.52</v>
+        <v>114.46</v>
       </c>
       <c r="E96" t="n">
-        <v>100.22</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="97">
@@ -2101,16 +2101,16 @@
         <v>45387</v>
       </c>
       <c r="B97" t="n">
-        <v>116.61</v>
+        <v>119.28</v>
       </c>
       <c r="C97" t="n">
-        <v>115.17</v>
+        <v>119.27</v>
       </c>
       <c r="D97" t="n">
-        <v>108.22</v>
+        <v>113.21</v>
       </c>
       <c r="E97" t="n">
-        <v>99.79000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -2118,16 +2118,16 @@
         <v>45388</v>
       </c>
       <c r="B98" t="n">
-        <v>116.29</v>
+        <v>120.02</v>
       </c>
       <c r="C98" t="n">
-        <v>114.67</v>
+        <v>120</v>
       </c>
       <c r="D98" t="n">
-        <v>108.4</v>
+        <v>113.49</v>
       </c>
       <c r="E98" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="99">
@@ -2135,16 +2135,16 @@
         <v>45389</v>
       </c>
       <c r="B99" t="n">
-        <v>118.21</v>
+        <v>120</v>
       </c>
       <c r="C99" t="n">
-        <v>115.65</v>
+        <v>119.98</v>
       </c>
       <c r="D99" t="n">
-        <v>108.11</v>
+        <v>113.25</v>
       </c>
       <c r="E99" t="n">
-        <v>99.91</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="100">
@@ -2152,16 +2152,16 @@
         <v>45390</v>
       </c>
       <c r="B100" t="n">
-        <v>118.85</v>
+        <v>120.99</v>
       </c>
       <c r="C100" t="n">
-        <v>114.67</v>
+        <v>120.98</v>
       </c>
       <c r="D100" t="n">
-        <v>109.39</v>
+        <v>113.58</v>
       </c>
       <c r="E100" t="n">
-        <v>100.12</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="101">
@@ -2169,16 +2169,16 @@
         <v>45391</v>
       </c>
       <c r="B101" t="n">
-        <v>118.58</v>
+        <v>122.05</v>
       </c>
       <c r="C101" t="n">
-        <v>113.35</v>
+        <v>122.07</v>
       </c>
       <c r="D101" t="n">
-        <v>110.36</v>
+        <v>113.88</v>
       </c>
       <c r="E101" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="102">
@@ -2186,16 +2186,16 @@
         <v>45392</v>
       </c>
       <c r="B102" t="n">
-        <v>119.94</v>
+        <v>122.84</v>
       </c>
       <c r="C102" t="n">
-        <v>112.16</v>
+        <v>122.83</v>
       </c>
       <c r="D102" t="n">
-        <v>110.06</v>
+        <v>113.41</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="103">
@@ -2203,16 +2203,16 @@
         <v>45393</v>
       </c>
       <c r="B103" t="n">
-        <v>120.16</v>
+        <v>123.76</v>
       </c>
       <c r="C103" t="n">
-        <v>111.94</v>
+        <v>123.76</v>
       </c>
       <c r="D103" t="n">
-        <v>110.56</v>
+        <v>113.91</v>
       </c>
       <c r="E103" t="n">
-        <v>99.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2220,16 +2220,16 @@
         <v>45394</v>
       </c>
       <c r="B104" t="n">
-        <v>120.21</v>
+        <v>124.06</v>
       </c>
       <c r="C104" t="n">
-        <v>112.19</v>
+        <v>124.05</v>
       </c>
       <c r="D104" t="n">
-        <v>110.98</v>
+        <v>114.88</v>
       </c>
       <c r="E104" t="n">
-        <v>100.07</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="105">
@@ -2237,16 +2237,16 @@
         <v>45395</v>
       </c>
       <c r="B105" t="n">
-        <v>119.3</v>
+        <v>124.79</v>
       </c>
       <c r="C105" t="n">
-        <v>111.06</v>
+        <v>124.79</v>
       </c>
       <c r="D105" t="n">
-        <v>111.92</v>
+        <v>114.83</v>
       </c>
       <c r="E105" t="n">
-        <v>100.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2254,16 +2254,16 @@
         <v>45396</v>
       </c>
       <c r="B106" t="n">
-        <v>118.77</v>
+        <v>126.08</v>
       </c>
       <c r="C106" t="n">
-        <v>112.51</v>
+        <v>126.1</v>
       </c>
       <c r="D106" t="n">
-        <v>112.09</v>
+        <v>115.49</v>
       </c>
       <c r="E106" t="n">
-        <v>100.12</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="107">
@@ -2271,16 +2271,16 @@
         <v>45397</v>
       </c>
       <c r="B107" t="n">
-        <v>119.01</v>
+        <v>127.58</v>
       </c>
       <c r="C107" t="n">
-        <v>114.4</v>
+        <v>127.6</v>
       </c>
       <c r="D107" t="n">
-        <v>113.36</v>
+        <v>115.6</v>
       </c>
       <c r="E107" t="n">
-        <v>99.98</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2288,16 +2288,16 @@
         <v>45398</v>
       </c>
       <c r="B108" t="n">
-        <v>120.11</v>
+        <v>127.46</v>
       </c>
       <c r="C108" t="n">
-        <v>115.12</v>
+        <v>127.45</v>
       </c>
       <c r="D108" t="n">
-        <v>114.38</v>
+        <v>115.91</v>
       </c>
       <c r="E108" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
@@ -2305,16 +2305,16 @@
         <v>45399</v>
       </c>
       <c r="B109" t="n">
-        <v>120.95</v>
+        <v>127.75</v>
       </c>
       <c r="C109" t="n">
-        <v>116.19</v>
+        <v>127.73</v>
       </c>
       <c r="D109" t="n">
-        <v>113.27</v>
+        <v>116.42</v>
       </c>
       <c r="E109" t="n">
-        <v>99.88</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="110">
@@ -2322,16 +2322,16 @@
         <v>45400</v>
       </c>
       <c r="B110" t="n">
-        <v>119.16</v>
+        <v>130.08</v>
       </c>
       <c r="C110" t="n">
-        <v>116.12</v>
+        <v>130.05</v>
       </c>
       <c r="D110" t="n">
-        <v>113.85</v>
+        <v>115.81</v>
       </c>
       <c r="E110" t="n">
-        <v>100.15</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="111">
@@ -2339,16 +2339,16 @@
         <v>45401</v>
       </c>
       <c r="B111" t="n">
-        <v>119.41</v>
+        <v>131.48</v>
       </c>
       <c r="C111" t="n">
-        <v>117.7</v>
+        <v>131.49</v>
       </c>
       <c r="D111" t="n">
-        <v>112.99</v>
+        <v>116.45</v>
       </c>
       <c r="E111" t="n">
-        <v>99.83</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -2356,16 +2356,16 @@
         <v>45402</v>
       </c>
       <c r="B112" t="n">
-        <v>119.54</v>
+        <v>132.34</v>
       </c>
       <c r="C112" t="n">
-        <v>118.21</v>
+        <v>132.31</v>
       </c>
       <c r="D112" t="n">
-        <v>113.06</v>
+        <v>116.54</v>
       </c>
       <c r="E112" t="n">
-        <v>99.79000000000001</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="113">
@@ -2373,16 +2373,16 @@
         <v>45403</v>
       </c>
       <c r="B113" t="n">
-        <v>119.63</v>
+        <v>132.61</v>
       </c>
       <c r="C113" t="n">
-        <v>117.21</v>
+        <v>132.64</v>
       </c>
       <c r="D113" t="n">
-        <v>113.61</v>
+        <v>116.16</v>
       </c>
       <c r="E113" t="n">
-        <v>100.04</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="114">
@@ -2390,16 +2390,16 @@
         <v>45404</v>
       </c>
       <c r="B114" t="n">
-        <v>118.91</v>
+        <v>132.66</v>
       </c>
       <c r="C114" t="n">
-        <v>116.93</v>
+        <v>132.65</v>
       </c>
       <c r="D114" t="n">
-        <v>112.98</v>
+        <v>115.68</v>
       </c>
       <c r="E114" t="n">
-        <v>99.98999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="115">
@@ -2407,16 +2407,16 @@
         <v>45405</v>
       </c>
       <c r="B115" t="n">
-        <v>120</v>
+        <v>133.29</v>
       </c>
       <c r="C115" t="n">
-        <v>116.23</v>
+        <v>133.27</v>
       </c>
       <c r="D115" t="n">
-        <v>113.41</v>
+        <v>115.38</v>
       </c>
       <c r="E115" t="n">
-        <v>99.95</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="116">
@@ -2424,16 +2424,16 @@
         <v>45406</v>
       </c>
       <c r="B116" t="n">
-        <v>119.42</v>
+        <v>133.75</v>
       </c>
       <c r="C116" t="n">
-        <v>116.3</v>
+        <v>133.74</v>
       </c>
       <c r="D116" t="n">
-        <v>112.79</v>
+        <v>115.64</v>
       </c>
       <c r="E116" t="n">
-        <v>99.94</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="117">
@@ -2441,16 +2441,16 @@
         <v>45407</v>
       </c>
       <c r="B117" t="n">
-        <v>118.45</v>
+        <v>133.45</v>
       </c>
       <c r="C117" t="n">
-        <v>118.17</v>
+        <v>133.41</v>
       </c>
       <c r="D117" t="n">
-        <v>112.91</v>
+        <v>115.89</v>
       </c>
       <c r="E117" t="n">
-        <v>99.93000000000001</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="118">
@@ -2458,16 +2458,16 @@
         <v>45408</v>
       </c>
       <c r="B118" t="n">
-        <v>118.83</v>
+        <v>132.15</v>
       </c>
       <c r="C118" t="n">
-        <v>118.24</v>
+        <v>132.14</v>
       </c>
       <c r="D118" t="n">
-        <v>112.85</v>
+        <v>115.49</v>
       </c>
       <c r="E118" t="n">
-        <v>100.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
@@ -2475,16 +2475,16 @@
         <v>45409</v>
       </c>
       <c r="B119" t="n">
-        <v>119.73</v>
+        <v>132.68</v>
       </c>
       <c r="C119" t="n">
-        <v>117.93</v>
+        <v>132.7</v>
       </c>
       <c r="D119" t="n">
-        <v>112.55</v>
+        <v>116.6</v>
       </c>
       <c r="E119" t="n">
-        <v>99.97</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="120">
@@ -2492,16 +2492,16 @@
         <v>45410</v>
       </c>
       <c r="B120" t="n">
-        <v>117.71</v>
+        <v>132.7</v>
       </c>
       <c r="C120" t="n">
-        <v>116.76</v>
+        <v>132.68</v>
       </c>
       <c r="D120" t="n">
-        <v>113.56</v>
+        <v>116.68</v>
       </c>
       <c r="E120" t="n">
-        <v>100.16</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="121">
@@ -2509,16 +2509,16 @@
         <v>45411</v>
       </c>
       <c r="B121" t="n">
-        <v>117.65</v>
+        <v>132.88</v>
       </c>
       <c r="C121" t="n">
-        <v>117.43</v>
+        <v>132.89</v>
       </c>
       <c r="D121" t="n">
-        <v>113.87</v>
+        <v>116.57</v>
       </c>
       <c r="E121" t="n">
-        <v>100.31</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2526,16 +2526,16 @@
         <v>45412</v>
       </c>
       <c r="B122" t="n">
-        <v>118.88</v>
+        <v>132.2</v>
       </c>
       <c r="C122" t="n">
-        <v>117.48</v>
+        <v>132.24</v>
       </c>
       <c r="D122" t="n">
-        <v>113.3</v>
+        <v>117.03</v>
       </c>
       <c r="E122" t="n">
-        <v>99.84</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="123">
@@ -2543,16 +2543,16 @@
         <v>45413</v>
       </c>
       <c r="B123" t="n">
-        <v>119.25</v>
+        <v>132.29</v>
       </c>
       <c r="C123" t="n">
-        <v>116.98</v>
+        <v>132.31</v>
       </c>
       <c r="D123" t="n">
-        <v>112.43</v>
+        <v>117.4</v>
       </c>
       <c r="E123" t="n">
-        <v>99.94</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -2560,13 +2560,13 @@
         <v>45414</v>
       </c>
       <c r="B124" t="n">
-        <v>118.4</v>
+        <v>132.06</v>
       </c>
       <c r="C124" t="n">
-        <v>118.62</v>
+        <v>132.06</v>
       </c>
       <c r="D124" t="n">
-        <v>113.11</v>
+        <v>117.66</v>
       </c>
       <c r="E124" t="n">
         <v>100</v>
@@ -2577,16 +2577,16 @@
         <v>45415</v>
       </c>
       <c r="B125" t="n">
-        <v>119.98</v>
+        <v>132.36</v>
       </c>
       <c r="C125" t="n">
-        <v>118.86</v>
+        <v>132.36</v>
       </c>
       <c r="D125" t="n">
-        <v>112.62</v>
+        <v>117.2</v>
       </c>
       <c r="E125" t="n">
-        <v>100.15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
@@ -2594,16 +2594,16 @@
         <v>45416</v>
       </c>
       <c r="B126" t="n">
-        <v>120.67</v>
+        <v>133.09</v>
       </c>
       <c r="C126" t="n">
-        <v>118.1</v>
+        <v>133.11</v>
       </c>
       <c r="D126" t="n">
-        <v>112.58</v>
+        <v>118.32</v>
       </c>
       <c r="E126" t="n">
-        <v>99.91</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="127">
@@ -2611,16 +2611,16 @@
         <v>45417</v>
       </c>
       <c r="B127" t="n">
-        <v>119.52</v>
+        <v>135.58</v>
       </c>
       <c r="C127" t="n">
-        <v>119.08</v>
+        <v>135.6</v>
       </c>
       <c r="D127" t="n">
-        <v>113.96</v>
+        <v>117.87</v>
       </c>
       <c r="E127" t="n">
-        <v>99.86</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="128">
@@ -2628,16 +2628,16 @@
         <v>45418</v>
       </c>
       <c r="B128" t="n">
-        <v>120.24</v>
+        <v>135.98</v>
       </c>
       <c r="C128" t="n">
-        <v>118.67</v>
+        <v>135.96</v>
       </c>
       <c r="D128" t="n">
-        <v>113.72</v>
+        <v>119.51</v>
       </c>
       <c r="E128" t="n">
-        <v>99.94</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="129">
@@ -2645,16 +2645,16 @@
         <v>45419</v>
       </c>
       <c r="B129" t="n">
-        <v>119.59</v>
+        <v>135.27</v>
       </c>
       <c r="C129" t="n">
-        <v>118.88</v>
+        <v>135.22</v>
       </c>
       <c r="D129" t="n">
-        <v>113.24</v>
+        <v>119.18</v>
       </c>
       <c r="E129" t="n">
-        <v>100.03</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="130">
@@ -2662,16 +2662,16 @@
         <v>45420</v>
       </c>
       <c r="B130" t="n">
-        <v>119.72</v>
+        <v>134.91</v>
       </c>
       <c r="C130" t="n">
-        <v>118.83</v>
+        <v>134.91</v>
       </c>
       <c r="D130" t="n">
-        <v>112.72</v>
+        <v>118.73</v>
       </c>
       <c r="E130" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
@@ -2679,16 +2679,16 @@
         <v>45421</v>
       </c>
       <c r="B131" t="n">
-        <v>120.62</v>
+        <v>135.48</v>
       </c>
       <c r="C131" t="n">
-        <v>119.44</v>
+        <v>135.5</v>
       </c>
       <c r="D131" t="n">
-        <v>112.15</v>
+        <v>120.16</v>
       </c>
       <c r="E131" t="n">
-        <v>100.01</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="132">
@@ -2696,16 +2696,16 @@
         <v>45422</v>
       </c>
       <c r="B132" t="n">
-        <v>121.53</v>
+        <v>135.06</v>
       </c>
       <c r="C132" t="n">
-        <v>118.12</v>
+        <v>135.07</v>
       </c>
       <c r="D132" t="n">
-        <v>112.6</v>
+        <v>119.61</v>
       </c>
       <c r="E132" t="n">
-        <v>99.93000000000001</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -2713,16 +2713,16 @@
         <v>45423</v>
       </c>
       <c r="B133" t="n">
-        <v>122.26</v>
+        <v>133.83</v>
       </c>
       <c r="C133" t="n">
-        <v>117.6</v>
+        <v>133.86</v>
       </c>
       <c r="D133" t="n">
-        <v>111.47</v>
+        <v>121.02</v>
       </c>
       <c r="E133" t="n">
-        <v>99.84</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="134">
@@ -2730,16 +2730,16 @@
         <v>45424</v>
       </c>
       <c r="B134" t="n">
-        <v>122.49</v>
+        <v>133.53</v>
       </c>
       <c r="C134" t="n">
-        <v>118</v>
+        <v>133.57</v>
       </c>
       <c r="D134" t="n">
-        <v>110.96</v>
+        <v>119.87</v>
       </c>
       <c r="E134" t="n">
-        <v>100.06</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="135">
@@ -2747,16 +2747,16 @@
         <v>45425</v>
       </c>
       <c r="B135" t="n">
-        <v>121.05</v>
+        <v>133.61</v>
       </c>
       <c r="C135" t="n">
-        <v>118.11</v>
+        <v>133.57</v>
       </c>
       <c r="D135" t="n">
-        <v>110.24</v>
+        <v>120.86</v>
       </c>
       <c r="E135" t="n">
-        <v>99.93000000000001</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="136">
@@ -2764,16 +2764,16 @@
         <v>45426</v>
       </c>
       <c r="B136" t="n">
-        <v>121.28</v>
+        <v>133.17</v>
       </c>
       <c r="C136" t="n">
-        <v>117.51</v>
+        <v>133.17</v>
       </c>
       <c r="D136" t="n">
-        <v>110.07</v>
+        <v>120.96</v>
       </c>
       <c r="E136" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
@@ -2781,16 +2781,16 @@
         <v>45427</v>
       </c>
       <c r="B137" t="n">
-        <v>120.9</v>
+        <v>132.89</v>
       </c>
       <c r="C137" t="n">
-        <v>118.41</v>
+        <v>132.86</v>
       </c>
       <c r="D137" t="n">
-        <v>109.41</v>
+        <v>121.51</v>
       </c>
       <c r="E137" t="n">
-        <v>100.05</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="138">
@@ -2798,16 +2798,16 @@
         <v>45428</v>
       </c>
       <c r="B138" t="n">
-        <v>122.48</v>
+        <v>132.94</v>
       </c>
       <c r="C138" t="n">
-        <v>116.38</v>
+        <v>132.95</v>
       </c>
       <c r="D138" t="n">
-        <v>108.98</v>
+        <v>121.69</v>
       </c>
       <c r="E138" t="n">
-        <v>100.06</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -2815,16 +2815,16 @@
         <v>45429</v>
       </c>
       <c r="B139" t="n">
-        <v>122.46</v>
+        <v>133.89</v>
       </c>
       <c r="C139" t="n">
-        <v>116.87</v>
+        <v>133.85</v>
       </c>
       <c r="D139" t="n">
-        <v>108.67</v>
+        <v>120.97</v>
       </c>
       <c r="E139" t="n">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="140">
@@ -2832,16 +2832,16 @@
         <v>45430</v>
       </c>
       <c r="B140" t="n">
-        <v>122.49</v>
+        <v>135.46</v>
       </c>
       <c r="C140" t="n">
-        <v>118.05</v>
+        <v>135.44</v>
       </c>
       <c r="D140" t="n">
-        <v>108.92</v>
+        <v>121.31</v>
       </c>
       <c r="E140" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="141">
@@ -2849,16 +2849,16 @@
         <v>45431</v>
       </c>
       <c r="B141" t="n">
-        <v>122.27</v>
+        <v>137.35</v>
       </c>
       <c r="C141" t="n">
-        <v>117.79</v>
+        <v>137.38</v>
       </c>
       <c r="D141" t="n">
-        <v>108.73</v>
+        <v>121.49</v>
       </c>
       <c r="E141" t="n">
-        <v>100.04</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="142">
@@ -2866,16 +2866,16 @@
         <v>45432</v>
       </c>
       <c r="B142" t="n">
-        <v>122.04</v>
+        <v>137.63</v>
       </c>
       <c r="C142" t="n">
-        <v>118.21</v>
+        <v>137.68</v>
       </c>
       <c r="D142" t="n">
-        <v>110.17</v>
+        <v>123.09</v>
       </c>
       <c r="E142" t="n">
-        <v>100.09</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -2883,16 +2883,16 @@
         <v>45433</v>
       </c>
       <c r="B143" t="n">
-        <v>121.91</v>
+        <v>137.56</v>
       </c>
       <c r="C143" t="n">
-        <v>119.44</v>
+        <v>137.58</v>
       </c>
       <c r="D143" t="n">
-        <v>109.99</v>
+        <v>123.9</v>
       </c>
       <c r="E143" t="n">
-        <v>99.8</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -2900,16 +2900,16 @@
         <v>45434</v>
       </c>
       <c r="B144" t="n">
-        <v>121.11</v>
+        <v>139.27</v>
       </c>
       <c r="C144" t="n">
-        <v>117.93</v>
+        <v>139.29</v>
       </c>
       <c r="D144" t="n">
-        <v>109.84</v>
+        <v>123.28</v>
       </c>
       <c r="E144" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -2917,16 +2917,16 @@
         <v>45435</v>
       </c>
       <c r="B145" t="n">
-        <v>122.91</v>
+        <v>140.66</v>
       </c>
       <c r="C145" t="n">
-        <v>118.38</v>
+        <v>140.63</v>
       </c>
       <c r="D145" t="n">
-        <v>109.79</v>
+        <v>122.08</v>
       </c>
       <c r="E145" t="n">
-        <v>100.08</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="146">
@@ -2934,16 +2934,16 @@
         <v>45436</v>
       </c>
       <c r="B146" t="n">
-        <v>120.92</v>
+        <v>138.58</v>
       </c>
       <c r="C146" t="n">
-        <v>118.76</v>
+        <v>138.6</v>
       </c>
       <c r="D146" t="n">
-        <v>110.38</v>
+        <v>121.98</v>
       </c>
       <c r="E146" t="n">
-        <v>99.84999999999999</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -2951,16 +2951,16 @@
         <v>45437</v>
       </c>
       <c r="B147" t="n">
-        <v>122.21</v>
+        <v>140.45</v>
       </c>
       <c r="C147" t="n">
-        <v>119.23</v>
+        <v>140.5</v>
       </c>
       <c r="D147" t="n">
-        <v>110.2</v>
+        <v>122.13</v>
       </c>
       <c r="E147" t="n">
-        <v>100.06</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="148">
@@ -2968,16 +2968,16 @@
         <v>45438</v>
       </c>
       <c r="B148" t="n">
-        <v>124.61</v>
+        <v>139.11</v>
       </c>
       <c r="C148" t="n">
-        <v>119.56</v>
+        <v>139.11</v>
       </c>
       <c r="D148" t="n">
-        <v>110.45</v>
+        <v>120.98</v>
       </c>
       <c r="E148" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
@@ -2985,16 +2985,16 @@
         <v>45439</v>
       </c>
       <c r="B149" t="n">
-        <v>123.95</v>
+        <v>139.75</v>
       </c>
       <c r="C149" t="n">
-        <v>120.47</v>
+        <v>139.69</v>
       </c>
       <c r="D149" t="n">
-        <v>109.97</v>
+        <v>121.06</v>
       </c>
       <c r="E149" t="n">
-        <v>100.01</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="150">
@@ -3002,16 +3002,16 @@
         <v>45440</v>
       </c>
       <c r="B150" t="n">
-        <v>123.67</v>
+        <v>139.86</v>
       </c>
       <c r="C150" t="n">
-        <v>121.07</v>
+        <v>139.87</v>
       </c>
       <c r="D150" t="n">
-        <v>110.28</v>
+        <v>120.21</v>
       </c>
       <c r="E150" t="n">
-        <v>100.1</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -3019,16 +3019,16 @@
         <v>45441</v>
       </c>
       <c r="B151" t="n">
-        <v>123.35</v>
+        <v>140.48</v>
       </c>
       <c r="C151" t="n">
-        <v>120.99</v>
+        <v>140.46</v>
       </c>
       <c r="D151" t="n">
-        <v>109.72</v>
+        <v>119.62</v>
       </c>
       <c r="E151" t="n">
-        <v>99.95999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="152">
@@ -3036,16 +3036,16 @@
         <v>45442</v>
       </c>
       <c r="B152" t="n">
-        <v>123.9</v>
+        <v>139.5</v>
       </c>
       <c r="C152" t="n">
-        <v>121.85</v>
+        <v>139.52</v>
       </c>
       <c r="D152" t="n">
-        <v>109.2</v>
+        <v>119.68</v>
       </c>
       <c r="E152" t="n">
-        <v>100.09</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="153">
@@ -3053,16 +3053,16 @@
         <v>45443</v>
       </c>
       <c r="B153" t="n">
-        <v>125.43</v>
+        <v>138.61</v>
       </c>
       <c r="C153" t="n">
-        <v>122.4</v>
+        <v>138.59</v>
       </c>
       <c r="D153" t="n">
-        <v>110.52</v>
+        <v>120.13</v>
       </c>
       <c r="E153" t="n">
-        <v>99.92</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="154">
@@ -3070,16 +3070,16 @@
         <v>45444</v>
       </c>
       <c r="B154" t="n">
-        <v>124.37</v>
+        <v>137.93</v>
       </c>
       <c r="C154" t="n">
-        <v>120.94</v>
+        <v>137.91</v>
       </c>
       <c r="D154" t="n">
-        <v>111.6</v>
+        <v>120.15</v>
       </c>
       <c r="E154" t="n">
-        <v>100.07</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="155">
@@ -3087,16 +3087,16 @@
         <v>45445</v>
       </c>
       <c r="B155" t="n">
-        <v>124.5</v>
+        <v>137.53</v>
       </c>
       <c r="C155" t="n">
-        <v>121.36</v>
+        <v>137.58</v>
       </c>
       <c r="D155" t="n">
-        <v>110.93</v>
+        <v>119.38</v>
       </c>
       <c r="E155" t="n">
-        <v>100.24</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -3104,16 +3104,16 @@
         <v>45446</v>
       </c>
       <c r="B156" t="n">
-        <v>124.82</v>
+        <v>137.77</v>
       </c>
       <c r="C156" t="n">
-        <v>121.63</v>
+        <v>137.78</v>
       </c>
       <c r="D156" t="n">
-        <v>111.5</v>
+        <v>118.98</v>
       </c>
       <c r="E156" t="n">
-        <v>100.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
@@ -3121,16 +3121,16 @@
         <v>45447</v>
       </c>
       <c r="B157" t="n">
-        <v>125.23</v>
+        <v>137.86</v>
       </c>
       <c r="C157" t="n">
-        <v>121.08</v>
+        <v>137.87</v>
       </c>
       <c r="D157" t="n">
-        <v>111.91</v>
+        <v>118.92</v>
       </c>
       <c r="E157" t="n">
-        <v>100.19</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="158">
@@ -3138,16 +3138,16 @@
         <v>45448</v>
       </c>
       <c r="B158" t="n">
-        <v>126.77</v>
+        <v>138.9</v>
       </c>
       <c r="C158" t="n">
-        <v>122.7</v>
+        <v>138.88</v>
       </c>
       <c r="D158" t="n">
-        <v>111.65</v>
+        <v>118.63</v>
       </c>
       <c r="E158" t="n">
-        <v>99.90000000000001</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="159">
@@ -3155,16 +3155,16 @@
         <v>45449</v>
       </c>
       <c r="B159" t="n">
-        <v>126.83</v>
+        <v>138.8</v>
       </c>
       <c r="C159" t="n">
-        <v>122.92</v>
+        <v>138.76</v>
       </c>
       <c r="D159" t="n">
-        <v>112.48</v>
+        <v>117.09</v>
       </c>
       <c r="E159" t="n">
-        <v>99.83</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="160">
@@ -3172,16 +3172,16 @@
         <v>45450</v>
       </c>
       <c r="B160" t="n">
-        <v>128.57</v>
+        <v>140.53</v>
       </c>
       <c r="C160" t="n">
-        <v>122.95</v>
+        <v>140.52</v>
       </c>
       <c r="D160" t="n">
-        <v>112.28</v>
+        <v>118.34</v>
       </c>
       <c r="E160" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
@@ -3189,16 +3189,16 @@
         <v>45451</v>
       </c>
       <c r="B161" t="n">
-        <v>127.06</v>
+        <v>141.39</v>
       </c>
       <c r="C161" t="n">
-        <v>123.88</v>
+        <v>141.47</v>
       </c>
       <c r="D161" t="n">
-        <v>112.42</v>
+        <v>118.65</v>
       </c>
       <c r="E161" t="n">
-        <v>99.87</v>
+        <v>99.94</v>
       </c>
     </row>
     <row r="162">
@@ -3206,16 +3206,16 @@
         <v>45452</v>
       </c>
       <c r="B162" t="n">
-        <v>125.94</v>
+        <v>142.87</v>
       </c>
       <c r="C162" t="n">
-        <v>123.74</v>
+        <v>142.84</v>
       </c>
       <c r="D162" t="n">
-        <v>113.63</v>
+        <v>118.66</v>
       </c>
       <c r="E162" t="n">
-        <v>99.97</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="163">
@@ -3223,16 +3223,16 @@
         <v>45453</v>
       </c>
       <c r="B163" t="n">
-        <v>124.61</v>
+        <v>141.24</v>
       </c>
       <c r="C163" t="n">
-        <v>123.68</v>
+        <v>141.22</v>
       </c>
       <c r="D163" t="n">
-        <v>113.54</v>
+        <v>118.9</v>
       </c>
       <c r="E163" t="n">
-        <v>99.73</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="164">
@@ -3240,16 +3240,16 @@
         <v>45454</v>
       </c>
       <c r="B164" t="n">
-        <v>124.74</v>
+        <v>139.85</v>
       </c>
       <c r="C164" t="n">
-        <v>123.64</v>
+        <v>139.82</v>
       </c>
       <c r="D164" t="n">
-        <v>114.1</v>
+        <v>118.53</v>
       </c>
       <c r="E164" t="n">
-        <v>100.18</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="165">
@@ -3257,16 +3257,16 @@
         <v>45455</v>
       </c>
       <c r="B165" t="n">
-        <v>126.06</v>
+        <v>141.95</v>
       </c>
       <c r="C165" t="n">
-        <v>123.57</v>
+        <v>141.95</v>
       </c>
       <c r="D165" t="n">
-        <v>113.44</v>
+        <v>119.25</v>
       </c>
       <c r="E165" t="n">
-        <v>100.26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
@@ -3274,13 +3274,13 @@
         <v>45456</v>
       </c>
       <c r="B166" t="n">
-        <v>126.3</v>
+        <v>143.84</v>
       </c>
       <c r="C166" t="n">
-        <v>123.75</v>
+        <v>143.82</v>
       </c>
       <c r="D166" t="n">
-        <v>113.51</v>
+        <v>119.4</v>
       </c>
       <c r="E166" t="n">
         <v>100.02</v>
@@ -3291,16 +3291,16 @@
         <v>45457</v>
       </c>
       <c r="B167" t="n">
-        <v>126.35</v>
+        <v>145.81</v>
       </c>
       <c r="C167" t="n">
-        <v>123.39</v>
+        <v>145.78</v>
       </c>
       <c r="D167" t="n">
-        <v>113.23</v>
+        <v>119.89</v>
       </c>
       <c r="E167" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="168">
@@ -3308,16 +3308,16 @@
         <v>45458</v>
       </c>
       <c r="B168" t="n">
-        <v>125.99</v>
+        <v>145.81</v>
       </c>
       <c r="C168" t="n">
-        <v>122.91</v>
+        <v>145.76</v>
       </c>
       <c r="D168" t="n">
-        <v>113.39</v>
+        <v>119.35</v>
       </c>
       <c r="E168" t="n">
-        <v>99.97</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="169">
@@ -3325,16 +3325,16 @@
         <v>45459</v>
       </c>
       <c r="B169" t="n">
-        <v>127.69</v>
+        <v>147.1</v>
       </c>
       <c r="C169" t="n">
-        <v>120.63</v>
+        <v>147.06</v>
       </c>
       <c r="D169" t="n">
-        <v>114.23</v>
+        <v>120.82</v>
       </c>
       <c r="E169" t="n">
-        <v>100.12</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="170">
@@ -3342,16 +3342,16 @@
         <v>45460</v>
       </c>
       <c r="B170" t="n">
-        <v>125.77</v>
+        <v>147.99</v>
       </c>
       <c r="C170" t="n">
-        <v>120.49</v>
+        <v>147.97</v>
       </c>
       <c r="D170" t="n">
-        <v>114.06</v>
+        <v>120.44</v>
       </c>
       <c r="E170" t="n">
-        <v>99.86</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="171">
@@ -3359,16 +3359,16 @@
         <v>45461</v>
       </c>
       <c r="B171" t="n">
-        <v>125.17</v>
+        <v>147.51</v>
       </c>
       <c r="C171" t="n">
-        <v>119.66</v>
+        <v>147.51</v>
       </c>
       <c r="D171" t="n">
-        <v>115.35</v>
+        <v>119.91</v>
       </c>
       <c r="E171" t="n">
-        <v>100.09</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172">
@@ -3376,16 +3376,16 @@
         <v>45462</v>
       </c>
       <c r="B172" t="n">
-        <v>126.63</v>
+        <v>146.75</v>
       </c>
       <c r="C172" t="n">
-        <v>120.47</v>
+        <v>146.75</v>
       </c>
       <c r="D172" t="n">
-        <v>114.66</v>
+        <v>120.2</v>
       </c>
       <c r="E172" t="n">
-        <v>99.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
@@ -3393,16 +3393,16 @@
         <v>45463</v>
       </c>
       <c r="B173" t="n">
-        <v>127.32</v>
+        <v>146.69</v>
       </c>
       <c r="C173" t="n">
-        <v>119.54</v>
+        <v>146.67</v>
       </c>
       <c r="D173" t="n">
-        <v>115.25</v>
+        <v>119.64</v>
       </c>
       <c r="E173" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="174">
@@ -3410,16 +3410,16 @@
         <v>45464</v>
       </c>
       <c r="B174" t="n">
-        <v>127.13</v>
+        <v>147.79</v>
       </c>
       <c r="C174" t="n">
-        <v>120.34</v>
+        <v>147.77</v>
       </c>
       <c r="D174" t="n">
-        <v>115.65</v>
+        <v>120.1</v>
       </c>
       <c r="E174" t="n">
-        <v>99.95999999999999</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="175">
@@ -3427,16 +3427,16 @@
         <v>45465</v>
       </c>
       <c r="B175" t="n">
-        <v>128.5</v>
+        <v>148.13</v>
       </c>
       <c r="C175" t="n">
-        <v>119.54</v>
+        <v>148.08</v>
       </c>
       <c r="D175" t="n">
-        <v>116.17</v>
+        <v>120.74</v>
       </c>
       <c r="E175" t="n">
-        <v>100.06</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="176">
@@ -3444,16 +3444,16 @@
         <v>45466</v>
       </c>
       <c r="B176" t="n">
-        <v>128.37</v>
+        <v>149</v>
       </c>
       <c r="C176" t="n">
-        <v>120</v>
+        <v>149.02</v>
       </c>
       <c r="D176" t="n">
-        <v>115.39</v>
+        <v>120.35</v>
       </c>
       <c r="E176" t="n">
-        <v>100.09</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -3461,16 +3461,16 @@
         <v>45467</v>
       </c>
       <c r="B177" t="n">
-        <v>128.38</v>
+        <v>148.31</v>
       </c>
       <c r="C177" t="n">
-        <v>119.69</v>
+        <v>148.27</v>
       </c>
       <c r="D177" t="n">
-        <v>116.2</v>
+        <v>119.15</v>
       </c>
       <c r="E177" t="n">
-        <v>99.93000000000001</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="178">
@@ -3478,16 +3478,16 @@
         <v>45468</v>
       </c>
       <c r="B178" t="n">
-        <v>127.12</v>
+        <v>148.59</v>
       </c>
       <c r="C178" t="n">
-        <v>118.46</v>
+        <v>148.57</v>
       </c>
       <c r="D178" t="n">
-        <v>116.72</v>
+        <v>119.43</v>
       </c>
       <c r="E178" t="n">
-        <v>99.87</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="179">
@@ -3495,16 +3495,16 @@
         <v>45469</v>
       </c>
       <c r="B179" t="n">
-        <v>129.1</v>
+        <v>149.58</v>
       </c>
       <c r="C179" t="n">
-        <v>116.78</v>
+        <v>149.57</v>
       </c>
       <c r="D179" t="n">
-        <v>118</v>
+        <v>118.33</v>
       </c>
       <c r="E179" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180">
@@ -3512,13 +3512,13 @@
         <v>45470</v>
       </c>
       <c r="B180" t="n">
-        <v>129.19</v>
+        <v>148.35</v>
       </c>
       <c r="C180" t="n">
-        <v>116.47</v>
+        <v>148.35</v>
       </c>
       <c r="D180" t="n">
-        <v>118.38</v>
+        <v>117.96</v>
       </c>
       <c r="E180" t="n">
         <v>100</v>
@@ -3529,16 +3529,16 @@
         <v>45471</v>
       </c>
       <c r="B181" t="n">
-        <v>130.52</v>
+        <v>147.55</v>
       </c>
       <c r="C181" t="n">
-        <v>116.73</v>
+        <v>147.58</v>
       </c>
       <c r="D181" t="n">
-        <v>118.58</v>
+        <v>117.79</v>
       </c>
       <c r="E181" t="n">
-        <v>99.95999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="182">
@@ -3546,16 +3546,16 @@
         <v>45472</v>
       </c>
       <c r="B182" t="n">
-        <v>130.66</v>
+        <v>147.09</v>
       </c>
       <c r="C182" t="n">
-        <v>117.16</v>
+        <v>147.06</v>
       </c>
       <c r="D182" t="n">
-        <v>117.46</v>
+        <v>118.47</v>
       </c>
       <c r="E182" t="n">
-        <v>99.87</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="183">
@@ -3563,16 +3563,16 @@
         <v>45473</v>
       </c>
       <c r="B183" t="n">
-        <v>131.63</v>
+        <v>147.94</v>
       </c>
       <c r="C183" t="n">
-        <v>117.48</v>
+        <v>147.86</v>
       </c>
       <c r="D183" t="n">
-        <v>117.42</v>
+        <v>119.59</v>
       </c>
       <c r="E183" t="n">
-        <v>100</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="184">
@@ -3580,16 +3580,16 @@
         <v>45474</v>
       </c>
       <c r="B184" t="n">
-        <v>132.2</v>
+        <v>147.22</v>
       </c>
       <c r="C184" t="n">
-        <v>117.16</v>
+        <v>147.21</v>
       </c>
       <c r="D184" t="n">
-        <v>116.97</v>
+        <v>120.1</v>
       </c>
       <c r="E184" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185">
@@ -3597,16 +3597,16 @@
         <v>45475</v>
       </c>
       <c r="B185" t="n">
-        <v>131.36</v>
+        <v>147.87</v>
       </c>
       <c r="C185" t="n">
-        <v>117.69</v>
+        <v>147.88</v>
       </c>
       <c r="D185" t="n">
-        <v>115.87</v>
+        <v>119.76</v>
       </c>
       <c r="E185" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186">
@@ -3614,16 +3614,16 @@
         <v>45476</v>
       </c>
       <c r="B186" t="n">
-        <v>132.05</v>
+        <v>147.91</v>
       </c>
       <c r="C186" t="n">
-        <v>118.08</v>
+        <v>147.92</v>
       </c>
       <c r="D186" t="n">
-        <v>116.64</v>
+        <v>120.7</v>
       </c>
       <c r="E186" t="n">
-        <v>100.17</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="187">
@@ -3631,16 +3631,16 @@
         <v>45477</v>
       </c>
       <c r="B187" t="n">
-        <v>133.32</v>
+        <v>148.53</v>
       </c>
       <c r="C187" t="n">
-        <v>116.61</v>
+        <v>148.52</v>
       </c>
       <c r="D187" t="n">
-        <v>115.84</v>
+        <v>120.49</v>
       </c>
       <c r="E187" t="n">
-        <v>99.94</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="188">
@@ -3648,16 +3648,16 @@
         <v>45478</v>
       </c>
       <c r="B188" t="n">
-        <v>133.55</v>
+        <v>148.24</v>
       </c>
       <c r="C188" t="n">
-        <v>117.23</v>
+        <v>148.23</v>
       </c>
       <c r="D188" t="n">
-        <v>115.43</v>
+        <v>120.88</v>
       </c>
       <c r="E188" t="n">
-        <v>100.02</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="189">
@@ -3665,16 +3665,16 @@
         <v>45479</v>
       </c>
       <c r="B189" t="n">
-        <v>132.95</v>
+        <v>148.81</v>
       </c>
       <c r="C189" t="n">
-        <v>116.85</v>
+        <v>148.83</v>
       </c>
       <c r="D189" t="n">
-        <v>114.55</v>
+        <v>122.48</v>
       </c>
       <c r="E189" t="n">
-        <v>99.91</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="190">
@@ -3682,16 +3682,16 @@
         <v>45480</v>
       </c>
       <c r="B190" t="n">
-        <v>131.71</v>
+        <v>148.64</v>
       </c>
       <c r="C190" t="n">
-        <v>116.16</v>
+        <v>148.63</v>
       </c>
       <c r="D190" t="n">
-        <v>115.36</v>
+        <v>123.46</v>
       </c>
       <c r="E190" t="n">
-        <v>99.91</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="191">
@@ -3699,16 +3699,16 @@
         <v>45481</v>
       </c>
       <c r="B191" t="n">
-        <v>134.68</v>
+        <v>146.44</v>
       </c>
       <c r="C191" t="n">
-        <v>116.76</v>
+        <v>146.39</v>
       </c>
       <c r="D191" t="n">
-        <v>115.58</v>
+        <v>122.81</v>
       </c>
       <c r="E191" t="n">
-        <v>99.91</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="192">
@@ -3716,16 +3716,16 @@
         <v>45482</v>
       </c>
       <c r="B192" t="n">
-        <v>135.63</v>
+        <v>146.25</v>
       </c>
       <c r="C192" t="n">
-        <v>116.42</v>
+        <v>146.3</v>
       </c>
       <c r="D192" t="n">
-        <v>115.76</v>
+        <v>122.92</v>
       </c>
       <c r="E192" t="n">
-        <v>100.26</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="193">
@@ -3733,16 +3733,16 @@
         <v>45483</v>
       </c>
       <c r="B193" t="n">
-        <v>135.73</v>
+        <v>146.85</v>
       </c>
       <c r="C193" t="n">
-        <v>117.58</v>
+        <v>146.88</v>
       </c>
       <c r="D193" t="n">
-        <v>115.36</v>
+        <v>122.86</v>
       </c>
       <c r="E193" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="194">
@@ -3750,16 +3750,16 @@
         <v>45484</v>
       </c>
       <c r="B194" t="n">
-        <v>137.86</v>
+        <v>144.47</v>
       </c>
       <c r="C194" t="n">
-        <v>117.19</v>
+        <v>144.5</v>
       </c>
       <c r="D194" t="n">
-        <v>116.71</v>
+        <v>123.13</v>
       </c>
       <c r="E194" t="n">
-        <v>100.07</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="195">
@@ -3767,16 +3767,16 @@
         <v>45485</v>
       </c>
       <c r="B195" t="n">
-        <v>137.45</v>
+        <v>142.98</v>
       </c>
       <c r="C195" t="n">
-        <v>117.91</v>
+        <v>142.99</v>
       </c>
       <c r="D195" t="n">
-        <v>117.49</v>
+        <v>124.07</v>
       </c>
       <c r="E195" t="n">
-        <v>100.06</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -3784,16 +3784,16 @@
         <v>45486</v>
       </c>
       <c r="B196" t="n">
-        <v>135.93</v>
+        <v>142.72</v>
       </c>
       <c r="C196" t="n">
-        <v>117.44</v>
+        <v>142.79</v>
       </c>
       <c r="D196" t="n">
-        <v>117.41</v>
+        <v>124.65</v>
       </c>
       <c r="E196" t="n">
-        <v>99.98999999999999</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="197">
@@ -3801,16 +3801,16 @@
         <v>45487</v>
       </c>
       <c r="B197" t="n">
-        <v>136.81</v>
+        <v>143.14</v>
       </c>
       <c r="C197" t="n">
-        <v>117.76</v>
+        <v>143.13</v>
       </c>
       <c r="D197" t="n">
-        <v>116.56</v>
+        <v>124.93</v>
       </c>
       <c r="E197" t="n">
-        <v>100.04</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="198">
@@ -3818,16 +3818,16 @@
         <v>45488</v>
       </c>
       <c r="B198" t="n">
-        <v>137.68</v>
+        <v>142.38</v>
       </c>
       <c r="C198" t="n">
-        <v>118.42</v>
+        <v>142.36</v>
       </c>
       <c r="D198" t="n">
-        <v>117.41</v>
+        <v>125.65</v>
       </c>
       <c r="E198" t="n">
-        <v>100.08</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="199">
@@ -3835,16 +3835,16 @@
         <v>45489</v>
       </c>
       <c r="B199" t="n">
-        <v>138.39</v>
+        <v>142.68</v>
       </c>
       <c r="C199" t="n">
-        <v>118.52</v>
+        <v>142.69</v>
       </c>
       <c r="D199" t="n">
-        <v>116.33</v>
+        <v>125.39</v>
       </c>
       <c r="E199" t="n">
-        <v>100.04</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -3852,16 +3852,16 @@
         <v>45490</v>
       </c>
       <c r="B200" t="n">
-        <v>138.83</v>
+        <v>143.27</v>
       </c>
       <c r="C200" t="n">
-        <v>118.93</v>
+        <v>143.26</v>
       </c>
       <c r="D200" t="n">
-        <v>115.53</v>
+        <v>126.27</v>
       </c>
       <c r="E200" t="n">
-        <v>99.89</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="201">
@@ -3869,16 +3869,16 @@
         <v>45491</v>
       </c>
       <c r="B201" t="n">
-        <v>140.21</v>
+        <v>143.18</v>
       </c>
       <c r="C201" t="n">
-        <v>119.06</v>
+        <v>143.17</v>
       </c>
       <c r="D201" t="n">
-        <v>116.1</v>
+        <v>125.63</v>
       </c>
       <c r="E201" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="202">
@@ -3886,16 +3886,16 @@
         <v>45492</v>
       </c>
       <c r="B202" t="n">
-        <v>140.45</v>
+        <v>143.83</v>
       </c>
       <c r="C202" t="n">
-        <v>120.06</v>
+        <v>143.8</v>
       </c>
       <c r="D202" t="n">
-        <v>115.83</v>
+        <v>126.3</v>
       </c>
       <c r="E202" t="n">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="203">
@@ -3903,16 +3903,16 @@
         <v>45493</v>
       </c>
       <c r="B203" t="n">
-        <v>140.14</v>
+        <v>145.04</v>
       </c>
       <c r="C203" t="n">
-        <v>119.84</v>
+        <v>145.05</v>
       </c>
       <c r="D203" t="n">
-        <v>115.71</v>
+        <v>127.43</v>
       </c>
       <c r="E203" t="n">
-        <v>100.02</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="204">
@@ -3920,16 +3920,16 @@
         <v>45494</v>
       </c>
       <c r="B204" t="n">
-        <v>139.81</v>
+        <v>147.44</v>
       </c>
       <c r="C204" t="n">
-        <v>121.14</v>
+        <v>147.4</v>
       </c>
       <c r="D204" t="n">
-        <v>115.18</v>
+        <v>126.94</v>
       </c>
       <c r="E204" t="n">
-        <v>99.98</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="205">
@@ -3937,16 +3937,16 @@
         <v>45495</v>
       </c>
       <c r="B205" t="n">
-        <v>139.53</v>
+        <v>145.56</v>
       </c>
       <c r="C205" t="n">
-        <v>122.62</v>
+        <v>145.58</v>
       </c>
       <c r="D205" t="n">
-        <v>115.41</v>
+        <v>128.18</v>
       </c>
       <c r="E205" t="n">
-        <v>100.1</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="206">
@@ -3954,16 +3954,16 @@
         <v>45496</v>
       </c>
       <c r="B206" t="n">
-        <v>138.08</v>
+        <v>145.72</v>
       </c>
       <c r="C206" t="n">
-        <v>123.04</v>
+        <v>145.68</v>
       </c>
       <c r="D206" t="n">
-        <v>116.12</v>
+        <v>128.5</v>
       </c>
       <c r="E206" t="n">
-        <v>100.01</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="207">
@@ -3971,16 +3971,16 @@
         <v>45497</v>
       </c>
       <c r="B207" t="n">
-        <v>139.47</v>
+        <v>148.78</v>
       </c>
       <c r="C207" t="n">
-        <v>122.73</v>
+        <v>148.79</v>
       </c>
       <c r="D207" t="n">
-        <v>117.19</v>
+        <v>128.7</v>
       </c>
       <c r="E207" t="n">
-        <v>100.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208">
@@ -3988,16 +3988,16 @@
         <v>45498</v>
       </c>
       <c r="B208" t="n">
-        <v>139.27</v>
+        <v>149.87</v>
       </c>
       <c r="C208" t="n">
-        <v>122.49</v>
+        <v>149.88</v>
       </c>
       <c r="D208" t="n">
-        <v>118.31</v>
+        <v>129.18</v>
       </c>
       <c r="E208" t="n">
-        <v>100.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209">
@@ -4005,16 +4005,16 @@
         <v>45499</v>
       </c>
       <c r="B209" t="n">
-        <v>138.9</v>
+        <v>149.15</v>
       </c>
       <c r="C209" t="n">
-        <v>122.28</v>
+        <v>149.2</v>
       </c>
       <c r="D209" t="n">
-        <v>118.2</v>
+        <v>129.65</v>
       </c>
       <c r="E209" t="n">
-        <v>99.87</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="210">
@@ -4022,16 +4022,16 @@
         <v>45500</v>
       </c>
       <c r="B210" t="n">
-        <v>138.09</v>
+        <v>150.98</v>
       </c>
       <c r="C210" t="n">
-        <v>121.53</v>
+        <v>150.96</v>
       </c>
       <c r="D210" t="n">
-        <v>117.75</v>
+        <v>130.99</v>
       </c>
       <c r="E210" t="n">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="211">
@@ -4039,16 +4039,16 @@
         <v>45501</v>
       </c>
       <c r="B211" t="n">
-        <v>138.55</v>
+        <v>150.01</v>
       </c>
       <c r="C211" t="n">
-        <v>123.11</v>
+        <v>150.01</v>
       </c>
       <c r="D211" t="n">
-        <v>117.14</v>
+        <v>131</v>
       </c>
       <c r="E211" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212">
@@ -4056,16 +4056,16 @@
         <v>45502</v>
       </c>
       <c r="B212" t="n">
-        <v>138.52</v>
+        <v>151.55</v>
       </c>
       <c r="C212" t="n">
-        <v>123.24</v>
+        <v>151.59</v>
       </c>
       <c r="D212" t="n">
-        <v>117.71</v>
+        <v>129.77</v>
       </c>
       <c r="E212" t="n">
-        <v>99.89</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="213">
@@ -4073,16 +4073,16 @@
         <v>45503</v>
       </c>
       <c r="B213" t="n">
-        <v>139.15</v>
+        <v>151.58</v>
       </c>
       <c r="C213" t="n">
-        <v>123.57</v>
+        <v>151.55</v>
       </c>
       <c r="D213" t="n">
-        <v>118.15</v>
+        <v>129.54</v>
       </c>
       <c r="E213" t="n">
-        <v>100.03</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="214">
@@ -4090,16 +4090,16 @@
         <v>45504</v>
       </c>
       <c r="B214" t="n">
-        <v>142.1</v>
+        <v>149.8</v>
       </c>
       <c r="C214" t="n">
-        <v>123.15</v>
+        <v>149.81</v>
       </c>
       <c r="D214" t="n">
-        <v>117.87</v>
+        <v>130.29</v>
       </c>
       <c r="E214" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215">
@@ -4107,16 +4107,16 @@
         <v>45505</v>
       </c>
       <c r="B215" t="n">
-        <v>141.68</v>
+        <v>148.48</v>
       </c>
       <c r="C215" t="n">
-        <v>122.73</v>
+        <v>148.47</v>
       </c>
       <c r="D215" t="n">
-        <v>118.8</v>
+        <v>129.38</v>
       </c>
       <c r="E215" t="n">
-        <v>100.14</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="216">
@@ -4124,16 +4124,16 @@
         <v>45506</v>
       </c>
       <c r="B216" t="n">
-        <v>141.24</v>
+        <v>150.69</v>
       </c>
       <c r="C216" t="n">
-        <v>122.14</v>
+        <v>150.64</v>
       </c>
       <c r="D216" t="n">
-        <v>119.24</v>
+        <v>129.28</v>
       </c>
       <c r="E216" t="n">
-        <v>99.94</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="217">
@@ -4141,16 +4141,16 @@
         <v>45507</v>
       </c>
       <c r="B217" t="n">
-        <v>142.17</v>
+        <v>150.62</v>
       </c>
       <c r="C217" t="n">
-        <v>122.49</v>
+        <v>150.54</v>
       </c>
       <c r="D217" t="n">
-        <v>118.25</v>
+        <v>129.17</v>
       </c>
       <c r="E217" t="n">
-        <v>100.15</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="218">
@@ -4158,16 +4158,16 @@
         <v>45508</v>
       </c>
       <c r="B218" t="n">
-        <v>144.43</v>
+        <v>150.78</v>
       </c>
       <c r="C218" t="n">
-        <v>122.1</v>
+        <v>150.8</v>
       </c>
       <c r="D218" t="n">
-        <v>118.07</v>
+        <v>129.1</v>
       </c>
       <c r="E218" t="n">
-        <v>100.03</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="219">
@@ -4175,16 +4175,16 @@
         <v>45509</v>
       </c>
       <c r="B219" t="n">
-        <v>145.03</v>
+        <v>153.23</v>
       </c>
       <c r="C219" t="n">
-        <v>122.88</v>
+        <v>153.23</v>
       </c>
       <c r="D219" t="n">
-        <v>119.58</v>
+        <v>130.07</v>
       </c>
       <c r="E219" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="220">
@@ -4192,13 +4192,13 @@
         <v>45510</v>
       </c>
       <c r="B220" t="n">
-        <v>144.32</v>
+        <v>152.11</v>
       </c>
       <c r="C220" t="n">
-        <v>121.78</v>
+        <v>152.11</v>
       </c>
       <c r="D220" t="n">
-        <v>119.16</v>
+        <v>132.18</v>
       </c>
       <c r="E220" t="n">
         <v>100</v>
@@ -4209,13 +4209,13 @@
         <v>45511</v>
       </c>
       <c r="B221" t="n">
-        <v>146.61</v>
+        <v>152.35</v>
       </c>
       <c r="C221" t="n">
-        <v>121.47</v>
+        <v>152.36</v>
       </c>
       <c r="D221" t="n">
-        <v>119.41</v>
+        <v>132.27</v>
       </c>
       <c r="E221" t="n">
         <v>100</v>
@@ -4226,16 +4226,16 @@
         <v>45512</v>
       </c>
       <c r="B222" t="n">
-        <v>148.22</v>
+        <v>152.41</v>
       </c>
       <c r="C222" t="n">
-        <v>123.95</v>
+        <v>152.39</v>
       </c>
       <c r="D222" t="n">
-        <v>119.13</v>
+        <v>131.92</v>
       </c>
       <c r="E222" t="n">
-        <v>99.95</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="223">
@@ -4243,16 +4243,16 @@
         <v>45513</v>
       </c>
       <c r="B223" t="n">
-        <v>149.68</v>
+        <v>152.59</v>
       </c>
       <c r="C223" t="n">
-        <v>124.75</v>
+        <v>152.57</v>
       </c>
       <c r="D223" t="n">
-        <v>120.54</v>
+        <v>131.6</v>
       </c>
       <c r="E223" t="n">
-        <v>100.06</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="224">
@@ -4260,16 +4260,16 @@
         <v>45514</v>
       </c>
       <c r="B224" t="n">
-        <v>149.48</v>
+        <v>152.95</v>
       </c>
       <c r="C224" t="n">
-        <v>125.48</v>
+        <v>153</v>
       </c>
       <c r="D224" t="n">
-        <v>121.44</v>
+        <v>131.5</v>
       </c>
       <c r="E224" t="n">
-        <v>100.08</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="225">
@@ -4277,16 +4277,16 @@
         <v>45515</v>
       </c>
       <c r="B225" t="n">
-        <v>150.31</v>
+        <v>149.94</v>
       </c>
       <c r="C225" t="n">
-        <v>126.66</v>
+        <v>149.98</v>
       </c>
       <c r="D225" t="n">
-        <v>122.39</v>
+        <v>132.47</v>
       </c>
       <c r="E225" t="n">
-        <v>100.14</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="226">
@@ -4294,16 +4294,16 @@
         <v>45516</v>
       </c>
       <c r="B226" t="n">
-        <v>151.31</v>
+        <v>147.68</v>
       </c>
       <c r="C226" t="n">
-        <v>126.68</v>
+        <v>147.67</v>
       </c>
       <c r="D226" t="n">
-        <v>122.59</v>
+        <v>132.3</v>
       </c>
       <c r="E226" t="n">
-        <v>100.12</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="227">
@@ -4311,16 +4311,16 @@
         <v>45517</v>
       </c>
       <c r="B227" t="n">
-        <v>150.55</v>
+        <v>146.23</v>
       </c>
       <c r="C227" t="n">
-        <v>127.21</v>
+        <v>146.2</v>
       </c>
       <c r="D227" t="n">
-        <v>122.4</v>
+        <v>131.79</v>
       </c>
       <c r="E227" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="228">
@@ -4328,16 +4328,16 @@
         <v>45518</v>
       </c>
       <c r="B228" t="n">
-        <v>152.32</v>
+        <v>148.5</v>
       </c>
       <c r="C228" t="n">
-        <v>127.57</v>
+        <v>148.54</v>
       </c>
       <c r="D228" t="n">
-        <v>122.54</v>
+        <v>132.64</v>
       </c>
       <c r="E228" t="n">
-        <v>99.86</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="229">
@@ -4345,16 +4345,16 @@
         <v>45519</v>
       </c>
       <c r="B229" t="n">
-        <v>153.46</v>
+        <v>149.58</v>
       </c>
       <c r="C229" t="n">
-        <v>128.36</v>
+        <v>149.57</v>
       </c>
       <c r="D229" t="n">
-        <v>124.22</v>
+        <v>131.84</v>
       </c>
       <c r="E229" t="n">
-        <v>99.97</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="230">
@@ -4362,13 +4362,13 @@
         <v>45520</v>
       </c>
       <c r="B230" t="n">
-        <v>153.95</v>
+        <v>150.39</v>
       </c>
       <c r="C230" t="n">
-        <v>128.78</v>
+        <v>150.42</v>
       </c>
       <c r="D230" t="n">
-        <v>125.5</v>
+        <v>130.98</v>
       </c>
       <c r="E230" t="n">
         <v>99.98999999999999</v>
@@ -4379,16 +4379,16 @@
         <v>45521</v>
       </c>
       <c r="B231" t="n">
-        <v>154.53</v>
+        <v>150.33</v>
       </c>
       <c r="C231" t="n">
-        <v>129.55</v>
+        <v>150.35</v>
       </c>
       <c r="D231" t="n">
-        <v>125.74</v>
+        <v>130.79</v>
       </c>
       <c r="E231" t="n">
-        <v>99.95999999999999</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -4396,16 +4396,16 @@
         <v>45522</v>
       </c>
       <c r="B232" t="n">
-        <v>155</v>
+        <v>151.09</v>
       </c>
       <c r="C232" t="n">
-        <v>130.78</v>
+        <v>151.13</v>
       </c>
       <c r="D232" t="n">
-        <v>125.07</v>
+        <v>130.61</v>
       </c>
       <c r="E232" t="n">
-        <v>100.01</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="233">
@@ -4413,16 +4413,16 @@
         <v>45523</v>
       </c>
       <c r="B233" t="n">
-        <v>154.37</v>
+        <v>150.01</v>
       </c>
       <c r="C233" t="n">
-        <v>132.13</v>
+        <v>150.03</v>
       </c>
       <c r="D233" t="n">
-        <v>124.02</v>
+        <v>131.2</v>
       </c>
       <c r="E233" t="n">
-        <v>99.94</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="234">
@@ -4430,16 +4430,16 @@
         <v>45524</v>
       </c>
       <c r="B234" t="n">
-        <v>155.06</v>
+        <v>149.86</v>
       </c>
       <c r="C234" t="n">
-        <v>133.87</v>
+        <v>149.83</v>
       </c>
       <c r="D234" t="n">
-        <v>124.07</v>
+        <v>131.56</v>
       </c>
       <c r="E234" t="n">
-        <v>99.94</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="235">
@@ -4447,16 +4447,16 @@
         <v>45525</v>
       </c>
       <c r="B235" t="n">
-        <v>157.63</v>
+        <v>151.2</v>
       </c>
       <c r="C235" t="n">
-        <v>132.6</v>
+        <v>151.18</v>
       </c>
       <c r="D235" t="n">
-        <v>122.54</v>
+        <v>131.52</v>
       </c>
       <c r="E235" t="n">
-        <v>100.04</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="236">
@@ -4464,16 +4464,16 @@
         <v>45526</v>
       </c>
       <c r="B236" t="n">
-        <v>157.23</v>
+        <v>152.69</v>
       </c>
       <c r="C236" t="n">
-        <v>131.77</v>
+        <v>152.65</v>
       </c>
       <c r="D236" t="n">
-        <v>123.15</v>
+        <v>131.07</v>
       </c>
       <c r="E236" t="n">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="237">
@@ -4481,16 +4481,16 @@
         <v>45527</v>
       </c>
       <c r="B237" t="n">
-        <v>156.76</v>
+        <v>151.02</v>
       </c>
       <c r="C237" t="n">
-        <v>130.69</v>
+        <v>150.98</v>
       </c>
       <c r="D237" t="n">
-        <v>123.9</v>
+        <v>131.65</v>
       </c>
       <c r="E237" t="n">
-        <v>100.07</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="238">
@@ -4498,16 +4498,16 @@
         <v>45528</v>
       </c>
       <c r="B238" t="n">
-        <v>156.87</v>
+        <v>153.37</v>
       </c>
       <c r="C238" t="n">
-        <v>132.68</v>
+        <v>153.42</v>
       </c>
       <c r="D238" t="n">
-        <v>123.2</v>
+        <v>130.11</v>
       </c>
       <c r="E238" t="n">
-        <v>99.84999999999999</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="239">
@@ -4515,16 +4515,16 @@
         <v>45529</v>
       </c>
       <c r="B239" t="n">
-        <v>156.24</v>
+        <v>153.86</v>
       </c>
       <c r="C239" t="n">
-        <v>132.82</v>
+        <v>153.84</v>
       </c>
       <c r="D239" t="n">
-        <v>123.48</v>
+        <v>130.14</v>
       </c>
       <c r="E239" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="240">
@@ -4532,16 +4532,16 @@
         <v>45530</v>
       </c>
       <c r="B240" t="n">
-        <v>156.91</v>
+        <v>154.58</v>
       </c>
       <c r="C240" t="n">
-        <v>131.76</v>
+        <v>154.61</v>
       </c>
       <c r="D240" t="n">
-        <v>124.65</v>
+        <v>130.22</v>
       </c>
       <c r="E240" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="241">
@@ -4549,16 +4549,16 @@
         <v>45531</v>
       </c>
       <c r="B241" t="n">
-        <v>158.55</v>
+        <v>154.95</v>
       </c>
       <c r="C241" t="n">
-        <v>132.29</v>
+        <v>154.94</v>
       </c>
       <c r="D241" t="n">
-        <v>125.09</v>
+        <v>130.44</v>
       </c>
       <c r="E241" t="n">
-        <v>100.06</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="242">
@@ -4566,16 +4566,16 @@
         <v>45532</v>
       </c>
       <c r="B242" t="n">
-        <v>159.35</v>
+        <v>155.11</v>
       </c>
       <c r="C242" t="n">
-        <v>133.11</v>
+        <v>155.06</v>
       </c>
       <c r="D242" t="n">
-        <v>126.19</v>
+        <v>130.78</v>
       </c>
       <c r="E242" t="n">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="243">
@@ -4583,16 +4583,16 @@
         <v>45533</v>
       </c>
       <c r="B243" t="n">
-        <v>160.5</v>
+        <v>153.67</v>
       </c>
       <c r="C243" t="n">
-        <v>133.21</v>
+        <v>153.68</v>
       </c>
       <c r="D243" t="n">
-        <v>127.38</v>
+        <v>131.47</v>
       </c>
       <c r="E243" t="n">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244">
@@ -4600,16 +4600,16 @@
         <v>45534</v>
       </c>
       <c r="B244" t="n">
-        <v>163.05</v>
+        <v>153.68</v>
       </c>
       <c r="C244" t="n">
-        <v>133.35</v>
+        <v>153.69</v>
       </c>
       <c r="D244" t="n">
-        <v>126.39</v>
+        <v>131.59</v>
       </c>
       <c r="E244" t="n">
-        <v>100.01</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="245">
@@ -4617,16 +4617,16 @@
         <v>45535</v>
       </c>
       <c r="B245" t="n">
-        <v>162.41</v>
+        <v>153.24</v>
       </c>
       <c r="C245" t="n">
-        <v>134.38</v>
+        <v>153.25</v>
       </c>
       <c r="D245" t="n">
-        <v>125.99</v>
+        <v>131.08</v>
       </c>
       <c r="E245" t="n">
-        <v>99.95999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="246">
@@ -4634,16 +4634,16 @@
         <v>45536</v>
       </c>
       <c r="B246" t="n">
-        <v>160.2</v>
+        <v>152.27</v>
       </c>
       <c r="C246" t="n">
-        <v>134.11</v>
+        <v>152.22</v>
       </c>
       <c r="D246" t="n">
-        <v>124.26</v>
+        <v>131.51</v>
       </c>
       <c r="E246" t="n">
-        <v>99.84</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="247">
@@ -4651,16 +4651,16 @@
         <v>45537</v>
       </c>
       <c r="B247" t="n">
-        <v>161.41</v>
+        <v>153.76</v>
       </c>
       <c r="C247" t="n">
-        <v>135.09</v>
+        <v>153.76</v>
       </c>
       <c r="D247" t="n">
-        <v>124.68</v>
+        <v>131.99</v>
       </c>
       <c r="E247" t="n">
-        <v>99.90000000000001</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="248">
@@ -4668,16 +4668,16 @@
         <v>45538</v>
       </c>
       <c r="B248" t="n">
-        <v>161.59</v>
+        <v>155.2</v>
       </c>
       <c r="C248" t="n">
-        <v>135.28</v>
+        <v>155.23</v>
       </c>
       <c r="D248" t="n">
-        <v>123.91</v>
+        <v>133.41</v>
       </c>
       <c r="E248" t="n">
-        <v>100.15</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="249">
@@ -4685,16 +4685,16 @@
         <v>45539</v>
       </c>
       <c r="B249" t="n">
-        <v>162.97</v>
+        <v>153.14</v>
       </c>
       <c r="C249" t="n">
-        <v>135.24</v>
+        <v>153.12</v>
       </c>
       <c r="D249" t="n">
-        <v>124.03</v>
+        <v>132.49</v>
       </c>
       <c r="E249" t="n">
-        <v>100.02</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="250">
@@ -4702,16 +4702,16 @@
         <v>45540</v>
       </c>
       <c r="B250" t="n">
-        <v>160.55</v>
+        <v>153.4</v>
       </c>
       <c r="C250" t="n">
-        <v>135.18</v>
+        <v>153.38</v>
       </c>
       <c r="D250" t="n">
-        <v>123.62</v>
+        <v>133.01</v>
       </c>
       <c r="E250" t="n">
-        <v>99.90000000000001</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="251">
@@ -4719,16 +4719,16 @@
         <v>45541</v>
       </c>
       <c r="B251" t="n">
-        <v>160.43</v>
+        <v>153.86</v>
       </c>
       <c r="C251" t="n">
-        <v>137.19</v>
+        <v>153.84</v>
       </c>
       <c r="D251" t="n">
-        <v>124.2</v>
+        <v>132.51</v>
       </c>
       <c r="E251" t="n">
-        <v>99.94</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="252">
@@ -4736,16 +4736,16 @@
         <v>45542</v>
       </c>
       <c r="B252" t="n">
-        <v>161.4</v>
+        <v>152.36</v>
       </c>
       <c r="C252" t="n">
-        <v>138.82</v>
+        <v>152.32</v>
       </c>
       <c r="D252" t="n">
-        <v>124.98</v>
+        <v>131.89</v>
       </c>
       <c r="E252" t="n">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="253">
@@ -4753,16 +4753,16 @@
         <v>45543</v>
       </c>
       <c r="B253" t="n">
-        <v>160.81</v>
+        <v>151.4</v>
       </c>
       <c r="C253" t="n">
-        <v>139.74</v>
+        <v>151.37</v>
       </c>
       <c r="D253" t="n">
-        <v>125.38</v>
+        <v>132.82</v>
       </c>
       <c r="E253" t="n">
-        <v>100.09</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="254">
@@ -4770,16 +4770,16 @@
         <v>45544</v>
       </c>
       <c r="B254" t="n">
-        <v>161.87</v>
+        <v>154.82</v>
       </c>
       <c r="C254" t="n">
-        <v>141.04</v>
+        <v>154.82</v>
       </c>
       <c r="D254" t="n">
-        <v>125.08</v>
+        <v>133.32</v>
       </c>
       <c r="E254" t="n">
-        <v>100.13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255">
@@ -4787,16 +4787,16 @@
         <v>45545</v>
       </c>
       <c r="B255" t="n">
-        <v>162.37</v>
+        <v>153.99</v>
       </c>
       <c r="C255" t="n">
-        <v>143.43</v>
+        <v>153.97</v>
       </c>
       <c r="D255" t="n">
-        <v>124.66</v>
+        <v>133.99</v>
       </c>
       <c r="E255" t="n">
-        <v>100.17</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="256">
@@ -4804,16 +4804,16 @@
         <v>45546</v>
       </c>
       <c r="B256" t="n">
-        <v>162.87</v>
+        <v>154.37</v>
       </c>
       <c r="C256" t="n">
-        <v>142.93</v>
+        <v>154.36</v>
       </c>
       <c r="D256" t="n">
-        <v>124.4</v>
+        <v>136.16</v>
       </c>
       <c r="E256" t="n">
-        <v>99.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="257">
@@ -4821,13 +4821,13 @@
         <v>45547</v>
       </c>
       <c r="B257" t="n">
-        <v>163.67</v>
+        <v>156.02</v>
       </c>
       <c r="C257" t="n">
-        <v>143.69</v>
+        <v>156.02</v>
       </c>
       <c r="D257" t="n">
-        <v>124.07</v>
+        <v>135.69</v>
       </c>
       <c r="E257" t="n">
         <v>100</v>
@@ -4838,16 +4838,16 @@
         <v>45548</v>
       </c>
       <c r="B258" t="n">
-        <v>166.72</v>
+        <v>158.46</v>
       </c>
       <c r="C258" t="n">
-        <v>145.76</v>
+        <v>158.52</v>
       </c>
       <c r="D258" t="n">
-        <v>124.49</v>
+        <v>135.29</v>
       </c>
       <c r="E258" t="n">
-        <v>100</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="259">
@@ -4855,16 +4855,16 @@
         <v>45549</v>
       </c>
       <c r="B259" t="n">
-        <v>167.13</v>
+        <v>159.6</v>
       </c>
       <c r="C259" t="n">
-        <v>146.63</v>
+        <v>159.62</v>
       </c>
       <c r="D259" t="n">
-        <v>123.83</v>
+        <v>134.94</v>
       </c>
       <c r="E259" t="n">
-        <v>99.97</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -4872,16 +4872,16 @@
         <v>45550</v>
       </c>
       <c r="B260" t="n">
-        <v>165.15</v>
+        <v>161.08</v>
       </c>
       <c r="C260" t="n">
-        <v>147.28</v>
+        <v>161.03</v>
       </c>
       <c r="D260" t="n">
-        <v>124.41</v>
+        <v>135.55</v>
       </c>
       <c r="E260" t="n">
-        <v>99.95</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="261">
@@ -4889,16 +4889,16 @@
         <v>45551</v>
       </c>
       <c r="B261" t="n">
-        <v>167.47</v>
+        <v>160.38</v>
       </c>
       <c r="C261" t="n">
-        <v>146.13</v>
+        <v>160.38</v>
       </c>
       <c r="D261" t="n">
-        <v>123.42</v>
+        <v>135.46</v>
       </c>
       <c r="E261" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262">
@@ -4906,16 +4906,16 @@
         <v>45552</v>
       </c>
       <c r="B262" t="n">
-        <v>169.13</v>
+        <v>161.42</v>
       </c>
       <c r="C262" t="n">
-        <v>148.18</v>
+        <v>161.38</v>
       </c>
       <c r="D262" t="n">
-        <v>123.17</v>
+        <v>135.71</v>
       </c>
       <c r="E262" t="n">
-        <v>100.11</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="263">
@@ -4923,16 +4923,16 @@
         <v>45553</v>
       </c>
       <c r="B263" t="n">
-        <v>169.33</v>
+        <v>162.15</v>
       </c>
       <c r="C263" t="n">
-        <v>148.19</v>
+        <v>162.17</v>
       </c>
       <c r="D263" t="n">
-        <v>123.93</v>
+        <v>136.32</v>
       </c>
       <c r="E263" t="n">
-        <v>100.07</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="264">
@@ -4940,16 +4940,16 @@
         <v>45554</v>
       </c>
       <c r="B264" t="n">
-        <v>167.45</v>
+        <v>163.8</v>
       </c>
       <c r="C264" t="n">
-        <v>150.04</v>
+        <v>163.81</v>
       </c>
       <c r="D264" t="n">
-        <v>125.05</v>
+        <v>137.11</v>
       </c>
       <c r="E264" t="n">
-        <v>99.94</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="265">
@@ -4957,16 +4957,16 @@
         <v>45555</v>
       </c>
       <c r="B265" t="n">
-        <v>168.23</v>
+        <v>163.95</v>
       </c>
       <c r="C265" t="n">
-        <v>150.81</v>
+        <v>163.97</v>
       </c>
       <c r="D265" t="n">
-        <v>125.35</v>
+        <v>135.85</v>
       </c>
       <c r="E265" t="n">
-        <v>99.94</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="266">
@@ -4974,16 +4974,16 @@
         <v>45556</v>
       </c>
       <c r="B266" t="n">
-        <v>167.58</v>
+        <v>164.47</v>
       </c>
       <c r="C266" t="n">
-        <v>150.99</v>
+        <v>164.43</v>
       </c>
       <c r="D266" t="n">
-        <v>126.33</v>
+        <v>136.18</v>
       </c>
       <c r="E266" t="n">
-        <v>100.05</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="267">
@@ -4991,16 +4991,16 @@
         <v>45557</v>
       </c>
       <c r="B267" t="n">
-        <v>167.33</v>
+        <v>163.3</v>
       </c>
       <c r="C267" t="n">
-        <v>152.08</v>
+        <v>163.29</v>
       </c>
       <c r="D267" t="n">
-        <v>124.27</v>
+        <v>137.15</v>
       </c>
       <c r="E267" t="n">
-        <v>100.11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268">
@@ -5008,16 +5008,16 @@
         <v>45558</v>
       </c>
       <c r="B268" t="n">
-        <v>165.25</v>
+        <v>164.43</v>
       </c>
       <c r="C268" t="n">
-        <v>151.87</v>
+        <v>164.43</v>
       </c>
       <c r="D268" t="n">
-        <v>123.54</v>
+        <v>137.28</v>
       </c>
       <c r="E268" t="n">
-        <v>99.87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269">
@@ -5025,13 +5025,13 @@
         <v>45559</v>
       </c>
       <c r="B269" t="n">
-        <v>167.04</v>
+        <v>165.91</v>
       </c>
       <c r="C269" t="n">
-        <v>151.55</v>
+        <v>165.91</v>
       </c>
       <c r="D269" t="n">
-        <v>123.89</v>
+        <v>136.97</v>
       </c>
       <c r="E269" t="n">
         <v>100</v>
@@ -5042,16 +5042,16 @@
         <v>45560</v>
       </c>
       <c r="B270" t="n">
-        <v>167.93</v>
+        <v>165.55</v>
       </c>
       <c r="C270" t="n">
-        <v>151.85</v>
+        <v>165.54</v>
       </c>
       <c r="D270" t="n">
-        <v>123.04</v>
+        <v>136.72</v>
       </c>
       <c r="E270" t="n">
-        <v>100.1</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="271">
@@ -5059,16 +5059,16 @@
         <v>45561</v>
       </c>
       <c r="B271" t="n">
-        <v>167.51</v>
+        <v>166.09</v>
       </c>
       <c r="C271" t="n">
-        <v>150.29</v>
+        <v>166.13</v>
       </c>
       <c r="D271" t="n">
-        <v>122.82</v>
+        <v>136.44</v>
       </c>
       <c r="E271" t="n">
-        <v>100.15</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="272">
@@ -5076,16 +5076,16 @@
         <v>45562</v>
       </c>
       <c r="B272" t="n">
-        <v>168.9</v>
+        <v>165.15</v>
       </c>
       <c r="C272" t="n">
-        <v>150.11</v>
+        <v>165.14</v>
       </c>
       <c r="D272" t="n">
-        <v>122.66</v>
+        <v>136.39</v>
       </c>
       <c r="E272" t="n">
-        <v>99.97</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="273">
@@ -5093,16 +5093,16 @@
         <v>45563</v>
       </c>
       <c r="B273" t="n">
-        <v>171.96</v>
+        <v>167.31</v>
       </c>
       <c r="C273" t="n">
-        <v>150.75</v>
+        <v>167.34</v>
       </c>
       <c r="D273" t="n">
-        <v>123.07</v>
+        <v>136.66</v>
       </c>
       <c r="E273" t="n">
-        <v>100.1</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="274">
@@ -5110,16 +5110,16 @@
         <v>45564</v>
       </c>
       <c r="B274" t="n">
-        <v>172.55</v>
+        <v>165.57</v>
       </c>
       <c r="C274" t="n">
-        <v>150.67</v>
+        <v>165.6</v>
       </c>
       <c r="D274" t="n">
-        <v>123.03</v>
+        <v>136.99</v>
       </c>
       <c r="E274" t="n">
-        <v>99.98999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="275">
@@ -5127,16 +5127,16 @@
         <v>45565</v>
       </c>
       <c r="B275" t="n">
-        <v>172.76</v>
+        <v>165.93</v>
       </c>
       <c r="C275" t="n">
-        <v>151.7</v>
+        <v>165.91</v>
       </c>
       <c r="D275" t="n">
-        <v>123.16</v>
+        <v>137.98</v>
       </c>
       <c r="E275" t="n">
-        <v>100.07</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="276">
@@ -5144,16 +5144,16 @@
         <v>45566</v>
       </c>
       <c r="B276" t="n">
-        <v>172.91</v>
+        <v>168.05</v>
       </c>
       <c r="C276" t="n">
-        <v>152</v>
+        <v>168.04</v>
       </c>
       <c r="D276" t="n">
-        <v>121.79</v>
+        <v>139.99</v>
       </c>
       <c r="E276" t="n">
-        <v>100.09</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="277">
@@ -5161,16 +5161,16 @@
         <v>45567</v>
       </c>
       <c r="B277" t="n">
-        <v>173.64</v>
+        <v>167.7</v>
       </c>
       <c r="C277" t="n">
-        <v>153.36</v>
+        <v>167.75</v>
       </c>
       <c r="D277" t="n">
-        <v>119.77</v>
+        <v>141.32</v>
       </c>
       <c r="E277" t="n">
-        <v>100.21</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="278">
@@ -5178,16 +5178,16 @@
         <v>45568</v>
       </c>
       <c r="B278" t="n">
-        <v>173.71</v>
+        <v>167.25</v>
       </c>
       <c r="C278" t="n">
-        <v>154.84</v>
+        <v>167.24</v>
       </c>
       <c r="D278" t="n">
-        <v>119.12</v>
+        <v>141.08</v>
       </c>
       <c r="E278" t="n">
-        <v>100.06</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="279">
@@ -5195,16 +5195,16 @@
         <v>45569</v>
       </c>
       <c r="B279" t="n">
-        <v>172.51</v>
+        <v>165.7</v>
       </c>
       <c r="C279" t="n">
-        <v>154.34</v>
+        <v>165.67</v>
       </c>
       <c r="D279" t="n">
-        <v>120.58</v>
+        <v>140.42</v>
       </c>
       <c r="E279" t="n">
-        <v>99.98</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="280">
@@ -5212,16 +5212,16 @@
         <v>45570</v>
       </c>
       <c r="B280" t="n">
-        <v>173.07</v>
+        <v>164.93</v>
       </c>
       <c r="C280" t="n">
-        <v>155.56</v>
+        <v>164.94</v>
       </c>
       <c r="D280" t="n">
-        <v>121.03</v>
+        <v>140.5</v>
       </c>
       <c r="E280" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281">
@@ -5229,16 +5229,16 @@
         <v>45571</v>
       </c>
       <c r="B281" t="n">
-        <v>173.83</v>
+        <v>167.23</v>
       </c>
       <c r="C281" t="n">
-        <v>158.58</v>
+        <v>167.26</v>
       </c>
       <c r="D281" t="n">
-        <v>121.09</v>
+        <v>139.77</v>
       </c>
       <c r="E281" t="n">
-        <v>100.02</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="282">
@@ -5246,16 +5246,16 @@
         <v>45572</v>
       </c>
       <c r="B282" t="n">
-        <v>175.55</v>
+        <v>167.19</v>
       </c>
       <c r="C282" t="n">
-        <v>160.12</v>
+        <v>167.22</v>
       </c>
       <c r="D282" t="n">
-        <v>122.05</v>
+        <v>139.84</v>
       </c>
       <c r="E282" t="n">
-        <v>100.06</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="283">
@@ -5263,16 +5263,16 @@
         <v>45573</v>
       </c>
       <c r="B283" t="n">
-        <v>174.21</v>
+        <v>165.94</v>
       </c>
       <c r="C283" t="n">
-        <v>162.3</v>
+        <v>165.95</v>
       </c>
       <c r="D283" t="n">
-        <v>121.31</v>
+        <v>140.27</v>
       </c>
       <c r="E283" t="n">
-        <v>100.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284">
@@ -5280,16 +5280,16 @@
         <v>45574</v>
       </c>
       <c r="B284" t="n">
-        <v>173.42</v>
+        <v>166.84</v>
       </c>
       <c r="C284" t="n">
-        <v>162.45</v>
+        <v>166.93</v>
       </c>
       <c r="D284" t="n">
-        <v>121.64</v>
+        <v>140.63</v>
       </c>
       <c r="E284" t="n">
-        <v>100.03</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="285">
@@ -5297,16 +5297,16 @@
         <v>45575</v>
       </c>
       <c r="B285" t="n">
-        <v>174.27</v>
+        <v>166.24</v>
       </c>
       <c r="C285" t="n">
-        <v>164.65</v>
+        <v>166.22</v>
       </c>
       <c r="D285" t="n">
-        <v>122.07</v>
+        <v>140.29</v>
       </c>
       <c r="E285" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="286">
@@ -5314,16 +5314,16 @@
         <v>45576</v>
       </c>
       <c r="B286" t="n">
-        <v>175.87</v>
+        <v>165.75</v>
       </c>
       <c r="C286" t="n">
-        <v>166.35</v>
+        <v>165.79</v>
       </c>
       <c r="D286" t="n">
-        <v>121.27</v>
+        <v>139.87</v>
       </c>
       <c r="E286" t="n">
-        <v>100.06</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="287">
@@ -5331,16 +5331,16 @@
         <v>45577</v>
       </c>
       <c r="B287" t="n">
-        <v>177.12</v>
+        <v>167.89</v>
       </c>
       <c r="C287" t="n">
-        <v>166.21</v>
+        <v>167.86</v>
       </c>
       <c r="D287" t="n">
-        <v>122.37</v>
+        <v>139.5</v>
       </c>
       <c r="E287" t="n">
-        <v>99.98</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="288">
@@ -5348,16 +5348,16 @@
         <v>45578</v>
       </c>
       <c r="B288" t="n">
-        <v>177.57</v>
+        <v>168.77</v>
       </c>
       <c r="C288" t="n">
-        <v>166.23</v>
+        <v>168.79</v>
       </c>
       <c r="D288" t="n">
-        <v>122.48</v>
+        <v>139.15</v>
       </c>
       <c r="E288" t="n">
-        <v>99.89</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="289">
@@ -5365,16 +5365,16 @@
         <v>45579</v>
       </c>
       <c r="B289" t="n">
-        <v>175.79</v>
+        <v>169.3</v>
       </c>
       <c r="C289" t="n">
-        <v>168.45</v>
+        <v>169.35</v>
       </c>
       <c r="D289" t="n">
-        <v>121.95</v>
+        <v>138</v>
       </c>
       <c r="E289" t="n">
-        <v>99.90000000000001</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="290">
@@ -5382,16 +5382,16 @@
         <v>45580</v>
       </c>
       <c r="B290" t="n">
-        <v>173.02</v>
+        <v>171.98</v>
       </c>
       <c r="C290" t="n">
-        <v>167.87</v>
+        <v>171.97</v>
       </c>
       <c r="D290" t="n">
-        <v>121.08</v>
+        <v>137.6</v>
       </c>
       <c r="E290" t="n">
-        <v>100.16</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="291">
@@ -5399,16 +5399,16 @@
         <v>45581</v>
       </c>
       <c r="B291" t="n">
-        <v>174.68</v>
+        <v>172.64</v>
       </c>
       <c r="C291" t="n">
-        <v>167.24</v>
+        <v>172.66</v>
       </c>
       <c r="D291" t="n">
-        <v>122.82</v>
+        <v>137.99</v>
       </c>
       <c r="E291" t="n">
-        <v>100.1</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="292">
@@ -5416,16 +5416,16 @@
         <v>45582</v>
       </c>
       <c r="B292" t="n">
-        <v>174.49</v>
+        <v>175.67</v>
       </c>
       <c r="C292" t="n">
-        <v>164.34</v>
+        <v>175.64</v>
       </c>
       <c r="D292" t="n">
-        <v>124.6</v>
+        <v>137.95</v>
       </c>
       <c r="E292" t="n">
-        <v>99.86</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="293">
@@ -5433,16 +5433,16 @@
         <v>45583</v>
       </c>
       <c r="B293" t="n">
-        <v>172.45</v>
+        <v>174</v>
       </c>
       <c r="C293" t="n">
-        <v>165.83</v>
+        <v>174</v>
       </c>
       <c r="D293" t="n">
-        <v>126.53</v>
+        <v>137.46</v>
       </c>
       <c r="E293" t="n">
-        <v>100.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294">
@@ -5450,16 +5450,16 @@
         <v>45584</v>
       </c>
       <c r="B294" t="n">
-        <v>173.49</v>
+        <v>176.76</v>
       </c>
       <c r="C294" t="n">
-        <v>166.8</v>
+        <v>176.76</v>
       </c>
       <c r="D294" t="n">
-        <v>127.28</v>
+        <v>137.14</v>
       </c>
       <c r="E294" t="n">
-        <v>100.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295">
@@ -5467,16 +5467,16 @@
         <v>45585</v>
       </c>
       <c r="B295" t="n">
-        <v>174.14</v>
+        <v>177</v>
       </c>
       <c r="C295" t="n">
-        <v>167.17</v>
+        <v>177.09</v>
       </c>
       <c r="D295" t="n">
-        <v>127.33</v>
+        <v>138.23</v>
       </c>
       <c r="E295" t="n">
-        <v>99.92</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="296">
@@ -5484,16 +5484,16 @@
         <v>45586</v>
       </c>
       <c r="B296" t="n">
-        <v>174.01</v>
+        <v>176.51</v>
       </c>
       <c r="C296" t="n">
-        <v>165.28</v>
+        <v>176.55</v>
       </c>
       <c r="D296" t="n">
-        <v>127.36</v>
+        <v>137.93</v>
       </c>
       <c r="E296" t="n">
-        <v>99.90000000000001</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="297">
@@ -5501,16 +5501,16 @@
         <v>45587</v>
       </c>
       <c r="B297" t="n">
-        <v>172.73</v>
+        <v>177.74</v>
       </c>
       <c r="C297" t="n">
-        <v>165.73</v>
+        <v>177.76</v>
       </c>
       <c r="D297" t="n">
-        <v>128.52</v>
+        <v>139.57</v>
       </c>
       <c r="E297" t="n">
-        <v>100.09</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="298">
@@ -5518,16 +5518,16 @@
         <v>45588</v>
       </c>
       <c r="B298" t="n">
-        <v>170.82</v>
+        <v>177.49</v>
       </c>
       <c r="C298" t="n">
-        <v>164.74</v>
+        <v>177.53</v>
       </c>
       <c r="D298" t="n">
-        <v>129.35</v>
+        <v>140.18</v>
       </c>
       <c r="E298" t="n">
-        <v>99.90000000000001</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="299">
@@ -5535,16 +5535,16 @@
         <v>45589</v>
       </c>
       <c r="B299" t="n">
-        <v>170.77</v>
+        <v>178.93</v>
       </c>
       <c r="C299" t="n">
-        <v>165.65</v>
+        <v>178.96</v>
       </c>
       <c r="D299" t="n">
-        <v>128.7</v>
+        <v>140.71</v>
       </c>
       <c r="E299" t="n">
-        <v>100.01</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="300">
@@ -5552,16 +5552,16 @@
         <v>45590</v>
       </c>
       <c r="B300" t="n">
-        <v>169.21</v>
+        <v>180.87</v>
       </c>
       <c r="C300" t="n">
-        <v>165.13</v>
+        <v>180.89</v>
       </c>
       <c r="D300" t="n">
-        <v>129.05</v>
+        <v>141.99</v>
       </c>
       <c r="E300" t="n">
-        <v>99.84</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="301">
@@ -5569,16 +5569,16 @@
         <v>45591</v>
       </c>
       <c r="B301" t="n">
-        <v>170.06</v>
+        <v>180.9</v>
       </c>
       <c r="C301" t="n">
-        <v>165.34</v>
+        <v>180.94</v>
       </c>
       <c r="D301" t="n">
-        <v>129.58</v>
+        <v>142.23</v>
       </c>
       <c r="E301" t="n">
-        <v>100.02</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="302">
@@ -5586,13 +5586,13 @@
         <v>45592</v>
       </c>
       <c r="B302" t="n">
-        <v>172.17</v>
+        <v>179.99</v>
       </c>
       <c r="C302" t="n">
-        <v>165.72</v>
+        <v>179.97</v>
       </c>
       <c r="D302" t="n">
-        <v>129.35</v>
+        <v>142.66</v>
       </c>
       <c r="E302" t="n">
         <v>100.01</v>
@@ -5603,16 +5603,16 @@
         <v>45593</v>
       </c>
       <c r="B303" t="n">
-        <v>173.17</v>
+        <v>180.3</v>
       </c>
       <c r="C303" t="n">
-        <v>166.02</v>
+        <v>180.3</v>
       </c>
       <c r="D303" t="n">
-        <v>129.49</v>
+        <v>143.87</v>
       </c>
       <c r="E303" t="n">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304">
@@ -5620,16 +5620,16 @@
         <v>45594</v>
       </c>
       <c r="B304" t="n">
-        <v>172.52</v>
+        <v>180.64</v>
       </c>
       <c r="C304" t="n">
-        <v>164.5</v>
+        <v>180.66</v>
       </c>
       <c r="D304" t="n">
-        <v>130.95</v>
+        <v>142.81</v>
       </c>
       <c r="E304" t="n">
-        <v>99.88</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -5637,16 +5637,16 @@
         <v>45595</v>
       </c>
       <c r="B305" t="n">
-        <v>171.82</v>
+        <v>181.84</v>
       </c>
       <c r="C305" t="n">
-        <v>163.85</v>
+        <v>181.83</v>
       </c>
       <c r="D305" t="n">
-        <v>131.76</v>
+        <v>144.78</v>
       </c>
       <c r="E305" t="n">
-        <v>99.97</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="306">
@@ -5654,16 +5654,16 @@
         <v>45596</v>
       </c>
       <c r="B306" t="n">
-        <v>173.79</v>
+        <v>182.43</v>
       </c>
       <c r="C306" t="n">
-        <v>163.25</v>
+        <v>182.49</v>
       </c>
       <c r="D306" t="n">
-        <v>132.08</v>
+        <v>145.11</v>
       </c>
       <c r="E306" t="n">
-        <v>99.92</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="307">
@@ -5671,16 +5671,16 @@
         <v>45597</v>
       </c>
       <c r="B307" t="n">
-        <v>177.03</v>
+        <v>182.56</v>
       </c>
       <c r="C307" t="n">
-        <v>162.02</v>
+        <v>182.59</v>
       </c>
       <c r="D307" t="n">
-        <v>132.44</v>
+        <v>145.47</v>
       </c>
       <c r="E307" t="n">
-        <v>100.06</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -5688,13 +5688,13 @@
         <v>45598</v>
       </c>
       <c r="B308" t="n">
-        <v>177.89</v>
+        <v>183.11</v>
       </c>
       <c r="C308" t="n">
-        <v>162.03</v>
+        <v>183.12</v>
       </c>
       <c r="D308" t="n">
-        <v>132.44</v>
+        <v>145.2</v>
       </c>
       <c r="E308" t="n">
         <v>100</v>
@@ -5705,16 +5705,16 @@
         <v>45599</v>
       </c>
       <c r="B309" t="n">
-        <v>177.94</v>
+        <v>184.96</v>
       </c>
       <c r="C309" t="n">
-        <v>163.42</v>
+        <v>184.96</v>
       </c>
       <c r="D309" t="n">
-        <v>134.3</v>
+        <v>144.42</v>
       </c>
       <c r="E309" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310">
@@ -5722,16 +5722,16 @@
         <v>45600</v>
       </c>
       <c r="B310" t="n">
-        <v>176.26</v>
+        <v>184.2</v>
       </c>
       <c r="C310" t="n">
-        <v>163.54</v>
+        <v>184.14</v>
       </c>
       <c r="D310" t="n">
-        <v>136.49</v>
+        <v>145.57</v>
       </c>
       <c r="E310" t="n">
-        <v>99.92</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="311">
@@ -5739,16 +5739,16 @@
         <v>45601</v>
       </c>
       <c r="B311" t="n">
-        <v>178.84</v>
+        <v>183.65</v>
       </c>
       <c r="C311" t="n">
-        <v>165.83</v>
+        <v>183.71</v>
       </c>
       <c r="D311" t="n">
-        <v>136.14</v>
+        <v>146.02</v>
       </c>
       <c r="E311" t="n">
-        <v>100.06</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="312">
@@ -5756,16 +5756,16 @@
         <v>45602</v>
       </c>
       <c r="B312" t="n">
-        <v>181.43</v>
+        <v>183.83</v>
       </c>
       <c r="C312" t="n">
-        <v>165.59</v>
+        <v>183.9</v>
       </c>
       <c r="D312" t="n">
-        <v>136.09</v>
+        <v>145.65</v>
       </c>
       <c r="E312" t="n">
-        <v>99.94</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="313">
@@ -5773,16 +5773,16 @@
         <v>45603</v>
       </c>
       <c r="B313" t="n">
-        <v>180.23</v>
+        <v>181.98</v>
       </c>
       <c r="C313" t="n">
-        <v>165.02</v>
+        <v>181.99</v>
       </c>
       <c r="D313" t="n">
-        <v>135.19</v>
+        <v>143.84</v>
       </c>
       <c r="E313" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="314">
@@ -5790,16 +5790,16 @@
         <v>45604</v>
       </c>
       <c r="B314" t="n">
-        <v>179.39</v>
+        <v>181.52</v>
       </c>
       <c r="C314" t="n">
-        <v>165.54</v>
+        <v>181.55</v>
       </c>
       <c r="D314" t="n">
-        <v>134.04</v>
+        <v>143.08</v>
       </c>
       <c r="E314" t="n">
-        <v>100.03</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -5807,16 +5807,16 @@
         <v>45605</v>
       </c>
       <c r="B315" t="n">
-        <v>180.86</v>
+        <v>182.15</v>
       </c>
       <c r="C315" t="n">
-        <v>163.29</v>
+        <v>182.1</v>
       </c>
       <c r="D315" t="n">
-        <v>134.45</v>
+        <v>142.71</v>
       </c>
       <c r="E315" t="n">
-        <v>100.12</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="316">
@@ -5824,16 +5824,16 @@
         <v>45606</v>
       </c>
       <c r="B316" t="n">
-        <v>179.38</v>
+        <v>183.69</v>
       </c>
       <c r="C316" t="n">
-        <v>165.57</v>
+        <v>183.69</v>
       </c>
       <c r="D316" t="n">
-        <v>134.89</v>
+        <v>143.38</v>
       </c>
       <c r="E316" t="n">
-        <v>99.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317">
@@ -5841,16 +5841,16 @@
         <v>45607</v>
       </c>
       <c r="B317" t="n">
-        <v>179.57</v>
+        <v>186.68</v>
       </c>
       <c r="C317" t="n">
-        <v>166.5</v>
+        <v>186.62</v>
       </c>
       <c r="D317" t="n">
-        <v>135.06</v>
+        <v>142.57</v>
       </c>
       <c r="E317" t="n">
-        <v>100.05</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="318">
@@ -5858,16 +5858,16 @@
         <v>45608</v>
       </c>
       <c r="B318" t="n">
-        <v>178.52</v>
+        <v>185.93</v>
       </c>
       <c r="C318" t="n">
-        <v>166.94</v>
+        <v>185.94</v>
       </c>
       <c r="D318" t="n">
-        <v>134.03</v>
+        <v>142.65</v>
       </c>
       <c r="E318" t="n">
-        <v>99.98999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319">
@@ -5875,16 +5875,16 @@
         <v>45609</v>
       </c>
       <c r="B319" t="n">
-        <v>177.49</v>
+        <v>185.85</v>
       </c>
       <c r="C319" t="n">
-        <v>166.25</v>
+        <v>185.8</v>
       </c>
       <c r="D319" t="n">
-        <v>135.13</v>
+        <v>143.06</v>
       </c>
       <c r="E319" t="n">
-        <v>100.11</v>
+        <v>100.03</v>
       </c>
     </row>
     <row r="320">
@@ -5892,16 +5892,16 @@
         <v>45610</v>
       </c>
       <c r="B320" t="n">
-        <v>178.62</v>
+        <v>188.27</v>
       </c>
       <c r="C320" t="n">
-        <v>165.12</v>
+        <v>188.31</v>
       </c>
       <c r="D320" t="n">
-        <v>134.98</v>
+        <v>143.1</v>
       </c>
       <c r="E320" t="n">
-        <v>100.12</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="321">
@@ -5909,16 +5909,16 @@
         <v>45611</v>
       </c>
       <c r="B321" t="n">
-        <v>179.09</v>
+        <v>189.07</v>
       </c>
       <c r="C321" t="n">
-        <v>168.23</v>
+        <v>189.09</v>
       </c>
       <c r="D321" t="n">
-        <v>135.41</v>
+        <v>143.61</v>
       </c>
       <c r="E321" t="n">
-        <v>100.02</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="322">
@@ -5926,16 +5926,16 @@
         <v>45612</v>
       </c>
       <c r="B322" t="n">
-        <v>178.92</v>
+        <v>190.03</v>
       </c>
       <c r="C322" t="n">
-        <v>168.63</v>
+        <v>190.08</v>
       </c>
       <c r="D322" t="n">
-        <v>135.39</v>
+        <v>144.28</v>
       </c>
       <c r="E322" t="n">
-        <v>100.07</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="323">
@@ -5943,16 +5943,16 @@
         <v>45613</v>
       </c>
       <c r="B323" t="n">
-        <v>180.56</v>
+        <v>190.62</v>
       </c>
       <c r="C323" t="n">
-        <v>167.87</v>
+        <v>190.61</v>
       </c>
       <c r="D323" t="n">
-        <v>134.42</v>
+        <v>145.01</v>
       </c>
       <c r="E323" t="n">
-        <v>99.81999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324">
@@ -5960,16 +5960,16 @@
         <v>45614</v>
       </c>
       <c r="B324" t="n">
-        <v>181.56</v>
+        <v>193.1</v>
       </c>
       <c r="C324" t="n">
-        <v>166.72</v>
+        <v>193.17</v>
       </c>
       <c r="D324" t="n">
-        <v>132.79</v>
+        <v>144.54</v>
       </c>
       <c r="E324" t="n">
-        <v>100.04</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="325">
@@ -5977,16 +5977,16 @@
         <v>45615</v>
       </c>
       <c r="B325" t="n">
-        <v>185.46</v>
+        <v>193.33</v>
       </c>
       <c r="C325" t="n">
-        <v>166.95</v>
+        <v>193.33</v>
       </c>
       <c r="D325" t="n">
-        <v>133.56</v>
+        <v>143.41</v>
       </c>
       <c r="E325" t="n">
-        <v>100.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326">
@@ -5994,16 +5994,16 @@
         <v>45616</v>
       </c>
       <c r="B326" t="n">
-        <v>185.59</v>
+        <v>192.56</v>
       </c>
       <c r="C326" t="n">
-        <v>168.33</v>
+        <v>192.54</v>
       </c>
       <c r="D326" t="n">
-        <v>133.44</v>
+        <v>144.25</v>
       </c>
       <c r="E326" t="n">
-        <v>100.03</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="327">
@@ -6011,16 +6011,16 @@
         <v>45617</v>
       </c>
       <c r="B327" t="n">
-        <v>186.34</v>
+        <v>192.16</v>
       </c>
       <c r="C327" t="n">
-        <v>167.72</v>
+        <v>192.15</v>
       </c>
       <c r="D327" t="n">
-        <v>134.34</v>
+        <v>142.73</v>
       </c>
       <c r="E327" t="n">
-        <v>99.98</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="328">
@@ -6028,16 +6028,16 @@
         <v>45618</v>
       </c>
       <c r="B328" t="n">
-        <v>185.5</v>
+        <v>188.73</v>
       </c>
       <c r="C328" t="n">
-        <v>168.63</v>
+        <v>188.75</v>
       </c>
       <c r="D328" t="n">
-        <v>133.72</v>
+        <v>141.49</v>
       </c>
       <c r="E328" t="n">
-        <v>100</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="329">
@@ -6045,16 +6045,16 @@
         <v>45619</v>
       </c>
       <c r="B329" t="n">
-        <v>185.76</v>
+        <v>190.19</v>
       </c>
       <c r="C329" t="n">
-        <v>170.24</v>
+        <v>190.16</v>
       </c>
       <c r="D329" t="n">
-        <v>134.21</v>
+        <v>141.96</v>
       </c>
       <c r="E329" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="330">
@@ -6062,16 +6062,16 @@
         <v>45620</v>
       </c>
       <c r="B330" t="n">
-        <v>187.25</v>
+        <v>190.41</v>
       </c>
       <c r="C330" t="n">
-        <v>172.25</v>
+        <v>190.36</v>
       </c>
       <c r="D330" t="n">
-        <v>134.77</v>
+        <v>142.07</v>
       </c>
       <c r="E330" t="n">
-        <v>100</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="331">
@@ -6079,16 +6079,16 @@
         <v>45621</v>
       </c>
       <c r="B331" t="n">
-        <v>185.57</v>
+        <v>192.98</v>
       </c>
       <c r="C331" t="n">
-        <v>171.12</v>
+        <v>192.97</v>
       </c>
       <c r="D331" t="n">
-        <v>134.63</v>
+        <v>142.93</v>
       </c>
       <c r="E331" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="332">
@@ -6096,16 +6096,16 @@
         <v>45622</v>
       </c>
       <c r="B332" t="n">
-        <v>185.57</v>
+        <v>193.31</v>
       </c>
       <c r="C332" t="n">
-        <v>171.43</v>
+        <v>193.24</v>
       </c>
       <c r="D332" t="n">
-        <v>135.16</v>
+        <v>143.23</v>
       </c>
       <c r="E332" t="n">
-        <v>99.98999999999999</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="333">
@@ -6113,16 +6113,16 @@
         <v>45623</v>
       </c>
       <c r="B333" t="n">
-        <v>186.57</v>
+        <v>193.22</v>
       </c>
       <c r="C333" t="n">
-        <v>171.75</v>
+        <v>193.18</v>
       </c>
       <c r="D333" t="n">
-        <v>133.67</v>
+        <v>142.76</v>
       </c>
       <c r="E333" t="n">
-        <v>99.91</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="334">
@@ -6130,16 +6130,16 @@
         <v>45624</v>
       </c>
       <c r="B334" t="n">
-        <v>186.64</v>
+        <v>193.08</v>
       </c>
       <c r="C334" t="n">
-        <v>170.44</v>
+        <v>193.1</v>
       </c>
       <c r="D334" t="n">
-        <v>134.26</v>
+        <v>144.41</v>
       </c>
       <c r="E334" t="n">
-        <v>100.15</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="335">
@@ -6147,16 +6147,16 @@
         <v>45625</v>
       </c>
       <c r="B335" t="n">
-        <v>188.74</v>
+        <v>192.48</v>
       </c>
       <c r="C335" t="n">
-        <v>170.4</v>
+        <v>192.54</v>
       </c>
       <c r="D335" t="n">
-        <v>135.56</v>
+        <v>145.02</v>
       </c>
       <c r="E335" t="n">
-        <v>100.01</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="336">
@@ -6164,16 +6164,16 @@
         <v>45626</v>
       </c>
       <c r="B336" t="n">
-        <v>188.51</v>
+        <v>194.2</v>
       </c>
       <c r="C336" t="n">
-        <v>169.86</v>
+        <v>194.17</v>
       </c>
       <c r="D336" t="n">
-        <v>135.43</v>
+        <v>145.19</v>
       </c>
       <c r="E336" t="n">
-        <v>99.95999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="337">
@@ -6181,16 +6181,16 @@
         <v>45627</v>
       </c>
       <c r="B337" t="n">
-        <v>189.05</v>
+        <v>195.57</v>
       </c>
       <c r="C337" t="n">
-        <v>170.3</v>
+        <v>195.61</v>
       </c>
       <c r="D337" t="n">
-        <v>135.54</v>
+        <v>145.65</v>
       </c>
       <c r="E337" t="n">
-        <v>100.04</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="338">
@@ -6198,16 +6198,16 @@
         <v>45628</v>
       </c>
       <c r="B338" t="n">
-        <v>191.13</v>
+        <v>196.86</v>
       </c>
       <c r="C338" t="n">
-        <v>171.75</v>
+        <v>196.84</v>
       </c>
       <c r="D338" t="n">
-        <v>134.44</v>
+        <v>146.68</v>
       </c>
       <c r="E338" t="n">
-        <v>99.73999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="339">
@@ -6215,16 +6215,16 @@
         <v>45629</v>
       </c>
       <c r="B339" t="n">
-        <v>192.85</v>
+        <v>199.23</v>
       </c>
       <c r="C339" t="n">
-        <v>170.23</v>
+        <v>199.31</v>
       </c>
       <c r="D339" t="n">
-        <v>134.36</v>
+        <v>146.97</v>
       </c>
       <c r="E339" t="n">
-        <v>99.88</v>
+        <v>99.95999999999999</v>
       </c>
     </row>
     <row r="340">
@@ -6232,16 +6232,16 @@
         <v>45630</v>
       </c>
       <c r="B340" t="n">
-        <v>190.36</v>
+        <v>198.43</v>
       </c>
       <c r="C340" t="n">
-        <v>171.16</v>
+        <v>198.44</v>
       </c>
       <c r="D340" t="n">
-        <v>135.08</v>
+        <v>148.62</v>
       </c>
       <c r="E340" t="n">
-        <v>99.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341">
@@ -6249,16 +6249,16 @@
         <v>45631</v>
       </c>
       <c r="B341" t="n">
-        <v>186.7</v>
+        <v>197.69</v>
       </c>
       <c r="C341" t="n">
-        <v>170.7</v>
+        <v>197.68</v>
       </c>
       <c r="D341" t="n">
-        <v>135.51</v>
+        <v>148.31</v>
       </c>
       <c r="E341" t="n">
-        <v>99.84999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="342">
@@ -6266,13 +6266,13 @@
         <v>45632</v>
       </c>
       <c r="B342" t="n">
-        <v>187.25</v>
+        <v>198.66</v>
       </c>
       <c r="C342" t="n">
-        <v>170.92</v>
+        <v>198.64</v>
       </c>
       <c r="D342" t="n">
-        <v>136.09</v>
+        <v>148.89</v>
       </c>
       <c r="E342" t="n">
         <v>100.01</v>
@@ -6283,16 +6283,16 @@
         <v>45633</v>
       </c>
       <c r="B343" t="n">
-        <v>186.08</v>
+        <v>198.92</v>
       </c>
       <c r="C343" t="n">
-        <v>172.69</v>
+        <v>198.99</v>
       </c>
       <c r="D343" t="n">
-        <v>136.07</v>
+        <v>150.93</v>
       </c>
       <c r="E343" t="n">
-        <v>100</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="344">
@@ -6300,16 +6300,16 @@
         <v>45634</v>
       </c>
       <c r="B344" t="n">
-        <v>184.97</v>
+        <v>199.91</v>
       </c>
       <c r="C344" t="n">
-        <v>172.36</v>
+        <v>199.92</v>
       </c>
       <c r="D344" t="n">
-        <v>135.46</v>
+        <v>151.08</v>
       </c>
       <c r="E344" t="n">
-        <v>99.98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345">
@@ -6317,16 +6317,16 @@
         <v>45635</v>
       </c>
       <c r="B345" t="n">
-        <v>187.78</v>
+        <v>201.19</v>
       </c>
       <c r="C345" t="n">
-        <v>170.83</v>
+        <v>201.18</v>
       </c>
       <c r="D345" t="n">
-        <v>134.25</v>
+        <v>150.27</v>
       </c>
       <c r="E345" t="n">
-        <v>100.15</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="346">
@@ -6334,16 +6334,16 @@
         <v>45636</v>
       </c>
       <c r="B346" t="n">
-        <v>187.74</v>
+        <v>198.81</v>
       </c>
       <c r="C346" t="n">
-        <v>170.21</v>
+        <v>198.84</v>
       </c>
       <c r="D346" t="n">
-        <v>135.2</v>
+        <v>150.75</v>
       </c>
       <c r="E346" t="n">
-        <v>99.94</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="347">
@@ -6351,16 +6351,16 @@
         <v>45637</v>
       </c>
       <c r="B347" t="n">
-        <v>190.77</v>
+        <v>198.34</v>
       </c>
       <c r="C347" t="n">
-        <v>171.31</v>
+        <v>198.29</v>
       </c>
       <c r="D347" t="n">
-        <v>134.91</v>
+        <v>152.3</v>
       </c>
       <c r="E347" t="n">
-        <v>100.22</v>
+        <v>100.02</v>
       </c>
     </row>
     <row r="348">
@@ -6368,16 +6368,16 @@
         <v>45638</v>
       </c>
       <c r="B348" t="n">
-        <v>190.13</v>
+        <v>196.31</v>
       </c>
       <c r="C348" t="n">
-        <v>172.51</v>
+        <v>196.36</v>
       </c>
       <c r="D348" t="n">
-        <v>135.26</v>
+        <v>152.63</v>
       </c>
       <c r="E348" t="n">
-        <v>100.13</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="349">
@@ -6385,16 +6385,16 @@
         <v>45639</v>
       </c>
       <c r="B349" t="n">
-        <v>192.79</v>
+        <v>199.25</v>
       </c>
       <c r="C349" t="n">
-        <v>172.79</v>
+        <v>199.3</v>
       </c>
       <c r="D349" t="n">
-        <v>134.76</v>
+        <v>152.33</v>
       </c>
       <c r="E349" t="n">
-        <v>100.05</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="350">
@@ -6402,16 +6402,16 @@
         <v>45640</v>
       </c>
       <c r="B350" t="n">
-        <v>192.03</v>
+        <v>199.49</v>
       </c>
       <c r="C350" t="n">
-        <v>175.64</v>
+        <v>199.53</v>
       </c>
       <c r="D350" t="n">
-        <v>134.97</v>
+        <v>152.29</v>
       </c>
       <c r="E350" t="n">
-        <v>99.95999999999999</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="351">
@@ -6419,16 +6419,16 @@
         <v>45641</v>
       </c>
       <c r="B351" t="n">
-        <v>192.6</v>
+        <v>200.83</v>
       </c>
       <c r="C351" t="n">
-        <v>174.11</v>
+        <v>200.89</v>
       </c>
       <c r="D351" t="n">
-        <v>134.3</v>
+        <v>150.97</v>
       </c>
       <c r="E351" t="n">
-        <v>100.12</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="352">
@@ -6436,16 +6436,16 @@
         <v>45642</v>
       </c>
       <c r="B352" t="n">
-        <v>191.88</v>
+        <v>203.35</v>
       </c>
       <c r="C352" t="n">
-        <v>172.99</v>
+        <v>203.37</v>
       </c>
       <c r="D352" t="n">
-        <v>134.84</v>
+        <v>150.53</v>
       </c>
       <c r="E352" t="n">
-        <v>100.12</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="353">
@@ -6453,16 +6453,16 @@
         <v>45643</v>
       </c>
       <c r="B353" t="n">
-        <v>193.27</v>
+        <v>204.46</v>
       </c>
       <c r="C353" t="n">
-        <v>174.52</v>
+        <v>204.44</v>
       </c>
       <c r="D353" t="n">
-        <v>134.33</v>
+        <v>150.88</v>
       </c>
       <c r="E353" t="n">
-        <v>99.86</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="354">
@@ -6470,16 +6470,16 @@
         <v>45644</v>
       </c>
       <c r="B354" t="n">
-        <v>195.88</v>
+        <v>203.67</v>
       </c>
       <c r="C354" t="n">
-        <v>174.34</v>
+        <v>203.71</v>
       </c>
       <c r="D354" t="n">
-        <v>134.24</v>
+        <v>150.98</v>
       </c>
       <c r="E354" t="n">
-        <v>100.13</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="355">
@@ -6487,16 +6487,16 @@
         <v>45645</v>
       </c>
       <c r="B355" t="n">
-        <v>197.05</v>
+        <v>204.86</v>
       </c>
       <c r="C355" t="n">
-        <v>175.18</v>
+        <v>204.89</v>
       </c>
       <c r="D355" t="n">
-        <v>136.09</v>
+        <v>150.77</v>
       </c>
       <c r="E355" t="n">
-        <v>99.94</v>
+        <v>99.98</v>
       </c>
     </row>
   </sheetData>
